--- a/office docs/Squad2 MVP1 UAT Sign-off_overall.xlsx
+++ b/office docs/Squad2 MVP1 UAT Sign-off_overall.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="513">
   <si>
     <t>#</t>
   </si>
@@ -757,7 +757,10 @@
     <t>To verify the field labels and validation for company information section upto field number 16.</t>
   </si>
   <si>
-    <t>Any</t>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Mac</t>
   </si>
   <si>
     <t>Field and Functional validation</t>
@@ -5173,9 +5176,6 @@
     <t>Left Side Progress Menu</t>
   </si>
   <si>
-    <t>9.a</t>
-  </si>
-  <si>
     <t>Verify that the progress menu and the text on the left side is displayed even after scrolling down.</t>
   </si>
   <si>
@@ -5267,10 +5267,571 @@
     </r>
   </si>
   <si>
-    <t>013</t>
-  </si>
-  <si>
-    <t>9.b</t>
+    <t>014</t>
+  </si>
+  <si>
+    <t>Jump to Error</t>
+  </si>
+  <si>
+    <t>Verify that the user is jumped to the section where the error is occurred.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>1. Open the online appointment form page.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>2. Fill the form and leave one of the mandatory field blank in the company information section.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>3. Check the TnC checkbox and click the submit button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>4. Now fill the blank field of company information section and leave one mandatory field blank in the Relevant individual section.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>5. Now submit the form and verify that the user is scrolled up to the field where error has occurred.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>1. The new online appointment form page should be opened.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>2. Form is filled completely.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>3. Error is occurred and the form is scrolled to the field where the error has occurred.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>4. Field is left blank in the relevant individual section</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>5. User scrolled up to the field with error, under the Relevant individual section.</t>
+    </r>
+  </si>
+  <si>
+    <t>015</t>
+  </si>
+  <si>
+    <t>Monthly Statistic report</t>
+  </si>
+  <si>
+    <t>Verify the monthly statistic report</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>1. Connect to UAT database.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">2. Run the following queries on the database:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">select * from TBL_SYS_PROPS where PROPERTY_KEY = 'ONLAPPT.MONTHLY_USAGE';
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>select * from TBL_SYS_PROPS where PROPERTY_KEY = 'ONLAPPT.MONTHLY_USAGE_RECIPIENTS';</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>3. Verify that the number of records in the monthly report received via email is matching with the number of record in the database.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">4. Submit a form and then repeat the steps above o see that the number of records are matching.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>1. Connected to database successfully</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>2. Queries executed successfully</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>3. Number of data is matching.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>4. Verified.</t>
+    </r>
+  </si>
+  <si>
+    <t>016</t>
+  </si>
+  <si>
+    <t>TC</t>
+  </si>
+  <si>
+    <t>017</t>
+  </si>
+  <si>
+    <t>018</t>
+  </si>
+  <si>
+    <t>019</t>
+  </si>
+  <si>
+    <t>020</t>
+  </si>
+  <si>
+    <t>021</t>
+  </si>
+  <si>
+    <t>022</t>
+  </si>
+  <si>
+    <t>023</t>
+  </si>
+  <si>
+    <t>024</t>
+  </si>
+  <si>
+    <t>025</t>
+  </si>
+  <si>
+    <t>026</t>
+  </si>
+  <si>
+    <t>027</t>
+  </si>
+  <si>
+    <t>028</t>
+  </si>
+  <si>
+    <t>029</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>030</t>
+  </si>
+  <si>
+    <t>031</t>
+  </si>
+  <si>
+    <t>032</t>
+  </si>
+  <si>
+    <t>033</t>
+  </si>
+  <si>
+    <t>034</t>
+  </si>
+  <si>
+    <t>035</t>
+  </si>
+  <si>
+    <t>036</t>
+  </si>
+  <si>
+    <t>037</t>
+  </si>
+  <si>
+    <t>038</t>
+  </si>
+  <si>
+    <t>039</t>
+  </si>
+  <si>
+    <t>040</t>
+  </si>
+  <si>
+    <t>041</t>
+  </si>
+  <si>
+    <t>042</t>
+  </si>
+  <si>
+    <t>Windows</t>
+  </si>
+  <si>
+    <t>043</t>
+  </si>
+  <si>
+    <t>044</t>
+  </si>
+  <si>
+    <t>045</t>
+  </si>
+  <si>
+    <t>046</t>
+  </si>
+  <si>
+    <t>047</t>
+  </si>
+  <si>
+    <t>048</t>
+  </si>
+  <si>
+    <t>049</t>
+  </si>
+  <si>
+    <t>050</t>
+  </si>
+  <si>
+    <t>051</t>
+  </si>
+  <si>
+    <t>052</t>
+  </si>
+  <si>
+    <t>053</t>
+  </si>
+  <si>
+    <t>055</t>
+  </si>
+  <si>
+    <t>056</t>
+  </si>
+  <si>
+    <t>057</t>
+  </si>
+  <si>
+    <t>058</t>
+  </si>
+  <si>
+    <t>059</t>
+  </si>
+  <si>
+    <t>060</t>
+  </si>
+  <si>
+    <t>061</t>
+  </si>
+  <si>
+    <t>062</t>
+  </si>
+  <si>
+    <t>063</t>
+  </si>
+  <si>
+    <t>064</t>
+  </si>
+  <si>
+    <t>065</t>
+  </si>
+  <si>
+    <t>066</t>
+  </si>
+  <si>
+    <t>067</t>
+  </si>
+  <si>
+    <t>068</t>
+  </si>
+  <si>
+    <t>069</t>
+  </si>
+  <si>
+    <t>070</t>
+  </si>
+  <si>
+    <t>071</t>
+  </si>
+  <si>
+    <t>072</t>
+  </si>
+  <si>
+    <t>073</t>
+  </si>
+  <si>
+    <t>074</t>
+  </si>
+  <si>
+    <t>075</t>
+  </si>
+  <si>
+    <t>076</t>
+  </si>
+  <si>
+    <t>077</t>
+  </si>
+  <si>
+    <t>078</t>
+  </si>
+  <si>
+    <t>079</t>
+  </si>
+  <si>
+    <t>080</t>
+  </si>
+  <si>
+    <t>081</t>
+  </si>
+  <si>
+    <t>082</t>
+  </si>
+  <si>
+    <t>083</t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>084</t>
+  </si>
+  <si>
+    <t>085</t>
+  </si>
+  <si>
+    <t>086</t>
+  </si>
+  <si>
+    <t>087</t>
+  </si>
+  <si>
+    <t>088</t>
+  </si>
+  <si>
+    <t>089</t>
+  </si>
+  <si>
+    <t>090</t>
+  </si>
+  <si>
+    <t>091</t>
+  </si>
+  <si>
+    <t>092</t>
+  </si>
+  <si>
+    <t>093</t>
+  </si>
+  <si>
+    <t>094</t>
+  </si>
+  <si>
+    <t>095</t>
+  </si>
+  <si>
+    <t>096</t>
   </si>
   <si>
     <t>Verify that the left side menu will not be visible if the screen is small.</t>
@@ -5398,319 +5959,49 @@
     </r>
   </si>
   <si>
-    <t>014</t>
-  </si>
-  <si>
-    <t>Jump to Error</t>
-  </si>
-  <si>
-    <t>Verify that the user is jumped to the section where the error is occurred.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>1. Open the online appointment form page.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>2. Fill the form and leave one of the mandatory field blank in the company information section.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>3. Check the TnC checkbox and click the submit button</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>4. Now fill the blank field of company information section and leave one mandatory field blank in the Relevant individual section.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>5. Now submit the form and verify that the user is scrolled up to the field where error has occurred.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>1. The new online appointment form page should be opened.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>2. Form is filled completely.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>3. Error is occurred and the form is scrolled to the field where the error has occurred.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>4. Field is left blank in the relevant individual section</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>5. User scrolled up to the field with error, under the Relevant individual section.</t>
-    </r>
-  </si>
-  <si>
-    <t>015</t>
-  </si>
-  <si>
-    <t>Monthly Statistic report</t>
-  </si>
-  <si>
-    <t>Verify the monthly statistic report</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>1. Connect to UAT database.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t xml:space="preserve">2. Run the following queries on the database:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t xml:space="preserve">select * from TBL_SYS_PROPS where PROPERTY_KEY = 'ONLAPPT.MONTHLY_USAGE';
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>select * from TBL_SYS_PROPS where PROPERTY_KEY = 'ONLAPPT.MONTHLY_USAGE_RECIPIENTS';</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>3. Verify that the number of records in the monthly report received via email is matching with the number of record in the database.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t xml:space="preserve">4. Submit a form and then repeat the steps above o see that the number of records are matching.
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>1. Connected to database successfully</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>2. Queries executed successfully</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>3. Number of data is matching.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>4. Verified.</t>
-    </r>
+    <t>097</t>
+  </si>
+  <si>
+    <t>IOS</t>
+  </si>
+  <si>
+    <t>098</t>
+  </si>
+  <si>
+    <t>099</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>110</t>
   </si>
   <si>
     <t>System Down Time</t>
@@ -6758,7 +7049,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="224">
+  <cellXfs count="225">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -7364,6 +7655,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="13" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
@@ -13809,15 +14103,15 @@
         <v>0</v>
       </c>
       <c r="C9" s="156">
-        <f>COUNTIFS('Test Cases'!$M1:$M20,"PA*",'Test Cases'!$L1:$L20,TODAY())</f>
+        <f>COUNTIFS('Test Cases'!$M1:$M110,"PA*",'Test Cases'!$L1:$L110,TODAY())</f>
         <v>0</v>
       </c>
       <c r="D9" s="157">
-        <f>COUNTIFS('Test Cases'!$M1:$M20,"Pe*",'Test Cases'!$L1:$L20,TODAY())</f>
+        <f>COUNTIFS('Test Cases'!$M1:$M110,"Pe*",'Test Cases'!$L1:$L110,TODAY())</f>
         <v>0</v>
       </c>
       <c r="E9" s="158">
-        <f>COUNTIFS('Test Cases'!$M1:$M20,"fA*",'Test Cases'!$L1:$L20,TODAY())</f>
+        <f>COUNTIFS('Test Cases'!$M1:$M110,"fA*",'Test Cases'!$L1:$L110,TODAY())</f>
         <v>0</v>
       </c>
       <c r="F9" s="137"/>
@@ -13969,7 +14263,7 @@
         <v>229</v>
       </c>
       <c r="C14" s="155">
-        <f>COUNTIF('Test Cases'!$B1:$B20,"Fulfillment*")</f>
+        <f>COUNTIF('Test Cases'!$B1:$B110,"Fulfillment*")</f>
         <v>0</v>
       </c>
       <c r="D14" s="167">
@@ -13977,19 +14271,19 @@
         <v>0</v>
       </c>
       <c r="E14" s="168">
-        <f>COUNTIFS('Test Cases'!$B1:$B20,"Fulfillment*",'Test Cases'!$M1:$M20,"Can*")</f>
+        <f>COUNTIFS('Test Cases'!$B1:$B110,"Fulfillment*",'Test Cases'!$M1:$M110,"Can*")</f>
         <v>0</v>
       </c>
       <c r="F14" s="156">
-        <f>COUNTIFS('Test Cases'!$B1:$B20,"Fulfillment*",'Test Cases'!$M1:$M20,"Pa*")</f>
+        <f>COUNTIFS('Test Cases'!$B1:$B110,"Fulfillment*",'Test Cases'!$M1:$M110,"Pa*")</f>
         <v>0</v>
       </c>
       <c r="G14" s="157">
-        <f>COUNTIFS('Test Cases'!$B1:$B20,"Fulfillment*",'Test Cases'!$M1:$M20,"Pe*")</f>
+        <f>COUNTIFS('Test Cases'!$B1:$B110,"Fulfillment*",'Test Cases'!$M1:$M110,"Pe*")</f>
         <v>0</v>
       </c>
       <c r="H14" s="169">
-        <f>COUNTIFS('Test Cases'!$B1:$B20,"Fulfillment*",'Test Cases'!$M1:$M20,"fa*")</f>
+        <f>COUNTIFS('Test Cases'!$B1:$B110,"Fulfillment*",'Test Cases'!$M1:$M110,"fa*")</f>
         <v>0</v>
       </c>
       <c r="I14" s="170">
@@ -14026,7 +14320,7 @@
         <v>63</v>
       </c>
       <c r="C15" s="155">
-        <f>COUNTIF('Test Cases'!$B1:$B20,"Notifications*")</f>
+        <f>COUNTIF('Test Cases'!$B1:$B110,"Notifications*")</f>
         <v>0</v>
       </c>
       <c r="D15" s="167">
@@ -14034,19 +14328,19 @@
         <v>0</v>
       </c>
       <c r="E15" s="168">
-        <f>COUNTIFS('Test Cases'!$B1:$B20,"Notifications*",'Test Cases'!$M1:$M20,"Can*")</f>
+        <f>COUNTIFS('Test Cases'!$B1:$B110,"Notifications*",'Test Cases'!$M1:$M110,"Can*")</f>
         <v>0</v>
       </c>
       <c r="F15" s="156">
-        <f>COUNTIFS('Test Cases'!$B1:$B20,"Notifications*",'Test Cases'!$M1:$M20,"pa*")</f>
+        <f>COUNTIFS('Test Cases'!$B1:$B110,"Notifications*",'Test Cases'!$M1:$M110,"pa*")</f>
         <v>0</v>
       </c>
       <c r="G15" s="157">
-        <f>COUNTIFS('Test Cases'!$B1:$B20,"Notifications*",'Test Cases'!$M1:$M20,"pe*")</f>
+        <f>COUNTIFS('Test Cases'!$B1:$B110,"Notifications*",'Test Cases'!$M1:$M110,"pe*")</f>
         <v>0</v>
       </c>
       <c r="H15" s="169">
-        <f>COUNTIFS('Test Cases'!$B1:$B20,"Notifications*",'Test Cases'!$M1:$M20,"fa*")</f>
+        <f>COUNTIFS('Test Cases'!$B1:$B110,"Notifications*",'Test Cases'!$M1:$M110,"fa*")</f>
         <v>0</v>
       </c>
       <c r="I15" s="170">
@@ -14083,7 +14377,7 @@
         <v>88</v>
       </c>
       <c r="C16" s="155">
-        <f>COUNTIF('Test Cases'!$B1:$B20,"Entry*")</f>
+        <f>COUNTIF('Test Cases'!$B1:$B110,"Entry*")</f>
         <v>0</v>
       </c>
       <c r="D16" s="167">
@@ -14091,19 +14385,19 @@
         <v>0</v>
       </c>
       <c r="E16" s="168">
-        <f>COUNTIFS('Test Cases'!$B1:$B20,"Entry*",'Test Cases'!$M1:$M20,"Can*")</f>
+        <f>COUNTIFS('Test Cases'!$B1:$B110,"Entry*",'Test Cases'!$M1:$M110,"Can*")</f>
         <v>0</v>
       </c>
       <c r="F16" s="156">
-        <f>COUNTIFS('Test Cases'!$B1:$B20,"Entry*",'Test Cases'!$M1:$M20,"pa*")</f>
+        <f>COUNTIFS('Test Cases'!$B1:$B110,"Entry*",'Test Cases'!$M1:$M110,"pa*")</f>
         <v>0</v>
       </c>
       <c r="G16" s="157">
-        <f>COUNTIFS('Test Cases'!$B1:$B20,"Entry*",'Test Cases'!$M1:$M20,"pe*")</f>
+        <f>COUNTIFS('Test Cases'!$B1:$B110,"Entry*",'Test Cases'!$M1:$M110,"pe*")</f>
         <v>0</v>
       </c>
       <c r="H16" s="169">
-        <f>COUNTIFS('Test Cases'!$B1:$B20,"Entry*",'Test Cases'!$M1:$M20,"fa*")</f>
+        <f>COUNTIFS('Test Cases'!$B1:$B110,"Entry*",'Test Cases'!$M1:$M110,"fa*")</f>
         <v>0</v>
       </c>
       <c r="I16" s="170">
@@ -14140,7 +14434,7 @@
         <v>102</v>
       </c>
       <c r="C17" s="155">
-        <f>COUNTIF('Test Cases'!$B1:$B20,"Statements*")</f>
+        <f>COUNTIF('Test Cases'!$B1:$B110,"Statements*")</f>
         <v>0</v>
       </c>
       <c r="D17" s="167">
@@ -14148,19 +14442,19 @@
         <v>0</v>
       </c>
       <c r="E17" s="168">
-        <f>COUNTIFS('Test Cases'!$B1:$B20,"Statements*",'Test Cases'!$M1:$M20,"Can*")</f>
+        <f>COUNTIFS('Test Cases'!$B1:$B110,"Statements*",'Test Cases'!$M1:$M110,"Can*")</f>
         <v>0</v>
       </c>
       <c r="F17" s="156">
-        <f>COUNTIFS('Test Cases'!$B1:$B20,"Statements*",'Test Cases'!$M1:$M20,"pa*")</f>
+        <f>COUNTIFS('Test Cases'!$B1:$B110,"Statements*",'Test Cases'!$M1:$M110,"pa*")</f>
         <v>0</v>
       </c>
       <c r="G17" s="157">
-        <f>COUNTIFS('Test Cases'!$B1:$B20,"Statements*",'Test Cases'!$M1:$M20,"pe*")</f>
+        <f>COUNTIFS('Test Cases'!$B1:$B110,"Statements*",'Test Cases'!$M1:$M110,"pe*")</f>
         <v>0</v>
       </c>
       <c r="H17" s="169">
-        <f>COUNTIFS('Test Cases'!$B1:$B20,"Statements*",'Test Cases'!$M1:$M20,"fa*")</f>
+        <f>COUNTIFS('Test Cases'!$B1:$B110,"Statements*",'Test Cases'!$M1:$M110,"fa*")</f>
         <v>0</v>
       </c>
       <c r="I17" s="170">
@@ -14197,7 +14491,7 @@
         <v>107</v>
       </c>
       <c r="C18" s="155">
-        <f>COUNTIF('Test Cases'!$B1:$B20,"Referee*")</f>
+        <f>COUNTIF('Test Cases'!$B1:$B110,"Referee*")</f>
         <v>0</v>
       </c>
       <c r="D18" s="167">
@@ -14205,19 +14499,19 @@
         <v>0</v>
       </c>
       <c r="E18" s="168">
-        <f>COUNTIFS('Test Cases'!$B1:$B20,"Referee*",'Test Cases'!$M1:$M20,"Can*")</f>
+        <f>COUNTIFS('Test Cases'!$B1:$B110,"Referee*",'Test Cases'!$M1:$M110,"Can*")</f>
         <v>0</v>
       </c>
       <c r="F18" s="156">
-        <f>COUNTIFS('Test Cases'!$B1:$B20,"Referee*",'Test Cases'!$M1:$M20,"pa*")</f>
+        <f>COUNTIFS('Test Cases'!$B1:$B110,"Referee*",'Test Cases'!$M1:$M110,"pa*")</f>
         <v>0</v>
       </c>
       <c r="G18" s="157">
-        <f>COUNTIFS('Test Cases'!$B1:$B20,"Referee*",'Test Cases'!$M1:$M20,"pe*")</f>
+        <f>COUNTIFS('Test Cases'!$B1:$B110,"Referee*",'Test Cases'!$M1:$M110,"pe*")</f>
         <v>0</v>
       </c>
       <c r="H18" s="169">
-        <f>COUNTIFS('Test Cases'!$B1:$B20,"Referee*",'Test Cases'!$M1:$M20,"fa*")</f>
+        <f>COUNTIFS('Test Cases'!$B1:$B110,"Referee*",'Test Cases'!$M1:$M110,"fa*")</f>
         <v>0</v>
       </c>
       <c r="I18" s="170">
@@ -14254,7 +14548,7 @@
         <v>116</v>
       </c>
       <c r="C19" s="155">
-        <f>COUNTIF('Test Cases'!$B1:$B20,"BO*")</f>
+        <f>COUNTIF('Test Cases'!$B1:$B110,"BO*")</f>
         <v>0</v>
       </c>
       <c r="D19" s="167">
@@ -14262,19 +14556,19 @@
         <v>0</v>
       </c>
       <c r="E19" s="168">
-        <f>COUNTIFS('Test Cases'!$B1:$B20,"BO*",'Test Cases'!$M1:$M20,"Can*")</f>
+        <f>COUNTIFS('Test Cases'!$B1:$B110,"BO*",'Test Cases'!$M1:$M110,"Can*")</f>
         <v>0</v>
       </c>
       <c r="F19" s="156">
-        <f>COUNTIFS('Test Cases'!$B1:$B20,"BO*",'Test Cases'!$M1:$M20,"pa*")</f>
+        <f>COUNTIFS('Test Cases'!$B1:$B110,"BO*",'Test Cases'!$M1:$M110,"pa*")</f>
         <v>0</v>
       </c>
       <c r="G19" s="157">
-        <f>COUNTIFS('Test Cases'!$B1:$B20,"BO*",'Test Cases'!$M1:$M20,"pe*")</f>
+        <f>COUNTIFS('Test Cases'!$B1:$B110,"BO*",'Test Cases'!$M1:$M110,"pe*")</f>
         <v>0</v>
       </c>
       <c r="H19" s="169">
-        <f>COUNTIFS('Test Cases'!$B1:$B20,"BO*",'Test Cases'!$M1:$M20,"fa*")</f>
+        <f>COUNTIFS('Test Cases'!$B1:$B110,"BO*",'Test Cases'!$M1:$M110,"fa*")</f>
         <v>0</v>
       </c>
       <c r="I19" s="170">
@@ -14311,7 +14605,7 @@
         <v>230</v>
       </c>
       <c r="C20" s="155">
-        <f>COUNTIF('Test Cases'!$B1:$B20,"Referrer*")</f>
+        <f>COUNTIF('Test Cases'!$B1:$B110,"Referrer*")</f>
         <v>0</v>
       </c>
       <c r="D20" s="167">
@@ -14319,19 +14613,19 @@
         <v>0</v>
       </c>
       <c r="E20" s="168">
-        <f>COUNTIFS('Test Cases'!$B1:$B20,"Referrer*",'Test Cases'!$M1:$M20,"Can*")</f>
+        <f>COUNTIFS('Test Cases'!$B1:$B110,"Referrer*",'Test Cases'!$M1:$M110,"Can*")</f>
         <v>0</v>
       </c>
       <c r="F20" s="156">
-        <f>COUNTIFS('Test Cases'!$B1:$B20,"Referrer*",'Test Cases'!$M1:$M20,"pa*")</f>
+        <f>COUNTIFS('Test Cases'!$B1:$B110,"Referrer*",'Test Cases'!$M1:$M110,"pa*")</f>
         <v>0</v>
       </c>
       <c r="G20" s="157">
-        <f>COUNTIFS('Test Cases'!$B1:$B20,"Referrer*",'Test Cases'!$M1:$M20,"pe*")</f>
+        <f>COUNTIFS('Test Cases'!$B1:$B110,"Referrer*",'Test Cases'!$M1:$M110,"pe*")</f>
         <v>0</v>
       </c>
       <c r="H20" s="169">
-        <f>COUNTIFS('Test Cases'!$B1:$B20,"Referrer*",'Test Cases'!$M1:$M20,"fa*")</f>
+        <f>COUNTIFS('Test Cases'!$B1:$B110,"Referrer*",'Test Cases'!$M1:$M110,"fa*")</f>
         <v>0</v>
       </c>
       <c r="I20" s="170">
@@ -14368,7 +14662,7 @@
         <v>29</v>
       </c>
       <c r="C21" s="155">
-        <f>COUNTIF('Test Cases'!$B1:$B20,"Reports*")</f>
+        <f>COUNTIF('Test Cases'!$B1:$B110,"Reports*")</f>
         <v>0</v>
       </c>
       <c r="D21" s="167">
@@ -14376,19 +14670,19 @@
         <v>0</v>
       </c>
       <c r="E21" s="168">
-        <f>COUNTIFS('Test Cases'!$B1:$B20,"Reports*",'Test Cases'!$M1:$M20,"Can*")</f>
+        <f>COUNTIFS('Test Cases'!$B1:$B110,"Reports*",'Test Cases'!$M1:$M110,"Can*")</f>
         <v>0</v>
       </c>
       <c r="F21" s="156">
-        <f>COUNTIFS('Test Cases'!$B1:$B20,"Reports*",'Test Cases'!$M1:$M20,"pa*")</f>
+        <f>COUNTIFS('Test Cases'!$B1:$B110,"Reports*",'Test Cases'!$M1:$M110,"pa*")</f>
         <v>0</v>
       </c>
       <c r="G21" s="157">
-        <f>COUNTIFS('Test Cases'!$B1:$B20,"Reports*",'Test Cases'!$M1:$M20,"pe*")</f>
+        <f>COUNTIFS('Test Cases'!$B1:$B110,"Reports*",'Test Cases'!$M1:$M110,"pe*")</f>
         <v>0</v>
       </c>
       <c r="H21" s="169">
-        <f>COUNTIFS('Test Cases'!$B1:$B20,"Reports*",'Test Cases'!$M1:$M20,"fa*")</f>
+        <f>COUNTIFS('Test Cases'!$B1:$B110,"Reports*",'Test Cases'!$M1:$M110,"fa*")</f>
         <v>0</v>
       </c>
       <c r="I21" s="170">
@@ -14425,7 +14719,7 @@
         <v>182</v>
       </c>
       <c r="C22" s="155">
-        <f>COUNTIF('Test Cases'!$B1:$B20,"Data*")</f>
+        <f>COUNTIF('Test Cases'!$B1:$B110,"Data*")</f>
         <v>0</v>
       </c>
       <c r="D22" s="167">
@@ -14433,19 +14727,19 @@
         <v>0</v>
       </c>
       <c r="E22" s="168">
-        <f>COUNTIFS('Test Cases'!$B1:$B20,"Data*",'Test Cases'!$M1:$M20,"Can*")</f>
+        <f>COUNTIFS('Test Cases'!$B1:$B110,"Data*",'Test Cases'!$M1:$M110,"Can*")</f>
         <v>0</v>
       </c>
       <c r="F22" s="156">
-        <f>COUNTIFS('Test Cases'!$B1:$B20,"Data*",'Test Cases'!$M1:$M20,"pa*")</f>
+        <f>COUNTIFS('Test Cases'!$B1:$B110,"Data*",'Test Cases'!$M1:$M110,"pa*")</f>
         <v>0</v>
       </c>
       <c r="G22" s="157">
-        <f>COUNTIFS('Test Cases'!$B1:$B20,"Data*",'Test Cases'!$M1:$M20,"pe*")</f>
+        <f>COUNTIFS('Test Cases'!$B1:$B110,"Data*",'Test Cases'!$M1:$M110,"pe*")</f>
         <v>0</v>
       </c>
       <c r="H22" s="169">
-        <f>COUNTIFS('Test Cases'!$B1:$B20,"Data*",'Test Cases'!$M1:$M20,"fa*")</f>
+        <f>COUNTIFS('Test Cases'!$B1:$B110,"Data*",'Test Cases'!$M1:$M110,"fa*")</f>
         <v>0</v>
       </c>
       <c r="I22" s="170">
@@ -14482,7 +14776,7 @@
         <v>189</v>
       </c>
       <c r="C23" s="155">
-        <f>COUNTIF('Test Cases'!$B1:$B20,"Others*")</f>
+        <f>COUNTIF('Test Cases'!$B1:$B110,"Others*")</f>
         <v>0</v>
       </c>
       <c r="D23" s="167">
@@ -14490,19 +14784,19 @@
         <v>0</v>
       </c>
       <c r="E23" s="168">
-        <f>COUNTIFS('Test Cases'!$B1:$B20,"Others*",'Test Cases'!$M1:$M20,"Can*")</f>
+        <f>COUNTIFS('Test Cases'!$B1:$B110,"Others*",'Test Cases'!$M1:$M110,"Can*")</f>
         <v>0</v>
       </c>
       <c r="F23" s="156">
-        <f>COUNTIFS('Test Cases'!$B1:$B20,"Others*",'Test Cases'!$M1:$M20,"pa*")</f>
+        <f>COUNTIFS('Test Cases'!$B1:$B110,"Others*",'Test Cases'!$M1:$M110,"pa*")</f>
         <v>0</v>
       </c>
       <c r="G23" s="157">
-        <f>COUNTIFS('Test Cases'!$B1:$B20,"Others*",'Test Cases'!$M1:$M20,"pe*")</f>
+        <f>COUNTIFS('Test Cases'!$B1:$B110,"Others*",'Test Cases'!$M1:$M110,"pe*")</f>
         <v>0</v>
       </c>
       <c r="H23" s="169">
-        <f>COUNTIFS('Test Cases'!$B1:$B20,"Others*",'Test Cases'!$M1:$M20,"fa*")</f>
+        <f>COUNTIFS('Test Cases'!$B1:$B110,"Others*",'Test Cases'!$M1:$M110,"fa*")</f>
         <v>0</v>
       </c>
       <c r="I23" s="170">
@@ -14601,7 +14895,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:N110"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -14698,394 +14992,394 @@
         <v>246</v>
       </c>
       <c r="F3" t="s" s="193">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G3" t="s" s="195">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H3" s="196"/>
       <c r="I3" s="196"/>
       <c r="J3" t="s" s="195">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K3" t="s" s="195">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L3" s="197"/>
       <c r="M3" t="s" s="193">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N3" s="198"/>
     </row>
     <row r="4" ht="56" customHeight="1">
       <c r="A4" t="s" s="193">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B4" t="s" s="193">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C4" s="194">
         <v>2</v>
       </c>
       <c r="D4" t="s" s="195">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E4" t="s" s="193">
         <v>246</v>
       </c>
       <c r="F4" t="s" s="193">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G4" t="s" s="195">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H4" s="196"/>
       <c r="I4" s="196"/>
       <c r="J4" t="s" s="195">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K4" t="s" s="195">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L4" s="197"/>
       <c r="M4" t="s" s="193">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N4" s="198"/>
     </row>
     <row r="5" ht="70" customHeight="1">
       <c r="A5" t="s" s="193">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B5" t="s" s="193">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C5" s="194">
         <v>3</v>
       </c>
       <c r="D5" t="s" s="195">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E5" t="s" s="193">
         <v>246</v>
       </c>
       <c r="F5" t="s" s="193">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G5" t="s" s="195">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H5" s="196"/>
       <c r="I5" s="196"/>
       <c r="J5" t="s" s="195">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K5" t="s" s="195">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L5" s="197"/>
       <c r="M5" t="s" s="193">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N5" s="196"/>
     </row>
     <row r="6" ht="70" customHeight="1">
       <c r="A6" t="s" s="193">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B6" t="s" s="193">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C6" s="194">
         <v>4</v>
       </c>
       <c r="D6" t="s" s="195">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E6" t="s" s="193">
         <v>246</v>
       </c>
       <c r="F6" t="s" s="193">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G6" t="s" s="195">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H6" s="196"/>
       <c r="I6" s="196"/>
       <c r="J6" t="s" s="195">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K6" t="s" s="195">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L6" s="197"/>
       <c r="M6" t="s" s="193">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N6" s="198"/>
     </row>
     <row r="7" ht="70" customHeight="1">
       <c r="A7" t="s" s="193">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B7" t="s" s="193">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C7" t="s" s="193">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D7" t="s" s="199">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E7" t="s" s="193">
         <v>246</v>
       </c>
       <c r="F7" t="s" s="193">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G7" t="s" s="195">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H7" s="196"/>
       <c r="I7" s="196"/>
       <c r="J7" t="s" s="195">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K7" t="s" s="195">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L7" s="197"/>
       <c r="M7" t="s" s="193">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N7" s="198"/>
     </row>
     <row r="8" ht="70" customHeight="1">
       <c r="A8" t="s" s="193">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B8" t="s" s="193">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C8" t="s" s="193">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D8" t="s" s="200">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E8" t="s" s="193">
         <v>246</v>
       </c>
       <c r="F8" t="s" s="193">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G8" t="s" s="195">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H8" s="196"/>
       <c r="I8" s="196"/>
       <c r="J8" t="s" s="195">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K8" t="s" s="195">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L8" s="197"/>
       <c r="M8" t="s" s="193">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N8" s="198"/>
     </row>
     <row r="9" ht="70" customHeight="1">
       <c r="A9" t="s" s="193">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B9" t="s" s="193">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C9" t="s" s="193">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D9" t="s" s="200">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E9" t="s" s="193">
         <v>246</v>
       </c>
       <c r="F9" t="s" s="193">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G9" t="s" s="195">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H9" s="196"/>
       <c r="I9" s="196"/>
       <c r="J9" t="s" s="195">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K9" t="s" s="195">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L9" s="197"/>
       <c r="M9" t="s" s="193">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N9" s="198"/>
     </row>
     <row r="10" ht="70" customHeight="1">
       <c r="A10" t="s" s="193">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B10" t="s" s="193">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C10" t="s" s="193">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D10" t="s" s="200">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E10" t="s" s="193">
         <v>246</v>
       </c>
       <c r="F10" t="s" s="193">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G10" t="s" s="195">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H10" s="196"/>
       <c r="I10" s="196"/>
       <c r="J10" t="s" s="195">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K10" t="s" s="195">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L10" s="197"/>
       <c r="M10" t="s" s="193">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N10" s="198"/>
     </row>
     <row r="11" ht="121.55" customHeight="1">
       <c r="A11" t="s" s="193">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B11" t="s" s="193">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C11" t="s" s="193">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D11" t="s" s="200">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E11" t="s" s="193">
         <v>246</v>
       </c>
       <c r="F11" t="s" s="193">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G11" t="s" s="195">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H11" s="196"/>
       <c r="I11" s="196"/>
       <c r="J11" t="s" s="195">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K11" t="s" s="195">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L11" s="197"/>
       <c r="M11" t="s" s="193">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N11" s="198"/>
     </row>
     <row r="12" ht="82.2" customHeight="1">
       <c r="A12" t="s" s="193">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B12" t="s" s="193">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C12" t="s" s="193">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D12" t="s" s="200">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E12" t="s" s="193">
         <v>246</v>
       </c>
       <c r="F12" t="s" s="193">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G12" t="s" s="195">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H12" s="196"/>
       <c r="I12" s="196"/>
       <c r="J12" t="s" s="195">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K12" t="s" s="195">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L12" s="197"/>
       <c r="M12" t="s" s="193">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N12" s="198"/>
     </row>
     <row r="13" ht="28" customHeight="1">
       <c r="A13" t="s" s="193">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B13" t="s" s="193">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C13" s="194">
         <v>8</v>
       </c>
       <c r="D13" t="s" s="200">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E13" t="s" s="193">
         <v>246</v>
       </c>
       <c r="F13" t="s" s="193">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G13" t="s" s="195">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H13" s="196"/>
       <c r="I13" s="196"/>
       <c r="J13" t="s" s="195">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K13" t="s" s="195">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L13" s="197"/>
       <c r="M13" t="s" s="193">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N13" s="198"/>
     </row>
     <row r="14" ht="28" customHeight="1">
       <c r="A14" t="s" s="193">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B14" t="s" s="193">
-        <v>308</v>
-      </c>
-      <c r="C14" t="s" s="193">
         <v>309</v>
+      </c>
+      <c r="C14" s="194">
+        <v>9</v>
       </c>
       <c r="D14" t="s" s="200">
         <v>310</v>
@@ -15094,10 +15388,10 @@
         <v>246</v>
       </c>
       <c r="F14" t="s" s="193">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G14" t="s" s="195">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H14" s="196"/>
       <c r="I14" s="196"/>
@@ -15109,19 +15403,19 @@
       </c>
       <c r="L14" s="197"/>
       <c r="M14" t="s" s="193">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N14" s="198"/>
     </row>
-    <row r="15" ht="28" customHeight="1">
+    <row r="15" ht="56" customHeight="1">
       <c r="A15" t="s" s="193">
         <v>313</v>
       </c>
       <c r="B15" t="s" s="193">
-        <v>308</v>
-      </c>
-      <c r="C15" t="s" s="193">
         <v>314</v>
+      </c>
+      <c r="C15" s="194">
+        <v>10</v>
       </c>
       <c r="D15" t="s" s="200">
         <v>315</v>
@@ -15130,10 +15424,10 @@
         <v>246</v>
       </c>
       <c r="F15" t="s" s="193">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G15" t="s" s="195">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H15" s="196"/>
       <c r="I15" s="196"/>
@@ -15145,11 +15439,11 @@
       </c>
       <c r="L15" s="197"/>
       <c r="M15" t="s" s="193">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N15" s="198"/>
     </row>
-    <row r="16" ht="56" customHeight="1">
+    <row r="16" ht="70" customHeight="1">
       <c r="A16" t="s" s="193">
         <v>318</v>
       </c>
@@ -15157,19 +15451,19 @@
         <v>319</v>
       </c>
       <c r="C16" s="194">
-        <v>10</v>
-      </c>
-      <c r="D16" t="s" s="200">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s" s="201">
         <v>320</v>
       </c>
       <c r="E16" t="s" s="193">
         <v>246</v>
       </c>
       <c r="F16" t="s" s="193">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G16" t="s" s="195">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H16" s="196"/>
       <c r="I16" s="196"/>
@@ -15181,93 +15475,3393 @@
       </c>
       <c r="L16" s="197"/>
       <c r="M16" t="s" s="193">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N16" s="198"/>
     </row>
-    <row r="17" ht="70" customHeight="1">
+    <row r="17" ht="28" customHeight="1">
       <c r="A17" t="s" s="193">
         <v>323</v>
       </c>
       <c r="B17" t="s" s="193">
+        <v>244</v>
+      </c>
+      <c r="C17" s="194">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s" s="195">
+        <v>245</v>
+      </c>
+      <c r="E17" t="s" s="193">
         <v>324</v>
       </c>
-      <c r="C17" s="194">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s" s="201">
-        <v>325</v>
-      </c>
-      <c r="E17" t="s" s="193">
-        <v>246</v>
-      </c>
       <c r="F17" t="s" s="193">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G17" t="s" s="195">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="H17" s="196"/>
       <c r="I17" s="196"/>
       <c r="J17" t="s" s="195">
-        <v>326</v>
+        <v>249</v>
       </c>
       <c r="K17" t="s" s="195">
-        <v>327</v>
+        <v>250</v>
       </c>
       <c r="L17" s="197"/>
       <c r="M17" t="s" s="193">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N17" s="198"/>
     </row>
     <row r="18" ht="28" customHeight="1">
-      <c r="A18" s="198"/>
-      <c r="B18" s="198"/>
-      <c r="C18" s="198"/>
-      <c r="D18" s="196"/>
-      <c r="E18" s="198"/>
-      <c r="F18" s="198"/>
-      <c r="G18" s="196"/>
+      <c r="A18" t="s" s="193">
+        <v>325</v>
+      </c>
+      <c r="B18" t="s" s="193">
+        <v>253</v>
+      </c>
+      <c r="C18" s="194">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s" s="195">
+        <v>254</v>
+      </c>
+      <c r="E18" t="s" s="193">
+        <v>324</v>
+      </c>
+      <c r="F18" t="s" s="193">
+        <v>247</v>
+      </c>
+      <c r="G18" t="s" s="195">
+        <v>255</v>
+      </c>
       <c r="H18" s="196"/>
       <c r="I18" s="196"/>
-      <c r="J18" s="196"/>
-      <c r="K18" s="196"/>
+      <c r="J18" t="s" s="195">
+        <v>256</v>
+      </c>
+      <c r="K18" t="s" s="195">
+        <v>257</v>
+      </c>
       <c r="L18" s="197"/>
-      <c r="M18" s="198"/>
+      <c r="M18" t="s" s="193">
+        <v>251</v>
+      </c>
       <c r="N18" s="198"/>
     </row>
     <row r="19" ht="28" customHeight="1">
-      <c r="A19" s="198"/>
-      <c r="B19" s="198"/>
-      <c r="C19" s="198"/>
-      <c r="D19" s="196"/>
-      <c r="E19" s="198"/>
-      <c r="F19" s="198"/>
-      <c r="G19" s="196"/>
+      <c r="A19" t="s" s="193">
+        <v>326</v>
+      </c>
+      <c r="B19" t="s" s="193">
+        <v>259</v>
+      </c>
+      <c r="C19" s="194">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s" s="195">
+        <v>260</v>
+      </c>
+      <c r="E19" t="s" s="193">
+        <v>324</v>
+      </c>
+      <c r="F19" t="s" s="193">
+        <v>247</v>
+      </c>
+      <c r="G19" t="s" s="195">
+        <v>248</v>
+      </c>
       <c r="H19" s="196"/>
       <c r="I19" s="196"/>
-      <c r="J19" s="196"/>
-      <c r="K19" s="196"/>
+      <c r="J19" t="s" s="195">
+        <v>261</v>
+      </c>
+      <c r="K19" t="s" s="195">
+        <v>262</v>
+      </c>
       <c r="L19" s="197"/>
-      <c r="M19" s="198"/>
-      <c r="N19" s="198"/>
+      <c r="M19" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N19" s="196"/>
     </row>
     <row r="20" ht="28" customHeight="1">
-      <c r="A20" s="198"/>
-      <c r="B20" s="198"/>
-      <c r="C20" s="198"/>
-      <c r="D20" s="196"/>
-      <c r="E20" s="198"/>
-      <c r="F20" s="198"/>
-      <c r="G20" s="196"/>
+      <c r="A20" t="s" s="193">
+        <v>327</v>
+      </c>
+      <c r="B20" t="s" s="193">
+        <v>264</v>
+      </c>
+      <c r="C20" s="194">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s" s="195">
+        <v>265</v>
+      </c>
+      <c r="E20" t="s" s="193">
+        <v>324</v>
+      </c>
+      <c r="F20" t="s" s="193">
+        <v>247</v>
+      </c>
+      <c r="G20" t="s" s="195">
+        <v>248</v>
+      </c>
       <c r="H20" s="196"/>
       <c r="I20" s="196"/>
-      <c r="J20" s="196"/>
-      <c r="K20" s="196"/>
+      <c r="J20" t="s" s="195">
+        <v>266</v>
+      </c>
+      <c r="K20" t="s" s="195">
+        <v>267</v>
+      </c>
       <c r="L20" s="197"/>
-      <c r="M20" s="198"/>
+      <c r="M20" t="s" s="193">
+        <v>251</v>
+      </c>
       <c r="N20" s="198"/>
+    </row>
+    <row r="21" ht="28" customHeight="1">
+      <c r="A21" t="s" s="193">
+        <v>328</v>
+      </c>
+      <c r="B21" t="s" s="193">
+        <v>269</v>
+      </c>
+      <c r="C21" t="s" s="193">
+        <v>270</v>
+      </c>
+      <c r="D21" t="s" s="199">
+        <v>271</v>
+      </c>
+      <c r="E21" t="s" s="193">
+        <v>324</v>
+      </c>
+      <c r="F21" t="s" s="193">
+        <v>247</v>
+      </c>
+      <c r="G21" t="s" s="195">
+        <v>272</v>
+      </c>
+      <c r="H21" s="196"/>
+      <c r="I21" s="196"/>
+      <c r="J21" t="s" s="195">
+        <v>273</v>
+      </c>
+      <c r="K21" t="s" s="195">
+        <v>274</v>
+      </c>
+      <c r="L21" s="197"/>
+      <c r="M21" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N21" s="198"/>
+    </row>
+    <row r="22" ht="28" customHeight="1">
+      <c r="A22" t="s" s="193">
+        <v>329</v>
+      </c>
+      <c r="B22" t="s" s="193">
+        <v>269</v>
+      </c>
+      <c r="C22" t="s" s="193">
+        <v>276</v>
+      </c>
+      <c r="D22" t="s" s="200">
+        <v>277</v>
+      </c>
+      <c r="E22" t="s" s="193">
+        <v>324</v>
+      </c>
+      <c r="F22" t="s" s="193">
+        <v>247</v>
+      </c>
+      <c r="G22" t="s" s="195">
+        <v>272</v>
+      </c>
+      <c r="H22" s="196"/>
+      <c r="I22" s="196"/>
+      <c r="J22" t="s" s="195">
+        <v>278</v>
+      </c>
+      <c r="K22" t="s" s="195">
+        <v>279</v>
+      </c>
+      <c r="L22" s="197"/>
+      <c r="M22" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N22" s="198"/>
+    </row>
+    <row r="23" ht="28" customHeight="1">
+      <c r="A23" t="s" s="193">
+        <v>330</v>
+      </c>
+      <c r="B23" t="s" s="193">
+        <v>281</v>
+      </c>
+      <c r="C23" t="s" s="193">
+        <v>282</v>
+      </c>
+      <c r="D23" t="s" s="200">
+        <v>283</v>
+      </c>
+      <c r="E23" t="s" s="193">
+        <v>324</v>
+      </c>
+      <c r="F23" t="s" s="193">
+        <v>247</v>
+      </c>
+      <c r="G23" t="s" s="195">
+        <v>272</v>
+      </c>
+      <c r="H23" s="196"/>
+      <c r="I23" s="196"/>
+      <c r="J23" t="s" s="195">
+        <v>284</v>
+      </c>
+      <c r="K23" t="s" s="195">
+        <v>285</v>
+      </c>
+      <c r="L23" s="197"/>
+      <c r="M23" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N23" s="198"/>
+    </row>
+    <row r="24" ht="28" customHeight="1">
+      <c r="A24" t="s" s="193">
+        <v>331</v>
+      </c>
+      <c r="B24" t="s" s="193">
+        <v>281</v>
+      </c>
+      <c r="C24" t="s" s="193">
+        <v>287</v>
+      </c>
+      <c r="D24" t="s" s="200">
+        <v>288</v>
+      </c>
+      <c r="E24" t="s" s="193">
+        <v>324</v>
+      </c>
+      <c r="F24" t="s" s="193">
+        <v>247</v>
+      </c>
+      <c r="G24" t="s" s="195">
+        <v>272</v>
+      </c>
+      <c r="H24" s="196"/>
+      <c r="I24" s="196"/>
+      <c r="J24" t="s" s="195">
+        <v>289</v>
+      </c>
+      <c r="K24" t="s" s="195">
+        <v>290</v>
+      </c>
+      <c r="L24" s="197"/>
+      <c r="M24" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N24" s="198"/>
+    </row>
+    <row r="25" ht="28" customHeight="1">
+      <c r="A25" t="s" s="193">
+        <v>332</v>
+      </c>
+      <c r="B25" t="s" s="193">
+        <v>292</v>
+      </c>
+      <c r="C25" t="s" s="193">
+        <v>293</v>
+      </c>
+      <c r="D25" t="s" s="200">
+        <v>294</v>
+      </c>
+      <c r="E25" t="s" s="193">
+        <v>324</v>
+      </c>
+      <c r="F25" t="s" s="193">
+        <v>247</v>
+      </c>
+      <c r="G25" t="s" s="195">
+        <v>272</v>
+      </c>
+      <c r="H25" s="196"/>
+      <c r="I25" s="196"/>
+      <c r="J25" t="s" s="195">
+        <v>295</v>
+      </c>
+      <c r="K25" t="s" s="195">
+        <v>296</v>
+      </c>
+      <c r="L25" s="197"/>
+      <c r="M25" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N25" s="198"/>
+    </row>
+    <row r="26" ht="28" customHeight="1">
+      <c r="A26" t="s" s="193">
+        <v>333</v>
+      </c>
+      <c r="B26" t="s" s="193">
+        <v>292</v>
+      </c>
+      <c r="C26" t="s" s="193">
+        <v>298</v>
+      </c>
+      <c r="D26" t="s" s="200">
+        <v>299</v>
+      </c>
+      <c r="E26" t="s" s="193">
+        <v>324</v>
+      </c>
+      <c r="F26" t="s" s="193">
+        <v>247</v>
+      </c>
+      <c r="G26" t="s" s="195">
+        <v>300</v>
+      </c>
+      <c r="H26" s="196"/>
+      <c r="I26" s="196"/>
+      <c r="J26" t="s" s="195">
+        <v>301</v>
+      </c>
+      <c r="K26" t="s" s="195">
+        <v>302</v>
+      </c>
+      <c r="L26" s="197"/>
+      <c r="M26" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N26" s="198"/>
+    </row>
+    <row r="27" ht="28" customHeight="1">
+      <c r="A27" t="s" s="193">
+        <v>334</v>
+      </c>
+      <c r="B27" t="s" s="193">
+        <v>304</v>
+      </c>
+      <c r="C27" s="194">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s" s="200">
+        <v>305</v>
+      </c>
+      <c r="E27" t="s" s="193">
+        <v>324</v>
+      </c>
+      <c r="F27" t="s" s="193">
+        <v>247</v>
+      </c>
+      <c r="G27" t="s" s="195">
+        <v>272</v>
+      </c>
+      <c r="H27" s="196"/>
+      <c r="I27" s="196"/>
+      <c r="J27" t="s" s="195">
+        <v>306</v>
+      </c>
+      <c r="K27" t="s" s="195">
+        <v>307</v>
+      </c>
+      <c r="L27" s="197"/>
+      <c r="M27" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N27" s="198"/>
+    </row>
+    <row r="28" ht="28" customHeight="1">
+      <c r="A28" t="s" s="193">
+        <v>335</v>
+      </c>
+      <c r="B28" t="s" s="193">
+        <v>309</v>
+      </c>
+      <c r="C28" s="194">
+        <v>9</v>
+      </c>
+      <c r="D28" t="s" s="200">
+        <v>310</v>
+      </c>
+      <c r="E28" t="s" s="193">
+        <v>324</v>
+      </c>
+      <c r="F28" t="s" s="193">
+        <v>247</v>
+      </c>
+      <c r="G28" t="s" s="195">
+        <v>272</v>
+      </c>
+      <c r="H28" s="196"/>
+      <c r="I28" s="196"/>
+      <c r="J28" t="s" s="195">
+        <v>311</v>
+      </c>
+      <c r="K28" t="s" s="195">
+        <v>312</v>
+      </c>
+      <c r="L28" s="197"/>
+      <c r="M28" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N28" s="198"/>
+    </row>
+    <row r="29" ht="28" customHeight="1">
+      <c r="A29" t="s" s="193">
+        <v>336</v>
+      </c>
+      <c r="B29" t="s" s="193">
+        <v>314</v>
+      </c>
+      <c r="C29" s="194">
+        <v>10</v>
+      </c>
+      <c r="D29" t="s" s="202">
+        <v>315</v>
+      </c>
+      <c r="E29" t="s" s="193">
+        <v>324</v>
+      </c>
+      <c r="F29" t="s" s="193">
+        <v>247</v>
+      </c>
+      <c r="G29" t="s" s="195">
+        <v>272</v>
+      </c>
+      <c r="H29" s="196"/>
+      <c r="I29" s="196"/>
+      <c r="J29" t="s" s="195">
+        <v>316</v>
+      </c>
+      <c r="K29" t="s" s="195">
+        <v>317</v>
+      </c>
+      <c r="L29" s="197"/>
+      <c r="M29" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N29" s="198"/>
+    </row>
+    <row r="30" ht="28" customHeight="1">
+      <c r="A30" t="s" s="193">
+        <v>337</v>
+      </c>
+      <c r="B30" t="s" s="193">
+        <v>244</v>
+      </c>
+      <c r="C30" s="194">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s" s="195">
+        <v>245</v>
+      </c>
+      <c r="E30" t="s" s="193">
+        <v>338</v>
+      </c>
+      <c r="F30" t="s" s="193">
+        <v>247</v>
+      </c>
+      <c r="G30" t="s" s="195">
+        <v>248</v>
+      </c>
+      <c r="H30" s="196"/>
+      <c r="I30" s="196"/>
+      <c r="J30" t="s" s="195">
+        <v>249</v>
+      </c>
+      <c r="K30" t="s" s="195">
+        <v>250</v>
+      </c>
+      <c r="L30" s="197"/>
+      <c r="M30" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N30" s="198"/>
+    </row>
+    <row r="31" ht="28" customHeight="1">
+      <c r="A31" t="s" s="193">
+        <v>339</v>
+      </c>
+      <c r="B31" t="s" s="193">
+        <v>253</v>
+      </c>
+      <c r="C31" s="194">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s" s="195">
+        <v>254</v>
+      </c>
+      <c r="E31" t="s" s="193">
+        <v>338</v>
+      </c>
+      <c r="F31" t="s" s="193">
+        <v>247</v>
+      </c>
+      <c r="G31" t="s" s="195">
+        <v>255</v>
+      </c>
+      <c r="H31" s="196"/>
+      <c r="I31" s="196"/>
+      <c r="J31" t="s" s="195">
+        <v>256</v>
+      </c>
+      <c r="K31" t="s" s="195">
+        <v>257</v>
+      </c>
+      <c r="L31" s="197"/>
+      <c r="M31" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N31" s="198"/>
+    </row>
+    <row r="32" ht="28" customHeight="1">
+      <c r="A32" t="s" s="193">
+        <v>340</v>
+      </c>
+      <c r="B32" t="s" s="193">
+        <v>259</v>
+      </c>
+      <c r="C32" s="194">
+        <v>3</v>
+      </c>
+      <c r="D32" t="s" s="195">
+        <v>260</v>
+      </c>
+      <c r="E32" t="s" s="193">
+        <v>338</v>
+      </c>
+      <c r="F32" t="s" s="193">
+        <v>247</v>
+      </c>
+      <c r="G32" t="s" s="195">
+        <v>248</v>
+      </c>
+      <c r="H32" s="196"/>
+      <c r="I32" s="196"/>
+      <c r="J32" t="s" s="195">
+        <v>261</v>
+      </c>
+      <c r="K32" t="s" s="195">
+        <v>262</v>
+      </c>
+      <c r="L32" s="197"/>
+      <c r="M32" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N32" s="196"/>
+    </row>
+    <row r="33" ht="28" customHeight="1">
+      <c r="A33" t="s" s="193">
+        <v>341</v>
+      </c>
+      <c r="B33" t="s" s="193">
+        <v>264</v>
+      </c>
+      <c r="C33" s="194">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s" s="195">
+        <v>265</v>
+      </c>
+      <c r="E33" t="s" s="193">
+        <v>338</v>
+      </c>
+      <c r="F33" t="s" s="193">
+        <v>247</v>
+      </c>
+      <c r="G33" t="s" s="195">
+        <v>248</v>
+      </c>
+      <c r="H33" s="196"/>
+      <c r="I33" s="196"/>
+      <c r="J33" t="s" s="195">
+        <v>266</v>
+      </c>
+      <c r="K33" t="s" s="195">
+        <v>267</v>
+      </c>
+      <c r="L33" s="197"/>
+      <c r="M33" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N33" s="198"/>
+    </row>
+    <row r="34" ht="28" customHeight="1">
+      <c r="A34" t="s" s="193">
+        <v>342</v>
+      </c>
+      <c r="B34" t="s" s="193">
+        <v>269</v>
+      </c>
+      <c r="C34" t="s" s="193">
+        <v>270</v>
+      </c>
+      <c r="D34" t="s" s="199">
+        <v>271</v>
+      </c>
+      <c r="E34" t="s" s="193">
+        <v>338</v>
+      </c>
+      <c r="F34" t="s" s="193">
+        <v>247</v>
+      </c>
+      <c r="G34" t="s" s="195">
+        <v>272</v>
+      </c>
+      <c r="H34" s="196"/>
+      <c r="I34" s="196"/>
+      <c r="J34" t="s" s="195">
+        <v>273</v>
+      </c>
+      <c r="K34" t="s" s="195">
+        <v>274</v>
+      </c>
+      <c r="L34" s="197"/>
+      <c r="M34" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N34" s="198"/>
+    </row>
+    <row r="35" ht="28" customHeight="1">
+      <c r="A35" t="s" s="193">
+        <v>343</v>
+      </c>
+      <c r="B35" t="s" s="193">
+        <v>269</v>
+      </c>
+      <c r="C35" t="s" s="193">
+        <v>276</v>
+      </c>
+      <c r="D35" t="s" s="200">
+        <v>277</v>
+      </c>
+      <c r="E35" t="s" s="193">
+        <v>338</v>
+      </c>
+      <c r="F35" t="s" s="193">
+        <v>247</v>
+      </c>
+      <c r="G35" t="s" s="195">
+        <v>272</v>
+      </c>
+      <c r="H35" s="196"/>
+      <c r="I35" s="196"/>
+      <c r="J35" t="s" s="195">
+        <v>278</v>
+      </c>
+      <c r="K35" t="s" s="195">
+        <v>279</v>
+      </c>
+      <c r="L35" s="197"/>
+      <c r="M35" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N35" s="198"/>
+    </row>
+    <row r="36" ht="28" customHeight="1">
+      <c r="A36" t="s" s="193">
+        <v>344</v>
+      </c>
+      <c r="B36" t="s" s="193">
+        <v>281</v>
+      </c>
+      <c r="C36" t="s" s="193">
+        <v>282</v>
+      </c>
+      <c r="D36" t="s" s="200">
+        <v>283</v>
+      </c>
+      <c r="E36" t="s" s="193">
+        <v>338</v>
+      </c>
+      <c r="F36" t="s" s="193">
+        <v>247</v>
+      </c>
+      <c r="G36" t="s" s="195">
+        <v>272</v>
+      </c>
+      <c r="H36" s="196"/>
+      <c r="I36" s="196"/>
+      <c r="J36" t="s" s="195">
+        <v>284</v>
+      </c>
+      <c r="K36" t="s" s="195">
+        <v>285</v>
+      </c>
+      <c r="L36" s="197"/>
+      <c r="M36" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N36" s="198"/>
+    </row>
+    <row r="37" ht="28" customHeight="1">
+      <c r="A37" t="s" s="193">
+        <v>345</v>
+      </c>
+      <c r="B37" t="s" s="193">
+        <v>281</v>
+      </c>
+      <c r="C37" t="s" s="193">
+        <v>287</v>
+      </c>
+      <c r="D37" t="s" s="200">
+        <v>288</v>
+      </c>
+      <c r="E37" t="s" s="193">
+        <v>338</v>
+      </c>
+      <c r="F37" t="s" s="193">
+        <v>247</v>
+      </c>
+      <c r="G37" t="s" s="195">
+        <v>272</v>
+      </c>
+      <c r="H37" s="196"/>
+      <c r="I37" s="196"/>
+      <c r="J37" t="s" s="195">
+        <v>289</v>
+      </c>
+      <c r="K37" t="s" s="195">
+        <v>290</v>
+      </c>
+      <c r="L37" s="197"/>
+      <c r="M37" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N37" s="198"/>
+    </row>
+    <row r="38" ht="28" customHeight="1">
+      <c r="A38" t="s" s="193">
+        <v>346</v>
+      </c>
+      <c r="B38" t="s" s="193">
+        <v>292</v>
+      </c>
+      <c r="C38" t="s" s="193">
+        <v>293</v>
+      </c>
+      <c r="D38" t="s" s="200">
+        <v>294</v>
+      </c>
+      <c r="E38" t="s" s="193">
+        <v>338</v>
+      </c>
+      <c r="F38" t="s" s="193">
+        <v>247</v>
+      </c>
+      <c r="G38" t="s" s="195">
+        <v>272</v>
+      </c>
+      <c r="H38" s="196"/>
+      <c r="I38" s="196"/>
+      <c r="J38" t="s" s="195">
+        <v>295</v>
+      </c>
+      <c r="K38" t="s" s="195">
+        <v>296</v>
+      </c>
+      <c r="L38" s="197"/>
+      <c r="M38" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N38" s="198"/>
+    </row>
+    <row r="39" ht="28" customHeight="1">
+      <c r="A39" t="s" s="193">
+        <v>347</v>
+      </c>
+      <c r="B39" t="s" s="193">
+        <v>292</v>
+      </c>
+      <c r="C39" t="s" s="193">
+        <v>298</v>
+      </c>
+      <c r="D39" t="s" s="200">
+        <v>299</v>
+      </c>
+      <c r="E39" t="s" s="193">
+        <v>338</v>
+      </c>
+      <c r="F39" t="s" s="193">
+        <v>247</v>
+      </c>
+      <c r="G39" t="s" s="195">
+        <v>300</v>
+      </c>
+      <c r="H39" s="196"/>
+      <c r="I39" s="196"/>
+      <c r="J39" t="s" s="195">
+        <v>301</v>
+      </c>
+      <c r="K39" t="s" s="195">
+        <v>302</v>
+      </c>
+      <c r="L39" s="197"/>
+      <c r="M39" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N39" s="198"/>
+    </row>
+    <row r="40" ht="28" customHeight="1">
+      <c r="A40" t="s" s="193">
+        <v>348</v>
+      </c>
+      <c r="B40" t="s" s="193">
+        <v>304</v>
+      </c>
+      <c r="C40" s="194">
+        <v>8</v>
+      </c>
+      <c r="D40" t="s" s="200">
+        <v>305</v>
+      </c>
+      <c r="E40" t="s" s="193">
+        <v>338</v>
+      </c>
+      <c r="F40" t="s" s="193">
+        <v>247</v>
+      </c>
+      <c r="G40" t="s" s="195">
+        <v>272</v>
+      </c>
+      <c r="H40" s="196"/>
+      <c r="I40" s="196"/>
+      <c r="J40" t="s" s="195">
+        <v>306</v>
+      </c>
+      <c r="K40" t="s" s="195">
+        <v>307</v>
+      </c>
+      <c r="L40" s="197"/>
+      <c r="M40" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N40" s="198"/>
+    </row>
+    <row r="41" ht="28" customHeight="1">
+      <c r="A41" t="s" s="193">
+        <v>349</v>
+      </c>
+      <c r="B41" t="s" s="193">
+        <v>309</v>
+      </c>
+      <c r="C41" s="194">
+        <v>9</v>
+      </c>
+      <c r="D41" t="s" s="200">
+        <v>310</v>
+      </c>
+      <c r="E41" t="s" s="193">
+        <v>338</v>
+      </c>
+      <c r="F41" t="s" s="193">
+        <v>247</v>
+      </c>
+      <c r="G41" t="s" s="195">
+        <v>272</v>
+      </c>
+      <c r="H41" s="196"/>
+      <c r="I41" s="196"/>
+      <c r="J41" t="s" s="195">
+        <v>311</v>
+      </c>
+      <c r="K41" t="s" s="195">
+        <v>312</v>
+      </c>
+      <c r="L41" s="197"/>
+      <c r="M41" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N41" s="198"/>
+    </row>
+    <row r="42" ht="28" customHeight="1">
+      <c r="A42" t="s" s="193">
+        <v>350</v>
+      </c>
+      <c r="B42" t="s" s="193">
+        <v>314</v>
+      </c>
+      <c r="C42" s="194">
+        <v>10</v>
+      </c>
+      <c r="D42" t="s" s="202">
+        <v>315</v>
+      </c>
+      <c r="E42" t="s" s="193">
+        <v>338</v>
+      </c>
+      <c r="F42" t="s" s="193">
+        <v>247</v>
+      </c>
+      <c r="G42" t="s" s="195">
+        <v>272</v>
+      </c>
+      <c r="H42" s="196"/>
+      <c r="I42" s="196"/>
+      <c r="J42" t="s" s="195">
+        <v>316</v>
+      </c>
+      <c r="K42" t="s" s="195">
+        <v>317</v>
+      </c>
+      <c r="L42" s="197"/>
+      <c r="M42" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N42" s="198"/>
+    </row>
+    <row r="43" ht="28" customHeight="1">
+      <c r="A43" t="s" s="193">
+        <v>351</v>
+      </c>
+      <c r="B43" t="s" s="193">
+        <v>244</v>
+      </c>
+      <c r="C43" s="194">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s" s="195">
+        <v>245</v>
+      </c>
+      <c r="E43" t="s" s="193">
+        <v>246</v>
+      </c>
+      <c r="F43" t="s" s="193">
+        <v>352</v>
+      </c>
+      <c r="G43" t="s" s="195">
+        <v>248</v>
+      </c>
+      <c r="H43" s="196"/>
+      <c r="I43" s="196"/>
+      <c r="J43" t="s" s="195">
+        <v>249</v>
+      </c>
+      <c r="K43" t="s" s="195">
+        <v>250</v>
+      </c>
+      <c r="L43" s="197"/>
+      <c r="M43" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N43" s="198"/>
+    </row>
+    <row r="44" ht="28" customHeight="1">
+      <c r="A44" t="s" s="193">
+        <v>353</v>
+      </c>
+      <c r="B44" t="s" s="193">
+        <v>253</v>
+      </c>
+      <c r="C44" s="194">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s" s="195">
+        <v>254</v>
+      </c>
+      <c r="E44" t="s" s="193">
+        <v>246</v>
+      </c>
+      <c r="F44" t="s" s="193">
+        <v>352</v>
+      </c>
+      <c r="G44" t="s" s="195">
+        <v>255</v>
+      </c>
+      <c r="H44" s="196"/>
+      <c r="I44" s="196"/>
+      <c r="J44" t="s" s="195">
+        <v>256</v>
+      </c>
+      <c r="K44" t="s" s="195">
+        <v>257</v>
+      </c>
+      <c r="L44" s="197"/>
+      <c r="M44" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N44" s="198"/>
+    </row>
+    <row r="45" ht="28" customHeight="1">
+      <c r="A45" t="s" s="193">
+        <v>354</v>
+      </c>
+      <c r="B45" t="s" s="193">
+        <v>259</v>
+      </c>
+      <c r="C45" s="194">
+        <v>3</v>
+      </c>
+      <c r="D45" t="s" s="195">
+        <v>260</v>
+      </c>
+      <c r="E45" t="s" s="193">
+        <v>246</v>
+      </c>
+      <c r="F45" t="s" s="193">
+        <v>352</v>
+      </c>
+      <c r="G45" t="s" s="195">
+        <v>248</v>
+      </c>
+      <c r="H45" s="196"/>
+      <c r="I45" s="196"/>
+      <c r="J45" t="s" s="195">
+        <v>261</v>
+      </c>
+      <c r="K45" t="s" s="195">
+        <v>262</v>
+      </c>
+      <c r="L45" s="197"/>
+      <c r="M45" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N45" s="196"/>
+    </row>
+    <row r="46" ht="28" customHeight="1">
+      <c r="A46" t="s" s="193">
+        <v>355</v>
+      </c>
+      <c r="B46" t="s" s="193">
+        <v>264</v>
+      </c>
+      <c r="C46" s="194">
+        <v>4</v>
+      </c>
+      <c r="D46" t="s" s="195">
+        <v>265</v>
+      </c>
+      <c r="E46" t="s" s="193">
+        <v>246</v>
+      </c>
+      <c r="F46" t="s" s="193">
+        <v>352</v>
+      </c>
+      <c r="G46" t="s" s="195">
+        <v>248</v>
+      </c>
+      <c r="H46" s="196"/>
+      <c r="I46" s="196"/>
+      <c r="J46" t="s" s="195">
+        <v>266</v>
+      </c>
+      <c r="K46" t="s" s="195">
+        <v>267</v>
+      </c>
+      <c r="L46" s="197"/>
+      <c r="M46" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N46" s="198"/>
+    </row>
+    <row r="47" ht="28" customHeight="1">
+      <c r="A47" t="s" s="193">
+        <v>356</v>
+      </c>
+      <c r="B47" t="s" s="193">
+        <v>269</v>
+      </c>
+      <c r="C47" t="s" s="193">
+        <v>270</v>
+      </c>
+      <c r="D47" t="s" s="199">
+        <v>271</v>
+      </c>
+      <c r="E47" t="s" s="193">
+        <v>246</v>
+      </c>
+      <c r="F47" t="s" s="193">
+        <v>352</v>
+      </c>
+      <c r="G47" t="s" s="195">
+        <v>272</v>
+      </c>
+      <c r="H47" s="196"/>
+      <c r="I47" s="196"/>
+      <c r="J47" t="s" s="195">
+        <v>273</v>
+      </c>
+      <c r="K47" t="s" s="195">
+        <v>274</v>
+      </c>
+      <c r="L47" s="197"/>
+      <c r="M47" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N47" s="198"/>
+    </row>
+    <row r="48" ht="28" customHeight="1">
+      <c r="A48" t="s" s="193">
+        <v>357</v>
+      </c>
+      <c r="B48" t="s" s="193">
+        <v>269</v>
+      </c>
+      <c r="C48" t="s" s="193">
+        <v>276</v>
+      </c>
+      <c r="D48" t="s" s="200">
+        <v>277</v>
+      </c>
+      <c r="E48" t="s" s="193">
+        <v>246</v>
+      </c>
+      <c r="F48" t="s" s="193">
+        <v>352</v>
+      </c>
+      <c r="G48" t="s" s="195">
+        <v>272</v>
+      </c>
+      <c r="H48" s="196"/>
+      <c r="I48" s="196"/>
+      <c r="J48" t="s" s="195">
+        <v>278</v>
+      </c>
+      <c r="K48" t="s" s="195">
+        <v>279</v>
+      </c>
+      <c r="L48" s="197"/>
+      <c r="M48" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N48" s="198"/>
+    </row>
+    <row r="49" ht="28" customHeight="1">
+      <c r="A49" t="s" s="193">
+        <v>358</v>
+      </c>
+      <c r="B49" t="s" s="193">
+        <v>281</v>
+      </c>
+      <c r="C49" t="s" s="193">
+        <v>282</v>
+      </c>
+      <c r="D49" t="s" s="200">
+        <v>283</v>
+      </c>
+      <c r="E49" t="s" s="193">
+        <v>246</v>
+      </c>
+      <c r="F49" t="s" s="193">
+        <v>352</v>
+      </c>
+      <c r="G49" t="s" s="195">
+        <v>272</v>
+      </c>
+      <c r="H49" s="196"/>
+      <c r="I49" s="196"/>
+      <c r="J49" t="s" s="195">
+        <v>284</v>
+      </c>
+      <c r="K49" t="s" s="195">
+        <v>285</v>
+      </c>
+      <c r="L49" s="197"/>
+      <c r="M49" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N49" s="198"/>
+    </row>
+    <row r="50" ht="28" customHeight="1">
+      <c r="A50" t="s" s="193">
+        <v>359</v>
+      </c>
+      <c r="B50" t="s" s="193">
+        <v>281</v>
+      </c>
+      <c r="C50" t="s" s="193">
+        <v>287</v>
+      </c>
+      <c r="D50" t="s" s="200">
+        <v>288</v>
+      </c>
+      <c r="E50" t="s" s="193">
+        <v>246</v>
+      </c>
+      <c r="F50" t="s" s="193">
+        <v>352</v>
+      </c>
+      <c r="G50" t="s" s="195">
+        <v>272</v>
+      </c>
+      <c r="H50" s="196"/>
+      <c r="I50" s="196"/>
+      <c r="J50" t="s" s="195">
+        <v>289</v>
+      </c>
+      <c r="K50" t="s" s="195">
+        <v>290</v>
+      </c>
+      <c r="L50" s="197"/>
+      <c r="M50" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N50" s="198"/>
+    </row>
+    <row r="51" ht="28" customHeight="1">
+      <c r="A51" t="s" s="193">
+        <v>360</v>
+      </c>
+      <c r="B51" t="s" s="193">
+        <v>292</v>
+      </c>
+      <c r="C51" t="s" s="193">
+        <v>293</v>
+      </c>
+      <c r="D51" t="s" s="200">
+        <v>294</v>
+      </c>
+      <c r="E51" t="s" s="193">
+        <v>246</v>
+      </c>
+      <c r="F51" t="s" s="193">
+        <v>352</v>
+      </c>
+      <c r="G51" t="s" s="195">
+        <v>272</v>
+      </c>
+      <c r="H51" s="196"/>
+      <c r="I51" s="196"/>
+      <c r="J51" t="s" s="195">
+        <v>295</v>
+      </c>
+      <c r="K51" t="s" s="195">
+        <v>296</v>
+      </c>
+      <c r="L51" s="197"/>
+      <c r="M51" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N51" s="198"/>
+    </row>
+    <row r="52" ht="28" customHeight="1">
+      <c r="A52" t="s" s="193">
+        <v>361</v>
+      </c>
+      <c r="B52" t="s" s="193">
+        <v>292</v>
+      </c>
+      <c r="C52" t="s" s="193">
+        <v>298</v>
+      </c>
+      <c r="D52" t="s" s="200">
+        <v>299</v>
+      </c>
+      <c r="E52" t="s" s="193">
+        <v>246</v>
+      </c>
+      <c r="F52" t="s" s="193">
+        <v>352</v>
+      </c>
+      <c r="G52" t="s" s="195">
+        <v>300</v>
+      </c>
+      <c r="H52" s="196"/>
+      <c r="I52" s="196"/>
+      <c r="J52" t="s" s="195">
+        <v>301</v>
+      </c>
+      <c r="K52" t="s" s="195">
+        <v>302</v>
+      </c>
+      <c r="L52" s="197"/>
+      <c r="M52" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N52" s="198"/>
+    </row>
+    <row r="53" ht="28" customHeight="1">
+      <c r="A53" t="s" s="193">
+        <v>362</v>
+      </c>
+      <c r="B53" t="s" s="193">
+        <v>304</v>
+      </c>
+      <c r="C53" s="194">
+        <v>8</v>
+      </c>
+      <c r="D53" t="s" s="200">
+        <v>305</v>
+      </c>
+      <c r="E53" t="s" s="193">
+        <v>246</v>
+      </c>
+      <c r="F53" t="s" s="193">
+        <v>352</v>
+      </c>
+      <c r="G53" t="s" s="195">
+        <v>272</v>
+      </c>
+      <c r="H53" s="196"/>
+      <c r="I53" s="196"/>
+      <c r="J53" t="s" s="195">
+        <v>306</v>
+      </c>
+      <c r="K53" t="s" s="195">
+        <v>307</v>
+      </c>
+      <c r="L53" s="197"/>
+      <c r="M53" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N53" s="198"/>
+    </row>
+    <row r="54" ht="28" customHeight="1">
+      <c r="A54" t="s" s="193">
+        <v>363</v>
+      </c>
+      <c r="B54" t="s" s="193">
+        <v>309</v>
+      </c>
+      <c r="C54" s="194">
+        <v>9</v>
+      </c>
+      <c r="D54" t="s" s="200">
+        <v>310</v>
+      </c>
+      <c r="E54" t="s" s="193">
+        <v>246</v>
+      </c>
+      <c r="F54" t="s" s="193">
+        <v>352</v>
+      </c>
+      <c r="G54" t="s" s="195">
+        <v>272</v>
+      </c>
+      <c r="H54" s="196"/>
+      <c r="I54" s="196"/>
+      <c r="J54" t="s" s="195">
+        <v>311</v>
+      </c>
+      <c r="K54" t="s" s="195">
+        <v>312</v>
+      </c>
+      <c r="L54" s="197"/>
+      <c r="M54" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N54" s="198"/>
+    </row>
+    <row r="55" ht="28" customHeight="1">
+      <c r="A55" t="s" s="193">
+        <v>364</v>
+      </c>
+      <c r="B55" t="s" s="193">
+        <v>314</v>
+      </c>
+      <c r="C55" s="194">
+        <v>10</v>
+      </c>
+      <c r="D55" t="s" s="200">
+        <v>315</v>
+      </c>
+      <c r="E55" t="s" s="193">
+        <v>246</v>
+      </c>
+      <c r="F55" t="s" s="193">
+        <v>352</v>
+      </c>
+      <c r="G55" t="s" s="195">
+        <v>272</v>
+      </c>
+      <c r="H55" s="196"/>
+      <c r="I55" s="196"/>
+      <c r="J55" t="s" s="195">
+        <v>316</v>
+      </c>
+      <c r="K55" t="s" s="195">
+        <v>317</v>
+      </c>
+      <c r="L55" s="197"/>
+      <c r="M55" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N55" s="198"/>
+    </row>
+    <row r="56" ht="28" customHeight="1">
+      <c r="A56" t="s" s="193">
+        <v>365</v>
+      </c>
+      <c r="B56" t="s" s="193">
+        <v>319</v>
+      </c>
+      <c r="C56" s="194">
+        <v>11</v>
+      </c>
+      <c r="D56" t="s" s="201">
+        <v>320</v>
+      </c>
+      <c r="E56" t="s" s="193">
+        <v>246</v>
+      </c>
+      <c r="F56" t="s" s="193">
+        <v>352</v>
+      </c>
+      <c r="G56" t="s" s="195">
+        <v>272</v>
+      </c>
+      <c r="H56" s="196"/>
+      <c r="I56" s="196"/>
+      <c r="J56" t="s" s="195">
+        <v>321</v>
+      </c>
+      <c r="K56" t="s" s="195">
+        <v>322</v>
+      </c>
+      <c r="L56" s="197"/>
+      <c r="M56" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N56" s="198"/>
+    </row>
+    <row r="57" ht="28" customHeight="1">
+      <c r="A57" t="s" s="193">
+        <v>366</v>
+      </c>
+      <c r="B57" t="s" s="193">
+        <v>244</v>
+      </c>
+      <c r="C57" s="194">
+        <v>1</v>
+      </c>
+      <c r="D57" t="s" s="195">
+        <v>245</v>
+      </c>
+      <c r="E57" t="s" s="193">
+        <v>324</v>
+      </c>
+      <c r="F57" t="s" s="193">
+        <v>352</v>
+      </c>
+      <c r="G57" t="s" s="195">
+        <v>248</v>
+      </c>
+      <c r="H57" s="196"/>
+      <c r="I57" s="196"/>
+      <c r="J57" t="s" s="195">
+        <v>249</v>
+      </c>
+      <c r="K57" t="s" s="195">
+        <v>250</v>
+      </c>
+      <c r="L57" s="197"/>
+      <c r="M57" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N57" s="198"/>
+    </row>
+    <row r="58" ht="28" customHeight="1">
+      <c r="A58" t="s" s="193">
+        <v>367</v>
+      </c>
+      <c r="B58" t="s" s="193">
+        <v>253</v>
+      </c>
+      <c r="C58" s="194">
+        <v>2</v>
+      </c>
+      <c r="D58" t="s" s="195">
+        <v>254</v>
+      </c>
+      <c r="E58" t="s" s="193">
+        <v>324</v>
+      </c>
+      <c r="F58" t="s" s="193">
+        <v>352</v>
+      </c>
+      <c r="G58" t="s" s="195">
+        <v>255</v>
+      </c>
+      <c r="H58" s="196"/>
+      <c r="I58" s="196"/>
+      <c r="J58" t="s" s="195">
+        <v>256</v>
+      </c>
+      <c r="K58" t="s" s="195">
+        <v>257</v>
+      </c>
+      <c r="L58" s="197"/>
+      <c r="M58" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N58" s="198"/>
+    </row>
+    <row r="59" ht="28" customHeight="1">
+      <c r="A59" t="s" s="193">
+        <v>368</v>
+      </c>
+      <c r="B59" t="s" s="193">
+        <v>259</v>
+      </c>
+      <c r="C59" s="194">
+        <v>3</v>
+      </c>
+      <c r="D59" t="s" s="195">
+        <v>260</v>
+      </c>
+      <c r="E59" t="s" s="193">
+        <v>324</v>
+      </c>
+      <c r="F59" t="s" s="193">
+        <v>352</v>
+      </c>
+      <c r="G59" t="s" s="195">
+        <v>248</v>
+      </c>
+      <c r="H59" s="196"/>
+      <c r="I59" s="196"/>
+      <c r="J59" t="s" s="195">
+        <v>261</v>
+      </c>
+      <c r="K59" t="s" s="195">
+        <v>262</v>
+      </c>
+      <c r="L59" s="197"/>
+      <c r="M59" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N59" s="196"/>
+    </row>
+    <row r="60" ht="28" customHeight="1">
+      <c r="A60" t="s" s="193">
+        <v>369</v>
+      </c>
+      <c r="B60" t="s" s="193">
+        <v>264</v>
+      </c>
+      <c r="C60" s="194">
+        <v>4</v>
+      </c>
+      <c r="D60" t="s" s="195">
+        <v>265</v>
+      </c>
+      <c r="E60" t="s" s="193">
+        <v>324</v>
+      </c>
+      <c r="F60" t="s" s="193">
+        <v>352</v>
+      </c>
+      <c r="G60" t="s" s="195">
+        <v>248</v>
+      </c>
+      <c r="H60" s="196"/>
+      <c r="I60" s="196"/>
+      <c r="J60" t="s" s="195">
+        <v>266</v>
+      </c>
+      <c r="K60" t="s" s="195">
+        <v>267</v>
+      </c>
+      <c r="L60" s="197"/>
+      <c r="M60" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N60" s="198"/>
+    </row>
+    <row r="61" ht="28" customHeight="1">
+      <c r="A61" t="s" s="193">
+        <v>370</v>
+      </c>
+      <c r="B61" t="s" s="193">
+        <v>269</v>
+      </c>
+      <c r="C61" t="s" s="193">
+        <v>270</v>
+      </c>
+      <c r="D61" t="s" s="199">
+        <v>271</v>
+      </c>
+      <c r="E61" t="s" s="193">
+        <v>324</v>
+      </c>
+      <c r="F61" t="s" s="193">
+        <v>352</v>
+      </c>
+      <c r="G61" t="s" s="195">
+        <v>272</v>
+      </c>
+      <c r="H61" s="196"/>
+      <c r="I61" s="196"/>
+      <c r="J61" t="s" s="195">
+        <v>273</v>
+      </c>
+      <c r="K61" t="s" s="195">
+        <v>274</v>
+      </c>
+      <c r="L61" s="197"/>
+      <c r="M61" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N61" s="198"/>
+    </row>
+    <row r="62" ht="28" customHeight="1">
+      <c r="A62" t="s" s="193">
+        <v>371</v>
+      </c>
+      <c r="B62" t="s" s="193">
+        <v>269</v>
+      </c>
+      <c r="C62" t="s" s="193">
+        <v>276</v>
+      </c>
+      <c r="D62" t="s" s="200">
+        <v>277</v>
+      </c>
+      <c r="E62" t="s" s="193">
+        <v>324</v>
+      </c>
+      <c r="F62" t="s" s="193">
+        <v>352</v>
+      </c>
+      <c r="G62" t="s" s="195">
+        <v>272</v>
+      </c>
+      <c r="H62" s="196"/>
+      <c r="I62" s="196"/>
+      <c r="J62" t="s" s="195">
+        <v>278</v>
+      </c>
+      <c r="K62" t="s" s="195">
+        <v>279</v>
+      </c>
+      <c r="L62" s="197"/>
+      <c r="M62" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N62" s="198"/>
+    </row>
+    <row r="63" ht="28" customHeight="1">
+      <c r="A63" t="s" s="193">
+        <v>372</v>
+      </c>
+      <c r="B63" t="s" s="193">
+        <v>281</v>
+      </c>
+      <c r="C63" t="s" s="193">
+        <v>282</v>
+      </c>
+      <c r="D63" t="s" s="200">
+        <v>283</v>
+      </c>
+      <c r="E63" t="s" s="193">
+        <v>324</v>
+      </c>
+      <c r="F63" t="s" s="193">
+        <v>352</v>
+      </c>
+      <c r="G63" t="s" s="195">
+        <v>272</v>
+      </c>
+      <c r="H63" s="196"/>
+      <c r="I63" s="196"/>
+      <c r="J63" t="s" s="195">
+        <v>284</v>
+      </c>
+      <c r="K63" t="s" s="195">
+        <v>285</v>
+      </c>
+      <c r="L63" s="197"/>
+      <c r="M63" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N63" s="198"/>
+    </row>
+    <row r="64" ht="28" customHeight="1">
+      <c r="A64" t="s" s="193">
+        <v>373</v>
+      </c>
+      <c r="B64" t="s" s="193">
+        <v>281</v>
+      </c>
+      <c r="C64" t="s" s="193">
+        <v>287</v>
+      </c>
+      <c r="D64" t="s" s="200">
+        <v>288</v>
+      </c>
+      <c r="E64" t="s" s="193">
+        <v>324</v>
+      </c>
+      <c r="F64" t="s" s="193">
+        <v>352</v>
+      </c>
+      <c r="G64" t="s" s="195">
+        <v>272</v>
+      </c>
+      <c r="H64" s="196"/>
+      <c r="I64" s="196"/>
+      <c r="J64" t="s" s="195">
+        <v>289</v>
+      </c>
+      <c r="K64" t="s" s="195">
+        <v>290</v>
+      </c>
+      <c r="L64" s="197"/>
+      <c r="M64" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N64" s="198"/>
+    </row>
+    <row r="65" ht="28" customHeight="1">
+      <c r="A65" t="s" s="193">
+        <v>374</v>
+      </c>
+      <c r="B65" t="s" s="193">
+        <v>292</v>
+      </c>
+      <c r="C65" t="s" s="193">
+        <v>293</v>
+      </c>
+      <c r="D65" t="s" s="200">
+        <v>294</v>
+      </c>
+      <c r="E65" t="s" s="193">
+        <v>324</v>
+      </c>
+      <c r="F65" t="s" s="193">
+        <v>352</v>
+      </c>
+      <c r="G65" t="s" s="195">
+        <v>272</v>
+      </c>
+      <c r="H65" s="196"/>
+      <c r="I65" s="196"/>
+      <c r="J65" t="s" s="195">
+        <v>295</v>
+      </c>
+      <c r="K65" t="s" s="195">
+        <v>296</v>
+      </c>
+      <c r="L65" s="197"/>
+      <c r="M65" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N65" s="198"/>
+    </row>
+    <row r="66" ht="28" customHeight="1">
+      <c r="A66" t="s" s="193">
+        <v>375</v>
+      </c>
+      <c r="B66" t="s" s="193">
+        <v>292</v>
+      </c>
+      <c r="C66" t="s" s="193">
+        <v>298</v>
+      </c>
+      <c r="D66" t="s" s="200">
+        <v>299</v>
+      </c>
+      <c r="E66" t="s" s="193">
+        <v>324</v>
+      </c>
+      <c r="F66" t="s" s="193">
+        <v>352</v>
+      </c>
+      <c r="G66" t="s" s="195">
+        <v>300</v>
+      </c>
+      <c r="H66" s="196"/>
+      <c r="I66" s="196"/>
+      <c r="J66" t="s" s="195">
+        <v>301</v>
+      </c>
+      <c r="K66" t="s" s="195">
+        <v>302</v>
+      </c>
+      <c r="L66" s="197"/>
+      <c r="M66" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N66" s="198"/>
+    </row>
+    <row r="67" ht="28" customHeight="1">
+      <c r="A67" t="s" s="193">
+        <v>376</v>
+      </c>
+      <c r="B67" t="s" s="193">
+        <v>304</v>
+      </c>
+      <c r="C67" s="194">
+        <v>8</v>
+      </c>
+      <c r="D67" t="s" s="200">
+        <v>305</v>
+      </c>
+      <c r="E67" t="s" s="193">
+        <v>324</v>
+      </c>
+      <c r="F67" t="s" s="193">
+        <v>352</v>
+      </c>
+      <c r="G67" t="s" s="195">
+        <v>272</v>
+      </c>
+      <c r="H67" s="196"/>
+      <c r="I67" s="196"/>
+      <c r="J67" t="s" s="195">
+        <v>306</v>
+      </c>
+      <c r="K67" t="s" s="195">
+        <v>307</v>
+      </c>
+      <c r="L67" s="197"/>
+      <c r="M67" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N67" s="198"/>
+    </row>
+    <row r="68" ht="28" customHeight="1">
+      <c r="A68" t="s" s="193">
+        <v>377</v>
+      </c>
+      <c r="B68" t="s" s="193">
+        <v>309</v>
+      </c>
+      <c r="C68" s="194">
+        <v>9</v>
+      </c>
+      <c r="D68" t="s" s="200">
+        <v>310</v>
+      </c>
+      <c r="E68" t="s" s="193">
+        <v>324</v>
+      </c>
+      <c r="F68" t="s" s="193">
+        <v>352</v>
+      </c>
+      <c r="G68" t="s" s="195">
+        <v>272</v>
+      </c>
+      <c r="H68" s="196"/>
+      <c r="I68" s="196"/>
+      <c r="J68" t="s" s="195">
+        <v>311</v>
+      </c>
+      <c r="K68" t="s" s="195">
+        <v>312</v>
+      </c>
+      <c r="L68" s="197"/>
+      <c r="M68" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N68" s="198"/>
+    </row>
+    <row r="69" ht="28" customHeight="1">
+      <c r="A69" t="s" s="193">
+        <v>378</v>
+      </c>
+      <c r="B69" t="s" s="193">
+        <v>314</v>
+      </c>
+      <c r="C69" s="194">
+        <v>10</v>
+      </c>
+      <c r="D69" t="s" s="202">
+        <v>315</v>
+      </c>
+      <c r="E69" t="s" s="193">
+        <v>324</v>
+      </c>
+      <c r="F69" t="s" s="193">
+        <v>352</v>
+      </c>
+      <c r="G69" t="s" s="195">
+        <v>272</v>
+      </c>
+      <c r="H69" s="196"/>
+      <c r="I69" s="196"/>
+      <c r="J69" t="s" s="195">
+        <v>316</v>
+      </c>
+      <c r="K69" t="s" s="195">
+        <v>317</v>
+      </c>
+      <c r="L69" s="197"/>
+      <c r="M69" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N69" s="198"/>
+    </row>
+    <row r="70" ht="28" customHeight="1">
+      <c r="A70" t="s" s="193">
+        <v>379</v>
+      </c>
+      <c r="B70" t="s" s="193">
+        <v>244</v>
+      </c>
+      <c r="C70" s="194">
+        <v>1</v>
+      </c>
+      <c r="D70" t="s" s="195">
+        <v>245</v>
+      </c>
+      <c r="E70" t="s" s="193">
+        <v>338</v>
+      </c>
+      <c r="F70" t="s" s="193">
+        <v>352</v>
+      </c>
+      <c r="G70" t="s" s="195">
+        <v>248</v>
+      </c>
+      <c r="H70" s="196"/>
+      <c r="I70" s="196"/>
+      <c r="J70" t="s" s="195">
+        <v>249</v>
+      </c>
+      <c r="K70" t="s" s="195">
+        <v>250</v>
+      </c>
+      <c r="L70" s="197"/>
+      <c r="M70" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N70" s="198"/>
+    </row>
+    <row r="71" ht="28" customHeight="1">
+      <c r="A71" t="s" s="193">
+        <v>380</v>
+      </c>
+      <c r="B71" t="s" s="193">
+        <v>253</v>
+      </c>
+      <c r="C71" s="194">
+        <v>2</v>
+      </c>
+      <c r="D71" t="s" s="195">
+        <v>254</v>
+      </c>
+      <c r="E71" t="s" s="193">
+        <v>338</v>
+      </c>
+      <c r="F71" t="s" s="193">
+        <v>352</v>
+      </c>
+      <c r="G71" t="s" s="195">
+        <v>255</v>
+      </c>
+      <c r="H71" s="196"/>
+      <c r="I71" s="196"/>
+      <c r="J71" t="s" s="195">
+        <v>256</v>
+      </c>
+      <c r="K71" t="s" s="195">
+        <v>257</v>
+      </c>
+      <c r="L71" s="197"/>
+      <c r="M71" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N71" s="198"/>
+    </row>
+    <row r="72" ht="28" customHeight="1">
+      <c r="A72" t="s" s="193">
+        <v>381</v>
+      </c>
+      <c r="B72" t="s" s="193">
+        <v>259</v>
+      </c>
+      <c r="C72" s="194">
+        <v>3</v>
+      </c>
+      <c r="D72" t="s" s="195">
+        <v>260</v>
+      </c>
+      <c r="E72" t="s" s="193">
+        <v>338</v>
+      </c>
+      <c r="F72" t="s" s="193">
+        <v>352</v>
+      </c>
+      <c r="G72" t="s" s="195">
+        <v>248</v>
+      </c>
+      <c r="H72" s="196"/>
+      <c r="I72" s="196"/>
+      <c r="J72" t="s" s="195">
+        <v>261</v>
+      </c>
+      <c r="K72" t="s" s="195">
+        <v>262</v>
+      </c>
+      <c r="L72" s="197"/>
+      <c r="M72" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N72" s="196"/>
+    </row>
+    <row r="73" ht="28" customHeight="1">
+      <c r="A73" t="s" s="193">
+        <v>382</v>
+      </c>
+      <c r="B73" t="s" s="193">
+        <v>264</v>
+      </c>
+      <c r="C73" s="194">
+        <v>4</v>
+      </c>
+      <c r="D73" t="s" s="195">
+        <v>265</v>
+      </c>
+      <c r="E73" t="s" s="193">
+        <v>338</v>
+      </c>
+      <c r="F73" t="s" s="193">
+        <v>352</v>
+      </c>
+      <c r="G73" t="s" s="195">
+        <v>248</v>
+      </c>
+      <c r="H73" s="196"/>
+      <c r="I73" s="196"/>
+      <c r="J73" t="s" s="195">
+        <v>266</v>
+      </c>
+      <c r="K73" t="s" s="195">
+        <v>267</v>
+      </c>
+      <c r="L73" s="197"/>
+      <c r="M73" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N73" s="198"/>
+    </row>
+    <row r="74" ht="28" customHeight="1">
+      <c r="A74" t="s" s="193">
+        <v>383</v>
+      </c>
+      <c r="B74" t="s" s="193">
+        <v>269</v>
+      </c>
+      <c r="C74" t="s" s="193">
+        <v>270</v>
+      </c>
+      <c r="D74" t="s" s="199">
+        <v>271</v>
+      </c>
+      <c r="E74" t="s" s="193">
+        <v>338</v>
+      </c>
+      <c r="F74" t="s" s="193">
+        <v>352</v>
+      </c>
+      <c r="G74" t="s" s="195">
+        <v>272</v>
+      </c>
+      <c r="H74" s="196"/>
+      <c r="I74" s="196"/>
+      <c r="J74" t="s" s="195">
+        <v>273</v>
+      </c>
+      <c r="K74" t="s" s="195">
+        <v>274</v>
+      </c>
+      <c r="L74" s="197"/>
+      <c r="M74" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N74" s="198"/>
+    </row>
+    <row r="75" ht="28" customHeight="1">
+      <c r="A75" t="s" s="193">
+        <v>384</v>
+      </c>
+      <c r="B75" t="s" s="193">
+        <v>269</v>
+      </c>
+      <c r="C75" t="s" s="193">
+        <v>276</v>
+      </c>
+      <c r="D75" t="s" s="200">
+        <v>277</v>
+      </c>
+      <c r="E75" t="s" s="193">
+        <v>338</v>
+      </c>
+      <c r="F75" t="s" s="193">
+        <v>352</v>
+      </c>
+      <c r="G75" t="s" s="195">
+        <v>272</v>
+      </c>
+      <c r="H75" s="196"/>
+      <c r="I75" s="196"/>
+      <c r="J75" t="s" s="195">
+        <v>278</v>
+      </c>
+      <c r="K75" t="s" s="195">
+        <v>279</v>
+      </c>
+      <c r="L75" s="197"/>
+      <c r="M75" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N75" s="198"/>
+    </row>
+    <row r="76" ht="28" customHeight="1">
+      <c r="A76" t="s" s="193">
+        <v>385</v>
+      </c>
+      <c r="B76" t="s" s="193">
+        <v>281</v>
+      </c>
+      <c r="C76" t="s" s="193">
+        <v>282</v>
+      </c>
+      <c r="D76" t="s" s="200">
+        <v>283</v>
+      </c>
+      <c r="E76" t="s" s="193">
+        <v>338</v>
+      </c>
+      <c r="F76" t="s" s="193">
+        <v>352</v>
+      </c>
+      <c r="G76" t="s" s="195">
+        <v>272</v>
+      </c>
+      <c r="H76" s="196"/>
+      <c r="I76" s="196"/>
+      <c r="J76" t="s" s="195">
+        <v>284</v>
+      </c>
+      <c r="K76" t="s" s="195">
+        <v>285</v>
+      </c>
+      <c r="L76" s="197"/>
+      <c r="M76" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N76" s="198"/>
+    </row>
+    <row r="77" ht="28" customHeight="1">
+      <c r="A77" t="s" s="193">
+        <v>386</v>
+      </c>
+      <c r="B77" t="s" s="193">
+        <v>281</v>
+      </c>
+      <c r="C77" t="s" s="193">
+        <v>287</v>
+      </c>
+      <c r="D77" t="s" s="200">
+        <v>288</v>
+      </c>
+      <c r="E77" t="s" s="193">
+        <v>338</v>
+      </c>
+      <c r="F77" t="s" s="193">
+        <v>352</v>
+      </c>
+      <c r="G77" t="s" s="195">
+        <v>272</v>
+      </c>
+      <c r="H77" s="196"/>
+      <c r="I77" s="196"/>
+      <c r="J77" t="s" s="195">
+        <v>289</v>
+      </c>
+      <c r="K77" t="s" s="195">
+        <v>290</v>
+      </c>
+      <c r="L77" s="197"/>
+      <c r="M77" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N77" s="198"/>
+    </row>
+    <row r="78" ht="28" customHeight="1">
+      <c r="A78" t="s" s="193">
+        <v>387</v>
+      </c>
+      <c r="B78" t="s" s="193">
+        <v>292</v>
+      </c>
+      <c r="C78" t="s" s="193">
+        <v>293</v>
+      </c>
+      <c r="D78" t="s" s="200">
+        <v>294</v>
+      </c>
+      <c r="E78" t="s" s="193">
+        <v>338</v>
+      </c>
+      <c r="F78" t="s" s="193">
+        <v>352</v>
+      </c>
+      <c r="G78" t="s" s="195">
+        <v>272</v>
+      </c>
+      <c r="H78" s="196"/>
+      <c r="I78" s="196"/>
+      <c r="J78" t="s" s="195">
+        <v>295</v>
+      </c>
+      <c r="K78" t="s" s="195">
+        <v>296</v>
+      </c>
+      <c r="L78" s="197"/>
+      <c r="M78" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N78" s="198"/>
+    </row>
+    <row r="79" ht="28" customHeight="1">
+      <c r="A79" t="s" s="193">
+        <v>388</v>
+      </c>
+      <c r="B79" t="s" s="193">
+        <v>292</v>
+      </c>
+      <c r="C79" t="s" s="193">
+        <v>298</v>
+      </c>
+      <c r="D79" t="s" s="200">
+        <v>299</v>
+      </c>
+      <c r="E79" t="s" s="193">
+        <v>338</v>
+      </c>
+      <c r="F79" t="s" s="193">
+        <v>352</v>
+      </c>
+      <c r="G79" t="s" s="195">
+        <v>300</v>
+      </c>
+      <c r="H79" s="196"/>
+      <c r="I79" s="196"/>
+      <c r="J79" t="s" s="195">
+        <v>301</v>
+      </c>
+      <c r="K79" t="s" s="195">
+        <v>302</v>
+      </c>
+      <c r="L79" s="197"/>
+      <c r="M79" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N79" s="198"/>
+    </row>
+    <row r="80" ht="28" customHeight="1">
+      <c r="A80" t="s" s="193">
+        <v>389</v>
+      </c>
+      <c r="B80" t="s" s="193">
+        <v>304</v>
+      </c>
+      <c r="C80" s="194">
+        <v>8</v>
+      </c>
+      <c r="D80" t="s" s="200">
+        <v>305</v>
+      </c>
+      <c r="E80" t="s" s="193">
+        <v>338</v>
+      </c>
+      <c r="F80" t="s" s="193">
+        <v>352</v>
+      </c>
+      <c r="G80" t="s" s="195">
+        <v>272</v>
+      </c>
+      <c r="H80" s="196"/>
+      <c r="I80" s="196"/>
+      <c r="J80" t="s" s="195">
+        <v>306</v>
+      </c>
+      <c r="K80" t="s" s="195">
+        <v>307</v>
+      </c>
+      <c r="L80" s="197"/>
+      <c r="M80" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N80" s="198"/>
+    </row>
+    <row r="81" ht="28" customHeight="1">
+      <c r="A81" t="s" s="193">
+        <v>390</v>
+      </c>
+      <c r="B81" t="s" s="193">
+        <v>309</v>
+      </c>
+      <c r="C81" s="194">
+        <v>9</v>
+      </c>
+      <c r="D81" t="s" s="200">
+        <v>310</v>
+      </c>
+      <c r="E81" t="s" s="193">
+        <v>338</v>
+      </c>
+      <c r="F81" t="s" s="193">
+        <v>352</v>
+      </c>
+      <c r="G81" t="s" s="195">
+        <v>272</v>
+      </c>
+      <c r="H81" s="196"/>
+      <c r="I81" s="196"/>
+      <c r="J81" t="s" s="195">
+        <v>311</v>
+      </c>
+      <c r="K81" t="s" s="195">
+        <v>312</v>
+      </c>
+      <c r="L81" s="197"/>
+      <c r="M81" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N81" s="198"/>
+    </row>
+    <row r="82" ht="28" customHeight="1">
+      <c r="A82" t="s" s="193">
+        <v>391</v>
+      </c>
+      <c r="B82" t="s" s="193">
+        <v>314</v>
+      </c>
+      <c r="C82" s="194">
+        <v>10</v>
+      </c>
+      <c r="D82" t="s" s="202">
+        <v>315</v>
+      </c>
+      <c r="E82" t="s" s="193">
+        <v>338</v>
+      </c>
+      <c r="F82" t="s" s="193">
+        <v>352</v>
+      </c>
+      <c r="G82" t="s" s="195">
+        <v>272</v>
+      </c>
+      <c r="H82" s="196"/>
+      <c r="I82" s="196"/>
+      <c r="J82" t="s" s="195">
+        <v>316</v>
+      </c>
+      <c r="K82" t="s" s="195">
+        <v>317</v>
+      </c>
+      <c r="L82" s="197"/>
+      <c r="M82" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N82" s="198"/>
+    </row>
+    <row r="83" ht="28" customHeight="1">
+      <c r="A83" t="s" s="193">
+        <v>392</v>
+      </c>
+      <c r="B83" t="s" s="193">
+        <v>244</v>
+      </c>
+      <c r="C83" s="194">
+        <v>1</v>
+      </c>
+      <c r="D83" t="s" s="195">
+        <v>245</v>
+      </c>
+      <c r="E83" t="s" s="193">
+        <v>246</v>
+      </c>
+      <c r="F83" t="s" s="193">
+        <v>393</v>
+      </c>
+      <c r="G83" t="s" s="195">
+        <v>248</v>
+      </c>
+      <c r="H83" s="196"/>
+      <c r="I83" s="196"/>
+      <c r="J83" t="s" s="195">
+        <v>249</v>
+      </c>
+      <c r="K83" t="s" s="195">
+        <v>250</v>
+      </c>
+      <c r="L83" s="197"/>
+      <c r="M83" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N83" s="198"/>
+    </row>
+    <row r="84" ht="28" customHeight="1">
+      <c r="A84" t="s" s="193">
+        <v>394</v>
+      </c>
+      <c r="B84" t="s" s="193">
+        <v>253</v>
+      </c>
+      <c r="C84" s="194">
+        <v>2</v>
+      </c>
+      <c r="D84" t="s" s="195">
+        <v>254</v>
+      </c>
+      <c r="E84" t="s" s="193">
+        <v>246</v>
+      </c>
+      <c r="F84" t="s" s="193">
+        <v>393</v>
+      </c>
+      <c r="G84" t="s" s="195">
+        <v>255</v>
+      </c>
+      <c r="H84" s="196"/>
+      <c r="I84" s="196"/>
+      <c r="J84" t="s" s="195">
+        <v>256</v>
+      </c>
+      <c r="K84" t="s" s="195">
+        <v>257</v>
+      </c>
+      <c r="L84" s="197"/>
+      <c r="M84" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N84" s="198"/>
+    </row>
+    <row r="85" ht="28" customHeight="1">
+      <c r="A85" t="s" s="193">
+        <v>395</v>
+      </c>
+      <c r="B85" t="s" s="193">
+        <v>259</v>
+      </c>
+      <c r="C85" s="194">
+        <v>3</v>
+      </c>
+      <c r="D85" t="s" s="195">
+        <v>260</v>
+      </c>
+      <c r="E85" t="s" s="193">
+        <v>246</v>
+      </c>
+      <c r="F85" t="s" s="193">
+        <v>393</v>
+      </c>
+      <c r="G85" t="s" s="195">
+        <v>248</v>
+      </c>
+      <c r="H85" s="196"/>
+      <c r="I85" s="196"/>
+      <c r="J85" t="s" s="195">
+        <v>261</v>
+      </c>
+      <c r="K85" t="s" s="195">
+        <v>262</v>
+      </c>
+      <c r="L85" s="197"/>
+      <c r="M85" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N85" s="196"/>
+    </row>
+    <row r="86" ht="28" customHeight="1">
+      <c r="A86" t="s" s="193">
+        <v>396</v>
+      </c>
+      <c r="B86" t="s" s="193">
+        <v>264</v>
+      </c>
+      <c r="C86" s="194">
+        <v>4</v>
+      </c>
+      <c r="D86" t="s" s="195">
+        <v>265</v>
+      </c>
+      <c r="E86" t="s" s="193">
+        <v>246</v>
+      </c>
+      <c r="F86" t="s" s="193">
+        <v>393</v>
+      </c>
+      <c r="G86" t="s" s="195">
+        <v>248</v>
+      </c>
+      <c r="H86" s="196"/>
+      <c r="I86" s="196"/>
+      <c r="J86" t="s" s="195">
+        <v>266</v>
+      </c>
+      <c r="K86" t="s" s="195">
+        <v>267</v>
+      </c>
+      <c r="L86" s="197"/>
+      <c r="M86" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N86" s="198"/>
+    </row>
+    <row r="87" ht="28" customHeight="1">
+      <c r="A87" t="s" s="193">
+        <v>397</v>
+      </c>
+      <c r="B87" t="s" s="193">
+        <v>269</v>
+      </c>
+      <c r="C87" t="s" s="193">
+        <v>270</v>
+      </c>
+      <c r="D87" t="s" s="199">
+        <v>271</v>
+      </c>
+      <c r="E87" t="s" s="193">
+        <v>246</v>
+      </c>
+      <c r="F87" t="s" s="193">
+        <v>393</v>
+      </c>
+      <c r="G87" t="s" s="195">
+        <v>272</v>
+      </c>
+      <c r="H87" s="196"/>
+      <c r="I87" s="196"/>
+      <c r="J87" t="s" s="195">
+        <v>273</v>
+      </c>
+      <c r="K87" t="s" s="195">
+        <v>274</v>
+      </c>
+      <c r="L87" s="197"/>
+      <c r="M87" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N87" s="198"/>
+    </row>
+    <row r="88" ht="28" customHeight="1">
+      <c r="A88" t="s" s="193">
+        <v>398</v>
+      </c>
+      <c r="B88" t="s" s="193">
+        <v>269</v>
+      </c>
+      <c r="C88" t="s" s="193">
+        <v>276</v>
+      </c>
+      <c r="D88" t="s" s="200">
+        <v>277</v>
+      </c>
+      <c r="E88" t="s" s="193">
+        <v>246</v>
+      </c>
+      <c r="F88" t="s" s="193">
+        <v>393</v>
+      </c>
+      <c r="G88" t="s" s="195">
+        <v>272</v>
+      </c>
+      <c r="H88" s="196"/>
+      <c r="I88" s="196"/>
+      <c r="J88" t="s" s="195">
+        <v>278</v>
+      </c>
+      <c r="K88" t="s" s="195">
+        <v>279</v>
+      </c>
+      <c r="L88" s="197"/>
+      <c r="M88" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N88" s="198"/>
+    </row>
+    <row r="89" ht="28" customHeight="1">
+      <c r="A89" t="s" s="193">
+        <v>399</v>
+      </c>
+      <c r="B89" t="s" s="193">
+        <v>281</v>
+      </c>
+      <c r="C89" t="s" s="193">
+        <v>282</v>
+      </c>
+      <c r="D89" t="s" s="200">
+        <v>283</v>
+      </c>
+      <c r="E89" t="s" s="193">
+        <v>246</v>
+      </c>
+      <c r="F89" t="s" s="193">
+        <v>393</v>
+      </c>
+      <c r="G89" t="s" s="195">
+        <v>272</v>
+      </c>
+      <c r="H89" s="196"/>
+      <c r="I89" s="196"/>
+      <c r="J89" t="s" s="195">
+        <v>284</v>
+      </c>
+      <c r="K89" t="s" s="195">
+        <v>285</v>
+      </c>
+      <c r="L89" s="197"/>
+      <c r="M89" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N89" s="198"/>
+    </row>
+    <row r="90" ht="28" customHeight="1">
+      <c r="A90" t="s" s="193">
+        <v>400</v>
+      </c>
+      <c r="B90" t="s" s="193">
+        <v>281</v>
+      </c>
+      <c r="C90" t="s" s="193">
+        <v>287</v>
+      </c>
+      <c r="D90" t="s" s="200">
+        <v>288</v>
+      </c>
+      <c r="E90" t="s" s="193">
+        <v>246</v>
+      </c>
+      <c r="F90" t="s" s="193">
+        <v>393</v>
+      </c>
+      <c r="G90" t="s" s="195">
+        <v>272</v>
+      </c>
+      <c r="H90" s="196"/>
+      <c r="I90" s="196"/>
+      <c r="J90" t="s" s="195">
+        <v>289</v>
+      </c>
+      <c r="K90" t="s" s="195">
+        <v>290</v>
+      </c>
+      <c r="L90" s="197"/>
+      <c r="M90" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N90" s="198"/>
+    </row>
+    <row r="91" ht="28" customHeight="1">
+      <c r="A91" t="s" s="193">
+        <v>401</v>
+      </c>
+      <c r="B91" t="s" s="193">
+        <v>292</v>
+      </c>
+      <c r="C91" t="s" s="193">
+        <v>293</v>
+      </c>
+      <c r="D91" t="s" s="200">
+        <v>294</v>
+      </c>
+      <c r="E91" t="s" s="193">
+        <v>246</v>
+      </c>
+      <c r="F91" t="s" s="193">
+        <v>393</v>
+      </c>
+      <c r="G91" t="s" s="195">
+        <v>272</v>
+      </c>
+      <c r="H91" s="196"/>
+      <c r="I91" s="196"/>
+      <c r="J91" t="s" s="195">
+        <v>295</v>
+      </c>
+      <c r="K91" t="s" s="195">
+        <v>296</v>
+      </c>
+      <c r="L91" s="197"/>
+      <c r="M91" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N91" s="198"/>
+    </row>
+    <row r="92" ht="28" customHeight="1">
+      <c r="A92" t="s" s="193">
+        <v>402</v>
+      </c>
+      <c r="B92" t="s" s="193">
+        <v>292</v>
+      </c>
+      <c r="C92" t="s" s="193">
+        <v>298</v>
+      </c>
+      <c r="D92" t="s" s="200">
+        <v>299</v>
+      </c>
+      <c r="E92" t="s" s="193">
+        <v>246</v>
+      </c>
+      <c r="F92" t="s" s="193">
+        <v>393</v>
+      </c>
+      <c r="G92" t="s" s="195">
+        <v>300</v>
+      </c>
+      <c r="H92" s="196"/>
+      <c r="I92" s="196"/>
+      <c r="J92" t="s" s="195">
+        <v>301</v>
+      </c>
+      <c r="K92" t="s" s="195">
+        <v>302</v>
+      </c>
+      <c r="L92" s="197"/>
+      <c r="M92" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N92" s="198"/>
+    </row>
+    <row r="93" ht="28" customHeight="1">
+      <c r="A93" t="s" s="193">
+        <v>403</v>
+      </c>
+      <c r="B93" t="s" s="193">
+        <v>304</v>
+      </c>
+      <c r="C93" s="194">
+        <v>8</v>
+      </c>
+      <c r="D93" t="s" s="200">
+        <v>305</v>
+      </c>
+      <c r="E93" t="s" s="193">
+        <v>246</v>
+      </c>
+      <c r="F93" t="s" s="193">
+        <v>393</v>
+      </c>
+      <c r="G93" t="s" s="195">
+        <v>272</v>
+      </c>
+      <c r="H93" s="196"/>
+      <c r="I93" s="196"/>
+      <c r="J93" t="s" s="195">
+        <v>306</v>
+      </c>
+      <c r="K93" t="s" s="195">
+        <v>307</v>
+      </c>
+      <c r="L93" s="197"/>
+      <c r="M93" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N93" s="198"/>
+    </row>
+    <row r="94" ht="28" customHeight="1">
+      <c r="A94" t="s" s="193">
+        <v>404</v>
+      </c>
+      <c r="B94" t="s" s="193">
+        <v>309</v>
+      </c>
+      <c r="C94" s="194">
+        <v>9</v>
+      </c>
+      <c r="D94" t="s" s="200">
+        <v>310</v>
+      </c>
+      <c r="E94" t="s" s="193">
+        <v>246</v>
+      </c>
+      <c r="F94" t="s" s="193">
+        <v>393</v>
+      </c>
+      <c r="G94" t="s" s="195">
+        <v>272</v>
+      </c>
+      <c r="H94" s="196"/>
+      <c r="I94" s="196"/>
+      <c r="J94" t="s" s="195">
+        <v>311</v>
+      </c>
+      <c r="K94" t="s" s="195">
+        <v>312</v>
+      </c>
+      <c r="L94" s="197"/>
+      <c r="M94" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N94" s="198"/>
+    </row>
+    <row r="95" ht="28" customHeight="1">
+      <c r="A95" t="s" s="193">
+        <v>405</v>
+      </c>
+      <c r="B95" t="s" s="193">
+        <v>314</v>
+      </c>
+      <c r="C95" s="194">
+        <v>10</v>
+      </c>
+      <c r="D95" t="s" s="200">
+        <v>315</v>
+      </c>
+      <c r="E95" t="s" s="193">
+        <v>246</v>
+      </c>
+      <c r="F95" t="s" s="193">
+        <v>393</v>
+      </c>
+      <c r="G95" t="s" s="195">
+        <v>272</v>
+      </c>
+      <c r="H95" s="196"/>
+      <c r="I95" s="196"/>
+      <c r="J95" t="s" s="195">
+        <v>316</v>
+      </c>
+      <c r="K95" t="s" s="195">
+        <v>317</v>
+      </c>
+      <c r="L95" s="197"/>
+      <c r="M95" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N95" s="198"/>
+    </row>
+    <row r="96" ht="28" customHeight="1">
+      <c r="A96" t="s" s="193">
+        <v>406</v>
+      </c>
+      <c r="B96" t="s" s="193">
+        <v>309</v>
+      </c>
+      <c r="C96" s="194">
+        <v>11</v>
+      </c>
+      <c r="D96" t="s" s="202">
+        <v>407</v>
+      </c>
+      <c r="E96" t="s" s="193">
+        <v>246</v>
+      </c>
+      <c r="F96" t="s" s="193">
+        <v>393</v>
+      </c>
+      <c r="G96" t="s" s="195">
+        <v>272</v>
+      </c>
+      <c r="H96" s="196"/>
+      <c r="I96" s="196"/>
+      <c r="J96" t="s" s="195">
+        <v>408</v>
+      </c>
+      <c r="K96" t="s" s="195">
+        <v>409</v>
+      </c>
+      <c r="L96" s="197"/>
+      <c r="M96" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N96" s="198"/>
+    </row>
+    <row r="97" ht="28" customHeight="1">
+      <c r="A97" t="s" s="193">
+        <v>410</v>
+      </c>
+      <c r="B97" t="s" s="193">
+        <v>244</v>
+      </c>
+      <c r="C97" s="194">
+        <v>1</v>
+      </c>
+      <c r="D97" t="s" s="195">
+        <v>245</v>
+      </c>
+      <c r="E97" t="s" s="193">
+        <v>246</v>
+      </c>
+      <c r="F97" t="s" s="193">
+        <v>411</v>
+      </c>
+      <c r="G97" t="s" s="195">
+        <v>248</v>
+      </c>
+      <c r="H97" s="196"/>
+      <c r="I97" s="196"/>
+      <c r="J97" t="s" s="195">
+        <v>249</v>
+      </c>
+      <c r="K97" t="s" s="195">
+        <v>250</v>
+      </c>
+      <c r="L97" s="197"/>
+      <c r="M97" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N97" s="198"/>
+    </row>
+    <row r="98" ht="28" customHeight="1">
+      <c r="A98" t="s" s="193">
+        <v>412</v>
+      </c>
+      <c r="B98" t="s" s="193">
+        <v>253</v>
+      </c>
+      <c r="C98" s="194">
+        <v>2</v>
+      </c>
+      <c r="D98" t="s" s="195">
+        <v>254</v>
+      </c>
+      <c r="E98" t="s" s="193">
+        <v>246</v>
+      </c>
+      <c r="F98" t="s" s="193">
+        <v>411</v>
+      </c>
+      <c r="G98" t="s" s="195">
+        <v>255</v>
+      </c>
+      <c r="H98" s="196"/>
+      <c r="I98" s="196"/>
+      <c r="J98" t="s" s="195">
+        <v>256</v>
+      </c>
+      <c r="K98" t="s" s="195">
+        <v>257</v>
+      </c>
+      <c r="L98" s="197"/>
+      <c r="M98" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N98" s="198"/>
+    </row>
+    <row r="99" ht="28" customHeight="1">
+      <c r="A99" t="s" s="193">
+        <v>413</v>
+      </c>
+      <c r="B99" t="s" s="193">
+        <v>259</v>
+      </c>
+      <c r="C99" s="194">
+        <v>3</v>
+      </c>
+      <c r="D99" t="s" s="195">
+        <v>260</v>
+      </c>
+      <c r="E99" t="s" s="193">
+        <v>246</v>
+      </c>
+      <c r="F99" t="s" s="193">
+        <v>411</v>
+      </c>
+      <c r="G99" t="s" s="195">
+        <v>248</v>
+      </c>
+      <c r="H99" s="196"/>
+      <c r="I99" s="196"/>
+      <c r="J99" t="s" s="195">
+        <v>261</v>
+      </c>
+      <c r="K99" t="s" s="195">
+        <v>262</v>
+      </c>
+      <c r="L99" s="197"/>
+      <c r="M99" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N99" s="196"/>
+    </row>
+    <row r="100" ht="28" customHeight="1">
+      <c r="A100" t="s" s="193">
+        <v>414</v>
+      </c>
+      <c r="B100" t="s" s="193">
+        <v>264</v>
+      </c>
+      <c r="C100" s="194">
+        <v>4</v>
+      </c>
+      <c r="D100" t="s" s="195">
+        <v>265</v>
+      </c>
+      <c r="E100" t="s" s="193">
+        <v>246</v>
+      </c>
+      <c r="F100" t="s" s="193">
+        <v>411</v>
+      </c>
+      <c r="G100" t="s" s="195">
+        <v>248</v>
+      </c>
+      <c r="H100" s="196"/>
+      <c r="I100" s="196"/>
+      <c r="J100" t="s" s="195">
+        <v>266</v>
+      </c>
+      <c r="K100" t="s" s="195">
+        <v>267</v>
+      </c>
+      <c r="L100" s="197"/>
+      <c r="M100" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N100" s="198"/>
+    </row>
+    <row r="101" ht="28" customHeight="1">
+      <c r="A101" t="s" s="193">
+        <v>415</v>
+      </c>
+      <c r="B101" t="s" s="193">
+        <v>269</v>
+      </c>
+      <c r="C101" t="s" s="193">
+        <v>270</v>
+      </c>
+      <c r="D101" t="s" s="199">
+        <v>271</v>
+      </c>
+      <c r="E101" t="s" s="193">
+        <v>246</v>
+      </c>
+      <c r="F101" t="s" s="193">
+        <v>411</v>
+      </c>
+      <c r="G101" t="s" s="195">
+        <v>272</v>
+      </c>
+      <c r="H101" s="196"/>
+      <c r="I101" s="196"/>
+      <c r="J101" t="s" s="195">
+        <v>273</v>
+      </c>
+      <c r="K101" t="s" s="195">
+        <v>274</v>
+      </c>
+      <c r="L101" s="197"/>
+      <c r="M101" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N101" s="198"/>
+    </row>
+    <row r="102" ht="28" customHeight="1">
+      <c r="A102" t="s" s="193">
+        <v>416</v>
+      </c>
+      <c r="B102" t="s" s="193">
+        <v>269</v>
+      </c>
+      <c r="C102" t="s" s="193">
+        <v>276</v>
+      </c>
+      <c r="D102" t="s" s="200">
+        <v>277</v>
+      </c>
+      <c r="E102" t="s" s="193">
+        <v>246</v>
+      </c>
+      <c r="F102" t="s" s="193">
+        <v>411</v>
+      </c>
+      <c r="G102" t="s" s="195">
+        <v>272</v>
+      </c>
+      <c r="H102" s="196"/>
+      <c r="I102" s="196"/>
+      <c r="J102" t="s" s="195">
+        <v>278</v>
+      </c>
+      <c r="K102" t="s" s="195">
+        <v>279</v>
+      </c>
+      <c r="L102" s="197"/>
+      <c r="M102" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N102" s="198"/>
+    </row>
+    <row r="103" ht="28" customHeight="1">
+      <c r="A103" t="s" s="193">
+        <v>417</v>
+      </c>
+      <c r="B103" t="s" s="193">
+        <v>281</v>
+      </c>
+      <c r="C103" t="s" s="193">
+        <v>282</v>
+      </c>
+      <c r="D103" t="s" s="200">
+        <v>283</v>
+      </c>
+      <c r="E103" t="s" s="193">
+        <v>246</v>
+      </c>
+      <c r="F103" t="s" s="193">
+        <v>411</v>
+      </c>
+      <c r="G103" t="s" s="195">
+        <v>272</v>
+      </c>
+      <c r="H103" s="196"/>
+      <c r="I103" s="196"/>
+      <c r="J103" t="s" s="195">
+        <v>284</v>
+      </c>
+      <c r="K103" t="s" s="195">
+        <v>285</v>
+      </c>
+      <c r="L103" s="197"/>
+      <c r="M103" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N103" s="198"/>
+    </row>
+    <row r="104" ht="28" customHeight="1">
+      <c r="A104" t="s" s="193">
+        <v>418</v>
+      </c>
+      <c r="B104" t="s" s="193">
+        <v>281</v>
+      </c>
+      <c r="C104" t="s" s="193">
+        <v>287</v>
+      </c>
+      <c r="D104" t="s" s="200">
+        <v>288</v>
+      </c>
+      <c r="E104" t="s" s="193">
+        <v>246</v>
+      </c>
+      <c r="F104" t="s" s="193">
+        <v>411</v>
+      </c>
+      <c r="G104" t="s" s="195">
+        <v>272</v>
+      </c>
+      <c r="H104" s="196"/>
+      <c r="I104" s="196"/>
+      <c r="J104" t="s" s="195">
+        <v>289</v>
+      </c>
+      <c r="K104" t="s" s="195">
+        <v>290</v>
+      </c>
+      <c r="L104" s="197"/>
+      <c r="M104" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N104" s="198"/>
+    </row>
+    <row r="105" ht="28" customHeight="1">
+      <c r="A105" t="s" s="193">
+        <v>419</v>
+      </c>
+      <c r="B105" t="s" s="193">
+        <v>292</v>
+      </c>
+      <c r="C105" t="s" s="193">
+        <v>293</v>
+      </c>
+      <c r="D105" t="s" s="200">
+        <v>294</v>
+      </c>
+      <c r="E105" t="s" s="193">
+        <v>246</v>
+      </c>
+      <c r="F105" t="s" s="193">
+        <v>411</v>
+      </c>
+      <c r="G105" t="s" s="195">
+        <v>272</v>
+      </c>
+      <c r="H105" s="196"/>
+      <c r="I105" s="196"/>
+      <c r="J105" t="s" s="195">
+        <v>295</v>
+      </c>
+      <c r="K105" t="s" s="195">
+        <v>296</v>
+      </c>
+      <c r="L105" s="197"/>
+      <c r="M105" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N105" s="198"/>
+    </row>
+    <row r="106" ht="28" customHeight="1">
+      <c r="A106" t="s" s="193">
+        <v>420</v>
+      </c>
+      <c r="B106" t="s" s="193">
+        <v>292</v>
+      </c>
+      <c r="C106" t="s" s="193">
+        <v>298</v>
+      </c>
+      <c r="D106" t="s" s="200">
+        <v>299</v>
+      </c>
+      <c r="E106" t="s" s="193">
+        <v>246</v>
+      </c>
+      <c r="F106" t="s" s="193">
+        <v>411</v>
+      </c>
+      <c r="G106" t="s" s="195">
+        <v>300</v>
+      </c>
+      <c r="H106" s="196"/>
+      <c r="I106" s="196"/>
+      <c r="J106" t="s" s="195">
+        <v>301</v>
+      </c>
+      <c r="K106" t="s" s="195">
+        <v>302</v>
+      </c>
+      <c r="L106" s="197"/>
+      <c r="M106" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N106" s="198"/>
+    </row>
+    <row r="107" ht="28" customHeight="1">
+      <c r="A107" t="s" s="193">
+        <v>421</v>
+      </c>
+      <c r="B107" t="s" s="193">
+        <v>304</v>
+      </c>
+      <c r="C107" s="194">
+        <v>8</v>
+      </c>
+      <c r="D107" t="s" s="200">
+        <v>305</v>
+      </c>
+      <c r="E107" t="s" s="193">
+        <v>246</v>
+      </c>
+      <c r="F107" t="s" s="193">
+        <v>411</v>
+      </c>
+      <c r="G107" t="s" s="195">
+        <v>272</v>
+      </c>
+      <c r="H107" s="196"/>
+      <c r="I107" s="196"/>
+      <c r="J107" t="s" s="195">
+        <v>306</v>
+      </c>
+      <c r="K107" t="s" s="195">
+        <v>307</v>
+      </c>
+      <c r="L107" s="197"/>
+      <c r="M107" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N107" s="198"/>
+    </row>
+    <row r="108" ht="28" customHeight="1">
+      <c r="A108" t="s" s="193">
+        <v>422</v>
+      </c>
+      <c r="B108" t="s" s="193">
+        <v>309</v>
+      </c>
+      <c r="C108" s="194">
+        <v>9</v>
+      </c>
+      <c r="D108" t="s" s="200">
+        <v>310</v>
+      </c>
+      <c r="E108" t="s" s="193">
+        <v>246</v>
+      </c>
+      <c r="F108" t="s" s="193">
+        <v>411</v>
+      </c>
+      <c r="G108" t="s" s="195">
+        <v>272</v>
+      </c>
+      <c r="H108" s="196"/>
+      <c r="I108" s="196"/>
+      <c r="J108" t="s" s="195">
+        <v>311</v>
+      </c>
+      <c r="K108" t="s" s="195">
+        <v>312</v>
+      </c>
+      <c r="L108" s="197"/>
+      <c r="M108" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N108" s="198"/>
+    </row>
+    <row r="109" ht="28" customHeight="1">
+      <c r="A109" t="s" s="193">
+        <v>423</v>
+      </c>
+      <c r="B109" t="s" s="193">
+        <v>314</v>
+      </c>
+      <c r="C109" s="194">
+        <v>10</v>
+      </c>
+      <c r="D109" t="s" s="200">
+        <v>315</v>
+      </c>
+      <c r="E109" t="s" s="193">
+        <v>246</v>
+      </c>
+      <c r="F109" t="s" s="193">
+        <v>411</v>
+      </c>
+      <c r="G109" t="s" s="195">
+        <v>272</v>
+      </c>
+      <c r="H109" s="196"/>
+      <c r="I109" s="196"/>
+      <c r="J109" t="s" s="195">
+        <v>316</v>
+      </c>
+      <c r="K109" t="s" s="195">
+        <v>317</v>
+      </c>
+      <c r="L109" s="197"/>
+      <c r="M109" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N109" s="198"/>
+    </row>
+    <row r="110" ht="28" customHeight="1">
+      <c r="A110" t="s" s="193">
+        <v>424</v>
+      </c>
+      <c r="B110" t="s" s="193">
+        <v>309</v>
+      </c>
+      <c r="C110" s="194">
+        <v>11</v>
+      </c>
+      <c r="D110" t="s" s="200">
+        <v>407</v>
+      </c>
+      <c r="E110" t="s" s="193">
+        <v>246</v>
+      </c>
+      <c r="F110" t="s" s="193">
+        <v>411</v>
+      </c>
+      <c r="G110" t="s" s="195">
+        <v>272</v>
+      </c>
+      <c r="H110" s="196"/>
+      <c r="I110" s="196"/>
+      <c r="J110" t="s" s="195">
+        <v>408</v>
+      </c>
+      <c r="K110" t="s" s="195">
+        <v>409</v>
+      </c>
+      <c r="L110" s="197"/>
+      <c r="M110" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N110" s="198"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15286,15 +18880,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="202" customWidth="1"/>
-    <col min="2" max="2" width="20.3516" style="202" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="202" customWidth="1"/>
-    <col min="4" max="4" width="14.3516" style="202" customWidth="1"/>
-    <col min="5" max="5" width="15.3516" style="202" customWidth="1"/>
-    <col min="6" max="6" width="43.8516" style="202" customWidth="1"/>
-    <col min="7" max="7" width="23.5" style="202" customWidth="1"/>
-    <col min="8" max="8" width="48.6719" style="202" customWidth="1"/>
-    <col min="9" max="256" width="8.85156" style="202" customWidth="1"/>
+    <col min="1" max="1" width="8.85156" style="203" customWidth="1"/>
+    <col min="2" max="2" width="20.3516" style="203" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="203" customWidth="1"/>
+    <col min="4" max="4" width="14.3516" style="203" customWidth="1"/>
+    <col min="5" max="5" width="15.3516" style="203" customWidth="1"/>
+    <col min="6" max="6" width="43.8516" style="203" customWidth="1"/>
+    <col min="7" max="7" width="23.5" style="203" customWidth="1"/>
+    <col min="8" max="8" width="48.6719" style="203" customWidth="1"/>
+    <col min="9" max="256" width="8.85156" style="203" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16" customHeight="1">
@@ -15309,857 +18903,857 @@
     </row>
     <row r="2" ht="16" customHeight="1">
       <c r="A2" s="123"/>
-      <c r="B2" t="s" s="203">
-        <v>328</v>
+      <c r="B2" t="s" s="204">
+        <v>425</v>
       </c>
       <c r="C2" s="126"/>
-      <c r="D2" s="204"/>
-      <c r="E2" s="204"/>
-      <c r="F2" s="204"/>
-      <c r="G2" s="204"/>
-      <c r="H2" s="205"/>
+      <c r="D2" s="205"/>
+      <c r="E2" s="205"/>
+      <c r="F2" s="205"/>
+      <c r="G2" s="205"/>
+      <c r="H2" s="206"/>
     </row>
     <row r="3" ht="16" customHeight="1">
       <c r="A3" s="123"/>
-      <c r="B3" s="206"/>
+      <c r="B3" s="207"/>
       <c r="C3" s="126"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="204"/>
-      <c r="F3" s="204"/>
-      <c r="G3" s="204"/>
-      <c r="H3" s="205"/>
+      <c r="D3" s="205"/>
+      <c r="E3" s="205"/>
+      <c r="F3" s="205"/>
+      <c r="G3" s="205"/>
+      <c r="H3" s="206"/>
     </row>
     <row r="4" ht="16" customHeight="1">
       <c r="A4" s="123"/>
-      <c r="B4" t="s" s="207">
+      <c r="B4" t="s" s="208">
         <f>"System healthy rate "&amp;(1-ROUNDUP(E41/(8*('UAT Status'!E4-NETWORKDAYS(TODAY(),'UAT Status'!D4,'UAT Status'!W1:W24)+1)),4))*100&amp;" %"</f>
-        <v>329</v>
-      </c>
-      <c r="C4" s="208"/>
-      <c r="D4" s="208"/>
-      <c r="E4" s="208"/>
-      <c r="F4" s="208"/>
-      <c r="G4" s="208"/>
-      <c r="H4" s="209"/>
+        <v>426</v>
+      </c>
+      <c r="C4" s="209"/>
+      <c r="D4" s="209"/>
+      <c r="E4" s="209"/>
+      <c r="F4" s="209"/>
+      <c r="G4" s="209"/>
+      <c r="H4" s="210"/>
     </row>
     <row r="5" ht="16" customHeight="1">
-      <c r="A5" s="210"/>
+      <c r="A5" s="211"/>
       <c r="B5" t="s" s="5">
-        <v>330</v>
+        <v>427</v>
       </c>
       <c r="C5" t="s" s="5">
-        <v>331</v>
+        <v>428</v>
       </c>
       <c r="D5" t="s" s="5">
-        <v>332</v>
+        <v>429</v>
       </c>
       <c r="E5" t="s" s="5">
-        <v>333</v>
+        <v>430</v>
       </c>
       <c r="F5" t="s" s="5">
-        <v>334</v>
+        <v>431</v>
       </c>
       <c r="G5" t="s" s="5">
-        <v>335</v>
+        <v>432</v>
       </c>
       <c r="H5" t="s" s="5">
-        <v>336</v>
+        <v>433</v>
       </c>
     </row>
     <row r="6" ht="16" customHeight="1">
-      <c r="A6" s="210"/>
-      <c r="B6" s="211">
+      <c r="A6" s="211"/>
+      <c r="B6" s="212">
         <v>1</v>
       </c>
-      <c r="C6" s="212">
+      <c r="C6" s="213">
         <v>44095</v>
       </c>
-      <c r="D6" t="s" s="213">
-        <v>337</v>
-      </c>
-      <c r="E6" s="211">
+      <c r="D6" t="s" s="214">
+        <v>434</v>
+      </c>
+      <c r="E6" s="212">
         <v>8</v>
       </c>
       <c r="F6" t="s" s="193">
-        <v>338</v>
+        <v>435</v>
       </c>
       <c r="G6" t="s" s="195">
-        <v>339</v>
+        <v>436</v>
       </c>
       <c r="H6" t="s" s="195">
-        <v>340</v>
+        <v>437</v>
       </c>
     </row>
     <row r="7" ht="16" customHeight="1">
-      <c r="A7" s="210"/>
-      <c r="B7" s="211">
+      <c r="A7" s="211"/>
+      <c r="B7" s="212">
         <v>2</v>
       </c>
-      <c r="C7" s="212">
+      <c r="C7" s="213">
         <v>44096</v>
       </c>
-      <c r="D7" t="s" s="213">
-        <v>337</v>
-      </c>
-      <c r="E7" s="211">
+      <c r="D7" t="s" s="214">
+        <v>434</v>
+      </c>
+      <c r="E7" s="212">
         <v>8</v>
       </c>
       <c r="F7" t="s" s="193">
-        <v>338</v>
+        <v>435</v>
       </c>
       <c r="G7" t="s" s="195">
-        <v>339</v>
+        <v>436</v>
       </c>
       <c r="H7" t="s" s="195">
-        <v>340</v>
+        <v>437</v>
       </c>
     </row>
     <row r="8" ht="16" customHeight="1">
-      <c r="A8" s="210"/>
-      <c r="B8" s="211">
+      <c r="A8" s="211"/>
+      <c r="B8" s="212">
         <v>3</v>
       </c>
-      <c r="C8" s="212">
+      <c r="C8" s="213">
         <v>44097</v>
       </c>
-      <c r="D8" t="s" s="213">
-        <v>341</v>
-      </c>
-      <c r="E8" s="211">
+      <c r="D8" t="s" s="214">
+        <v>438</v>
+      </c>
+      <c r="E8" s="212">
         <v>2.5</v>
       </c>
       <c r="F8" t="s" s="193">
-        <v>342</v>
+        <v>439</v>
       </c>
       <c r="G8" t="s" s="195">
-        <v>339</v>
-      </c>
-      <c r="H8" t="s" s="214">
-        <v>343</v>
+        <v>436</v>
+      </c>
+      <c r="H8" t="s" s="215">
+        <v>440</v>
       </c>
     </row>
     <row r="9" ht="16" customHeight="1">
-      <c r="A9" s="210"/>
-      <c r="B9" s="211">
+      <c r="A9" s="211"/>
+      <c r="B9" s="212">
         <v>4</v>
       </c>
-      <c r="C9" s="212">
+      <c r="C9" s="213">
         <v>44098</v>
       </c>
-      <c r="D9" t="s" s="213">
-        <v>344</v>
-      </c>
-      <c r="E9" s="211">
+      <c r="D9" t="s" s="214">
+        <v>441</v>
+      </c>
+      <c r="E9" s="212">
         <v>1.75</v>
       </c>
       <c r="F9" t="s" s="193">
-        <v>345</v>
+        <v>442</v>
       </c>
       <c r="G9" t="s" s="195">
-        <v>339</v>
-      </c>
-      <c r="H9" t="s" s="214">
-        <v>346</v>
+        <v>436</v>
+      </c>
+      <c r="H9" t="s" s="215">
+        <v>443</v>
       </c>
     </row>
     <row r="10" ht="16" customHeight="1">
-      <c r="A10" s="210"/>
-      <c r="B10" s="211">
+      <c r="A10" s="211"/>
+      <c r="B10" s="212">
         <v>5</v>
       </c>
-      <c r="C10" s="212">
+      <c r="C10" s="213">
         <v>44099</v>
       </c>
-      <c r="D10" t="s" s="213">
-        <v>347</v>
-      </c>
-      <c r="E10" s="211">
+      <c r="D10" t="s" s="214">
+        <v>444</v>
+      </c>
+      <c r="E10" s="212">
         <v>5</v>
       </c>
       <c r="F10" t="s" s="193">
-        <v>345</v>
+        <v>442</v>
       </c>
       <c r="G10" t="s" s="195">
-        <v>339</v>
-      </c>
-      <c r="H10" t="s" s="214">
-        <v>348</v>
+        <v>436</v>
+      </c>
+      <c r="H10" t="s" s="215">
+        <v>445</v>
       </c>
     </row>
     <row r="11" ht="28.5" customHeight="1">
-      <c r="A11" s="210"/>
-      <c r="B11" s="211">
+      <c r="A11" s="211"/>
+      <c r="B11" s="212">
         <v>6</v>
       </c>
-      <c r="C11" s="212">
+      <c r="C11" s="213">
         <v>44102</v>
       </c>
-      <c r="D11" t="s" s="215">
-        <v>349</v>
-      </c>
-      <c r="E11" s="211">
+      <c r="D11" t="s" s="216">
+        <v>446</v>
+      </c>
+      <c r="E11" s="212">
         <v>8</v>
       </c>
       <c r="F11" t="s" s="195">
-        <v>350</v>
-      </c>
-      <c r="G11" t="s" s="216">
-        <v>351</v>
-      </c>
-      <c r="H11" t="s" s="216">
-        <v>352</v>
+        <v>447</v>
+      </c>
+      <c r="G11" t="s" s="217">
+        <v>448</v>
+      </c>
+      <c r="H11" t="s" s="217">
+        <v>449</v>
       </c>
     </row>
     <row r="12" ht="28.5" customHeight="1">
-      <c r="A12" s="210"/>
-      <c r="B12" s="211">
+      <c r="A12" s="211"/>
+      <c r="B12" s="212">
         <v>7</v>
       </c>
-      <c r="C12" s="212">
+      <c r="C12" s="213">
         <v>44103</v>
       </c>
-      <c r="D12" t="s" s="215">
-        <v>353</v>
-      </c>
-      <c r="E12" s="211">
+      <c r="D12" t="s" s="216">
+        <v>450</v>
+      </c>
+      <c r="E12" s="212">
         <v>5</v>
       </c>
       <c r="F12" t="s" s="195">
-        <v>354</v>
-      </c>
-      <c r="G12" t="s" s="216">
-        <v>355</v>
+        <v>451</v>
+      </c>
+      <c r="G12" t="s" s="217">
+        <v>452</v>
       </c>
       <c r="H12" t="s" s="195">
-        <v>356</v>
+        <v>453</v>
       </c>
     </row>
     <row r="13" ht="28.5" customHeight="1">
-      <c r="A13" s="210"/>
-      <c r="B13" s="211">
+      <c r="A13" s="211"/>
+      <c r="B13" s="212">
         <v>8</v>
       </c>
-      <c r="C13" s="212">
+      <c r="C13" s="213">
         <v>44104</v>
       </c>
-      <c r="D13" t="s" s="215">
-        <v>357</v>
-      </c>
-      <c r="E13" s="211">
+      <c r="D13" t="s" s="216">
+        <v>454</v>
+      </c>
+      <c r="E13" s="212">
         <v>4.5</v>
       </c>
       <c r="F13" t="s" s="195">
-        <v>358</v>
-      </c>
-      <c r="G13" t="s" s="216">
-        <v>359</v>
+        <v>455</v>
+      </c>
+      <c r="G13" t="s" s="217">
+        <v>456</v>
       </c>
       <c r="H13" t="s" s="195">
-        <v>356</v>
+        <v>453</v>
       </c>
     </row>
     <row r="14" ht="16" customHeight="1">
-      <c r="A14" s="210"/>
-      <c r="B14" s="211">
+      <c r="A14" s="211"/>
+      <c r="B14" s="212">
         <v>9</v>
       </c>
-      <c r="C14" s="212">
+      <c r="C14" s="213">
         <v>44109</v>
       </c>
-      <c r="D14" t="s" s="213">
-        <v>337</v>
-      </c>
-      <c r="E14" s="211">
+      <c r="D14" t="s" s="214">
+        <v>434</v>
+      </c>
+      <c r="E14" s="212">
         <v>8</v>
       </c>
       <c r="F14" t="s" s="193">
-        <v>360</v>
+        <v>457</v>
       </c>
       <c r="G14" t="s" s="195">
-        <v>339</v>
+        <v>436</v>
       </c>
       <c r="H14" t="s" s="195">
-        <v>361</v>
+        <v>458</v>
       </c>
     </row>
     <row r="15" ht="16" customHeight="1">
-      <c r="A15" s="210"/>
-      <c r="B15" s="211">
+      <c r="A15" s="211"/>
+      <c r="B15" s="212">
         <v>10</v>
       </c>
-      <c r="C15" s="212">
+      <c r="C15" s="213">
         <v>44110</v>
       </c>
-      <c r="D15" t="s" s="213">
-        <v>362</v>
-      </c>
-      <c r="E15" s="211">
+      <c r="D15" t="s" s="214">
+        <v>459</v>
+      </c>
+      <c r="E15" s="212">
         <v>7</v>
       </c>
       <c r="F15" t="s" s="193">
-        <v>360</v>
+        <v>457</v>
       </c>
       <c r="G15" t="s" s="195">
-        <v>339</v>
+        <v>436</v>
       </c>
       <c r="H15" t="s" s="195">
-        <v>363</v>
+        <v>460</v>
       </c>
     </row>
     <row r="16" ht="16" customHeight="1">
-      <c r="A16" s="210"/>
-      <c r="B16" s="211">
+      <c r="A16" s="211"/>
+      <c r="B16" s="212">
         <v>11</v>
       </c>
-      <c r="C16" s="212">
+      <c r="C16" s="213">
         <v>44111</v>
       </c>
-      <c r="D16" t="s" s="213">
-        <v>362</v>
-      </c>
-      <c r="E16" s="211">
+      <c r="D16" t="s" s="214">
+        <v>459</v>
+      </c>
+      <c r="E16" s="212">
         <v>7</v>
       </c>
       <c r="F16" t="s" s="193">
-        <v>364</v>
-      </c>
-      <c r="G16" t="s" s="214">
-        <v>365</v>
-      </c>
-      <c r="H16" t="s" s="214">
-        <v>366</v>
+        <v>461</v>
+      </c>
+      <c r="G16" t="s" s="215">
+        <v>462</v>
+      </c>
+      <c r="H16" t="s" s="215">
+        <v>463</v>
       </c>
     </row>
     <row r="17" ht="42" customHeight="1">
-      <c r="A17" s="210"/>
-      <c r="B17" s="211">
+      <c r="A17" s="211"/>
+      <c r="B17" s="212">
         <v>12</v>
       </c>
-      <c r="C17" s="212">
+      <c r="C17" s="213">
         <v>44112</v>
       </c>
-      <c r="D17" t="s" s="215">
-        <v>367</v>
-      </c>
-      <c r="E17" s="211">
+      <c r="D17" t="s" s="216">
+        <v>464</v>
+      </c>
+      <c r="E17" s="212">
         <v>6</v>
       </c>
       <c r="F17" t="s" s="195">
-        <v>368</v>
+        <v>465</v>
       </c>
       <c r="G17" t="s" s="195">
-        <v>369</v>
+        <v>466</v>
       </c>
       <c r="H17" t="s" s="195">
-        <v>370</v>
+        <v>467</v>
       </c>
     </row>
     <row r="18" ht="16" customHeight="1">
-      <c r="A18" s="210"/>
-      <c r="B18" s="211">
+      <c r="A18" s="211"/>
+      <c r="B18" s="212">
         <v>13</v>
       </c>
-      <c r="C18" s="212">
+      <c r="C18" s="213">
         <v>44113</v>
       </c>
-      <c r="D18" t="s" s="213">
-        <v>341</v>
-      </c>
-      <c r="E18" s="211">
+      <c r="D18" t="s" s="214">
+        <v>438</v>
+      </c>
+      <c r="E18" s="212">
         <v>2.5</v>
       </c>
       <c r="F18" t="s" s="193">
-        <v>371</v>
+        <v>468</v>
       </c>
       <c r="G18" t="s" s="193">
-        <v>339</v>
+        <v>436</v>
       </c>
       <c r="H18" t="s" s="193">
-        <v>372</v>
+        <v>469</v>
       </c>
     </row>
     <row r="19" ht="16" customHeight="1">
-      <c r="A19" s="210"/>
-      <c r="B19" s="211">
+      <c r="A19" s="211"/>
+      <c r="B19" s="212">
         <v>14</v>
       </c>
-      <c r="C19" s="212">
+      <c r="C19" s="213">
         <v>44116</v>
       </c>
-      <c r="D19" s="217"/>
-      <c r="E19" s="217"/>
+      <c r="D19" s="218"/>
+      <c r="E19" s="218"/>
       <c r="F19" s="198"/>
       <c r="G19" s="198"/>
       <c r="H19" s="198"/>
     </row>
     <row r="20" ht="16" customHeight="1">
-      <c r="A20" s="210"/>
-      <c r="B20" s="211">
+      <c r="A20" s="211"/>
+      <c r="B20" s="212">
         <v>15</v>
       </c>
-      <c r="C20" s="212">
+      <c r="C20" s="213">
         <v>44117</v>
       </c>
-      <c r="D20" t="s" s="213">
-        <v>373</v>
-      </c>
-      <c r="E20" s="211">
+      <c r="D20" t="s" s="214">
+        <v>470</v>
+      </c>
+      <c r="E20" s="212">
         <v>5</v>
       </c>
       <c r="F20" t="s" s="193">
-        <v>374</v>
+        <v>471</v>
       </c>
       <c r="G20" t="s" s="193">
-        <v>339</v>
+        <v>436</v>
       </c>
       <c r="H20" t="s" s="193">
-        <v>375</v>
+        <v>472</v>
       </c>
     </row>
     <row r="21" ht="16" customHeight="1">
-      <c r="A21" s="210"/>
-      <c r="B21" s="211">
+      <c r="A21" s="211"/>
+      <c r="B21" s="212">
         <v>16</v>
       </c>
-      <c r="C21" s="212">
+      <c r="C21" s="213">
         <v>44118</v>
       </c>
-      <c r="D21" s="217"/>
-      <c r="E21" s="217"/>
+      <c r="D21" s="218"/>
+      <c r="E21" s="218"/>
       <c r="F21" s="198"/>
       <c r="G21" s="198"/>
       <c r="H21" s="198"/>
     </row>
     <row r="22" ht="16" customHeight="1">
-      <c r="A22" s="210"/>
-      <c r="B22" s="211">
+      <c r="A22" s="211"/>
+      <c r="B22" s="212">
         <v>17</v>
       </c>
-      <c r="C22" s="212">
+      <c r="C22" s="213">
         <v>44119</v>
       </c>
-      <c r="D22" t="s" s="213">
-        <v>376</v>
-      </c>
-      <c r="E22" s="211">
+      <c r="D22" t="s" s="214">
+        <v>473</v>
+      </c>
+      <c r="E22" s="212">
         <v>2.5</v>
       </c>
       <c r="F22" t="s" s="193">
-        <v>377</v>
+        <v>474</v>
       </c>
       <c r="G22" t="s" s="193">
-        <v>339</v>
+        <v>436</v>
       </c>
       <c r="H22" t="s" s="193">
-        <v>378</v>
+        <v>475</v>
       </c>
     </row>
     <row r="23" ht="28" customHeight="1">
-      <c r="A23" s="210"/>
-      <c r="B23" s="211">
+      <c r="A23" s="211"/>
+      <c r="B23" s="212">
         <v>18</v>
       </c>
-      <c r="C23" s="212">
+      <c r="C23" s="213">
         <v>44120</v>
       </c>
-      <c r="D23" t="s" s="215">
-        <v>379</v>
-      </c>
-      <c r="E23" s="211">
+      <c r="D23" t="s" s="216">
+        <v>476</v>
+      </c>
+      <c r="E23" s="212">
         <v>4.5</v>
       </c>
       <c r="F23" t="s" s="195">
-        <v>380</v>
+        <v>477</v>
       </c>
       <c r="G23" t="s" s="195">
-        <v>381</v>
+        <v>478</v>
       </c>
       <c r="H23" t="s" s="195">
-        <v>382</v>
+        <v>479</v>
       </c>
     </row>
     <row r="24" ht="16" customHeight="1">
-      <c r="A24" s="210"/>
-      <c r="B24" s="211">
+      <c r="A24" s="211"/>
+      <c r="B24" s="212">
         <v>19</v>
       </c>
-      <c r="C24" s="212">
+      <c r="C24" s="213">
         <v>44123</v>
       </c>
-      <c r="D24" t="s" s="213">
-        <v>383</v>
-      </c>
-      <c r="E24" s="211">
+      <c r="D24" t="s" s="214">
+        <v>480</v>
+      </c>
+      <c r="E24" s="212">
         <v>1.5</v>
       </c>
       <c r="F24" t="s" s="193">
-        <v>374</v>
+        <v>471</v>
       </c>
       <c r="G24" t="s" s="193">
-        <v>339</v>
+        <v>436</v>
       </c>
       <c r="H24" t="s" s="193">
-        <v>375</v>
+        <v>472</v>
       </c>
     </row>
     <row r="25" ht="16" customHeight="1">
-      <c r="A25" s="210"/>
-      <c r="B25" s="211">
+      <c r="A25" s="211"/>
+      <c r="B25" s="212">
         <v>20</v>
       </c>
-      <c r="C25" s="212">
+      <c r="C25" s="213">
         <v>44124</v>
       </c>
-      <c r="D25" s="217"/>
-      <c r="E25" s="217"/>
+      <c r="D25" s="218"/>
+      <c r="E25" s="218"/>
       <c r="F25" s="198"/>
       <c r="G25" s="198"/>
       <c r="H25" s="198"/>
     </row>
     <row r="26" ht="28" customHeight="1">
-      <c r="A26" s="210"/>
-      <c r="B26" s="211">
+      <c r="A26" s="211"/>
+      <c r="B26" s="212">
         <v>21</v>
       </c>
-      <c r="C26" s="212">
+      <c r="C26" s="213">
         <v>44125</v>
       </c>
-      <c r="D26" t="s" s="215">
-        <v>384</v>
-      </c>
-      <c r="E26" s="211">
+      <c r="D26" t="s" s="216">
+        <v>481</v>
+      </c>
+      <c r="E26" s="212">
         <v>3</v>
       </c>
       <c r="F26" t="s" s="195">
-        <v>385</v>
+        <v>482</v>
       </c>
       <c r="G26" t="s" s="195">
-        <v>359</v>
+        <v>456</v>
       </c>
       <c r="H26" t="s" s="195">
-        <v>386</v>
+        <v>483</v>
       </c>
     </row>
     <row r="27" ht="16" customHeight="1">
-      <c r="A27" s="210"/>
-      <c r="B27" s="211">
+      <c r="A27" s="211"/>
+      <c r="B27" s="212">
         <v>22</v>
       </c>
-      <c r="C27" s="212">
+      <c r="C27" s="213">
         <v>44126</v>
       </c>
-      <c r="D27" s="217"/>
-      <c r="E27" s="217"/>
+      <c r="D27" s="218"/>
+      <c r="E27" s="218"/>
       <c r="F27" s="198"/>
       <c r="G27" s="198"/>
       <c r="H27" s="198"/>
     </row>
     <row r="28" ht="28" customHeight="1">
-      <c r="A28" s="210"/>
-      <c r="B28" s="211">
+      <c r="A28" s="211"/>
+      <c r="B28" s="212">
         <v>23</v>
       </c>
-      <c r="C28" s="212">
+      <c r="C28" s="213">
         <v>44127</v>
       </c>
-      <c r="D28" t="s" s="215">
-        <v>387</v>
-      </c>
-      <c r="E28" s="211">
+      <c r="D28" t="s" s="216">
+        <v>484</v>
+      </c>
+      <c r="E28" s="212">
         <v>8</v>
       </c>
       <c r="F28" t="s" s="195">
-        <v>388</v>
+        <v>485</v>
       </c>
       <c r="G28" t="s" s="195">
-        <v>389</v>
+        <v>486</v>
       </c>
       <c r="H28" t="s" s="195">
-        <v>390</v>
+        <v>487</v>
       </c>
     </row>
     <row r="29" ht="16" customHeight="1">
-      <c r="A29" s="210"/>
-      <c r="B29" s="211">
+      <c r="A29" s="211"/>
+      <c r="B29" s="212">
         <v>24</v>
       </c>
-      <c r="C29" s="212">
+      <c r="C29" s="213">
         <v>44131</v>
       </c>
-      <c r="D29" s="217"/>
-      <c r="E29" s="217"/>
+      <c r="D29" s="218"/>
+      <c r="E29" s="218"/>
       <c r="F29" s="198"/>
       <c r="G29" s="198"/>
       <c r="H29" s="198"/>
     </row>
     <row r="30" ht="16" customHeight="1">
-      <c r="A30" s="210"/>
-      <c r="B30" s="211">
+      <c r="A30" s="211"/>
+      <c r="B30" s="212">
         <v>25</v>
       </c>
-      <c r="C30" s="212">
+      <c r="C30" s="213">
         <v>44132</v>
       </c>
-      <c r="D30" s="217"/>
-      <c r="E30" s="217"/>
+      <c r="D30" s="218"/>
+      <c r="E30" s="218"/>
       <c r="F30" s="198"/>
       <c r="G30" s="198"/>
       <c r="H30" s="198"/>
     </row>
     <row r="31" ht="16" customHeight="1">
-      <c r="A31" s="210"/>
-      <c r="B31" s="211">
+      <c r="A31" s="211"/>
+      <c r="B31" s="212">
         <v>26</v>
       </c>
-      <c r="C31" s="212">
+      <c r="C31" s="213">
         <v>44133</v>
       </c>
-      <c r="D31" t="s" s="213">
-        <v>391</v>
-      </c>
-      <c r="E31" s="211">
+      <c r="D31" t="s" s="214">
+        <v>488</v>
+      </c>
+      <c r="E31" s="212">
         <v>1</v>
       </c>
       <c r="F31" t="s" s="193">
-        <v>371</v>
+        <v>468</v>
       </c>
       <c r="G31" t="s" s="193">
-        <v>339</v>
+        <v>436</v>
       </c>
       <c r="H31" t="s" s="193">
-        <v>392</v>
+        <v>489</v>
       </c>
     </row>
     <row r="32" ht="16" customHeight="1">
-      <c r="A32" s="210"/>
-      <c r="B32" s="211">
+      <c r="A32" s="211"/>
+      <c r="B32" s="212">
         <v>27</v>
       </c>
-      <c r="C32" s="212">
+      <c r="C32" s="213">
         <v>44134</v>
       </c>
-      <c r="D32" t="s" s="213">
-        <v>393</v>
-      </c>
-      <c r="E32" s="211">
+      <c r="D32" t="s" s="214">
+        <v>490</v>
+      </c>
+      <c r="E32" s="212">
         <v>2</v>
       </c>
       <c r="F32" t="s" s="193">
-        <v>371</v>
+        <v>468</v>
       </c>
       <c r="G32" t="s" s="193">
-        <v>339</v>
+        <v>436</v>
       </c>
       <c r="H32" t="s" s="193">
-        <v>394</v>
+        <v>491</v>
       </c>
     </row>
     <row r="33" ht="28" customHeight="1">
-      <c r="A33" s="210"/>
-      <c r="B33" s="211">
+      <c r="A33" s="211"/>
+      <c r="B33" s="212">
         <v>28</v>
       </c>
-      <c r="C33" s="212">
+      <c r="C33" s="213">
         <v>44137</v>
       </c>
-      <c r="D33" t="s" s="215">
-        <v>395</v>
-      </c>
-      <c r="E33" s="211">
+      <c r="D33" t="s" s="216">
+        <v>492</v>
+      </c>
+      <c r="E33" s="212">
         <v>8</v>
       </c>
       <c r="F33" t="s" s="195">
-        <v>396</v>
+        <v>493</v>
       </c>
       <c r="G33" t="s" s="195">
-        <v>397</v>
+        <v>494</v>
       </c>
       <c r="H33" t="s" s="195">
-        <v>398</v>
+        <v>495</v>
       </c>
     </row>
     <row r="34" ht="16" customHeight="1">
-      <c r="A34" s="210"/>
-      <c r="B34" s="211">
+      <c r="A34" s="211"/>
+      <c r="B34" s="212">
         <v>29</v>
       </c>
-      <c r="C34" s="212">
+      <c r="C34" s="213">
         <v>44138</v>
       </c>
-      <c r="D34" t="s" s="213">
-        <v>337</v>
-      </c>
-      <c r="E34" s="211">
+      <c r="D34" t="s" s="214">
+        <v>434</v>
+      </c>
+      <c r="E34" s="212">
         <v>8</v>
       </c>
       <c r="F34" t="s" s="193">
-        <v>399</v>
+        <v>496</v>
       </c>
       <c r="G34" t="s" s="193">
-        <v>400</v>
+        <v>497</v>
       </c>
       <c r="H34" t="s" s="193">
-        <v>401</v>
+        <v>498</v>
       </c>
     </row>
     <row r="35" ht="28" customHeight="1">
-      <c r="A35" s="210"/>
-      <c r="B35" s="211">
+      <c r="A35" s="211"/>
+      <c r="B35" s="212">
         <v>30</v>
       </c>
-      <c r="C35" s="212">
+      <c r="C35" s="213">
         <v>44139</v>
       </c>
-      <c r="D35" t="s" s="215">
-        <v>402</v>
-      </c>
-      <c r="E35" s="211">
+      <c r="D35" t="s" s="216">
+        <v>499</v>
+      </c>
+      <c r="E35" s="212">
         <v>8</v>
       </c>
       <c r="F35" t="s" s="195">
-        <v>403</v>
+        <v>500</v>
       </c>
       <c r="G35" t="s" s="195">
-        <v>404</v>
+        <v>501</v>
       </c>
       <c r="H35" t="s" s="195">
-        <v>405</v>
+        <v>502</v>
       </c>
     </row>
     <row r="36" ht="28" customHeight="1">
-      <c r="A36" s="210"/>
-      <c r="B36" s="211">
+      <c r="A36" s="211"/>
+      <c r="B36" s="212">
         <v>31</v>
       </c>
-      <c r="C36" s="212">
+      <c r="C36" s="213">
         <v>44140</v>
       </c>
-      <c r="D36" t="s" s="215">
-        <v>406</v>
-      </c>
-      <c r="E36" s="211">
+      <c r="D36" t="s" s="216">
+        <v>503</v>
+      </c>
+      <c r="E36" s="212">
         <v>4.5</v>
       </c>
       <c r="F36" t="s" s="195">
-        <v>407</v>
+        <v>504</v>
       </c>
       <c r="G36" t="s" s="195">
-        <v>359</v>
+        <v>456</v>
       </c>
       <c r="H36" t="s" s="195">
-        <v>408</v>
+        <v>505</v>
       </c>
     </row>
     <row r="37" ht="16" customHeight="1">
-      <c r="A37" s="210"/>
-      <c r="B37" s="211">
+      <c r="A37" s="211"/>
+      <c r="B37" s="212">
         <v>32</v>
       </c>
-      <c r="C37" s="212">
+      <c r="C37" s="213">
         <v>44141</v>
       </c>
-      <c r="D37" t="s" s="213">
-        <v>409</v>
-      </c>
-      <c r="E37" s="211">
+      <c r="D37" t="s" s="214">
+        <v>506</v>
+      </c>
+      <c r="E37" s="212">
         <v>6.5</v>
       </c>
       <c r="F37" t="s" s="193">
-        <v>371</v>
+        <v>468</v>
       </c>
       <c r="G37" t="s" s="193">
-        <v>339</v>
+        <v>436</v>
       </c>
       <c r="H37" t="s" s="193">
-        <v>410</v>
+        <v>507</v>
       </c>
     </row>
     <row r="38" ht="16" customHeight="1">
-      <c r="A38" s="210"/>
-      <c r="B38" s="211">
+      <c r="A38" s="211"/>
+      <c r="B38" s="212">
         <v>33</v>
       </c>
-      <c r="C38" s="212">
+      <c r="C38" s="213">
         <v>44144</v>
       </c>
-      <c r="D38" s="217"/>
-      <c r="E38" s="217"/>
+      <c r="D38" s="218"/>
+      <c r="E38" s="218"/>
       <c r="F38" s="198"/>
       <c r="G38" s="198"/>
       <c r="H38" s="198"/>
     </row>
     <row r="39" ht="16" customHeight="1">
-      <c r="A39" s="210"/>
-      <c r="B39" s="211">
+      <c r="A39" s="211"/>
+      <c r="B39" s="212">
         <v>34</v>
       </c>
-      <c r="C39" s="212">
+      <c r="C39" s="213">
         <v>44145</v>
       </c>
-      <c r="D39" t="s" s="213">
-        <v>411</v>
-      </c>
-      <c r="E39" s="211">
+      <c r="D39" t="s" s="214">
+        <v>508</v>
+      </c>
+      <c r="E39" s="212">
         <v>5</v>
       </c>
       <c r="F39" t="s" s="193">
-        <v>371</v>
+        <v>468</v>
       </c>
       <c r="G39" t="s" s="193">
-        <v>339</v>
+        <v>436</v>
       </c>
       <c r="H39" t="s" s="193">
-        <v>392</v>
+        <v>489</v>
       </c>
     </row>
     <row r="40" ht="16" customHeight="1">
-      <c r="A40" s="210"/>
-      <c r="B40" s="211">
+      <c r="A40" s="211"/>
+      <c r="B40" s="212">
         <v>35</v>
       </c>
-      <c r="C40" s="212">
+      <c r="C40" s="213">
         <v>44146</v>
       </c>
-      <c r="D40" s="217"/>
-      <c r="E40" s="217"/>
+      <c r="D40" s="218"/>
+      <c r="E40" s="218"/>
       <c r="F40" s="198"/>
       <c r="G40" s="198"/>
       <c r="H40" s="198"/>
     </row>
     <row r="41" ht="15" customHeight="1">
       <c r="A41" s="123"/>
-      <c r="B41" s="218"/>
-      <c r="C41" s="218"/>
-      <c r="D41" t="s" s="219">
-        <v>412</v>
-      </c>
-      <c r="E41" s="220">
+      <c r="B41" s="219"/>
+      <c r="C41" s="219"/>
+      <c r="D41" t="s" s="220">
+        <v>509</v>
+      </c>
+      <c r="E41" s="221">
         <f>SUM(E6:E40)</f>
         <v>140.75</v>
       </c>
-      <c r="F41" t="s" s="221">
-        <v>413</v>
-      </c>
-      <c r="G41" t="s" s="221">
+      <c r="F41" t="s" s="222">
+        <v>510</v>
+      </c>
+      <c r="G41" t="s" s="222">
         <f>"out of "&amp;8*('UAT Status'!E4-NETWORKDAYS(TODAY(),'UAT Status'!D4,'UAT Status'!$W1:$W24)+1)&amp;" hours"</f>
-        <v>414</v>
-      </c>
-      <c r="H41" s="222"/>
+        <v>511</v>
+      </c>
+      <c r="H41" s="223"/>
     </row>
     <row r="42" ht="15" customHeight="1">
       <c r="A42" s="123"/>
       <c r="B42" s="126"/>
       <c r="C42" s="126"/>
       <c r="D42" s="126"/>
-      <c r="E42" s="218"/>
+      <c r="E42" s="219"/>
       <c r="F42" s="126"/>
       <c r="G42" s="126"/>
       <c r="H42" s="127"/>
     </row>
     <row r="43" ht="16" customHeight="1">
       <c r="A43" s="174"/>
-      <c r="B43" t="s" s="223">
-        <v>415</v>
+      <c r="B43" t="s" s="224">
+        <v>512</v>
       </c>
       <c r="C43" s="187"/>
       <c r="D43" s="187"/>

--- a/office docs/Squad2 MVP1 UAT Sign-off_overall.xlsx
+++ b/office docs/Squad2 MVP1 UAT Sign-off_overall.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="538">
   <si>
     <t>#</t>
   </si>
@@ -628,7 +628,7 @@
     <t>LG mobile</t>
   </si>
   <si>
-    <t>Progress Status as of 2-2-2021</t>
+    <t>Progress Status as of 4-2-2021</t>
   </si>
   <si>
     <t>Project Name</t>
@@ -6004,10 +6004,319 @@
     <t>110</t>
   </si>
   <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>Company Information Section</t>
+  </si>
+  <si>
+    <t>1.a</t>
+  </si>
+  <si>
+    <t>Verify that the number relevant individuals have been reduced to 3 from 5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>1. Open the online appointment form page.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>2. Navigate to the relevant individual section.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>3. Add the relevant individuals and verify that only 3 individuals can be added at max.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>4. Verify that after adding three individuals, there is no link available for adding more individuals.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>1. The new online appointment form page should be opened.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>2. User scrolled down to the relevant individual section.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>3. Verified that only 3 individuals can be added at max.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>4. Link “Add more” is not displayed after adding three individuals</t>
+    </r>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>1.b</t>
+  </si>
+  <si>
+    <t>Verify that the company information questions have been reduce to 3 questions from 5.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>1. Open the online appointment form page.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>2. Scroll down to the company information questions.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">3. Verify that there are only 3 questions and they are: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Is your company with 5 or more layers in its ownership / controlling structure?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t xml:space="preserve">Is your company directly or indirectly owned by a trust or foundation?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>Does your company have any nominee shareholders in its ownership structure?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>1. The new online appointment form page should be opened.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>2. Scrolled down successfully.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>3. Verified that the question have ben reduced to 3 in numbers and are matching the expected questions from copywriting.</t>
+    </r>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
     <t>System Down Time</t>
   </si>
   <si>
-    <t>System healthy rate 81.67 %</t>
+    <t>System healthy rate 82.04 %</t>
   </si>
   <si>
     <t>Day</t>
@@ -6303,7 +6612,7 @@
     <t>Hours</t>
   </si>
   <si>
-    <t>out of 768 hours</t>
+    <t>out of 784 hours</t>
   </si>
   <si>
     <t>* Counting based on 8 working hours per day (1300-1400 lunch hour)</t>
@@ -7049,7 +7358,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="225">
+  <cellXfs count="226">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -7657,6 +7966,9 @@
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -13940,7 +14252,7 @@
       </c>
       <c r="F4" s="142">
         <f>E4-NETWORKDAYS(TODAY(),D4,W1:W24)+1</f>
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G4" s="143">
         <f>C24-E24</f>
@@ -13952,7 +14264,7 @@
       </c>
       <c r="I4" s="144">
         <f>IFERROR((F4/E4),0)</f>
-        <v>2.74285714285714</v>
+        <v>2.8</v>
       </c>
       <c r="J4" s="145">
         <f>H4/G4</f>
@@ -14103,15 +14415,15 @@
         <v>0</v>
       </c>
       <c r="C9" s="156">
-        <f>COUNTIFS('Test Cases'!$M1:$M110,"PA*",'Test Cases'!$L1:$L110,TODAY())</f>
+        <f>COUNTIFS('Test Cases'!$M1:$M143,"PA*",'Test Cases'!$L1:$L143,TODAY())</f>
         <v>0</v>
       </c>
       <c r="D9" s="157">
-        <f>COUNTIFS('Test Cases'!$M1:$M110,"Pe*",'Test Cases'!$L1:$L110,TODAY())</f>
+        <f>COUNTIFS('Test Cases'!$M1:$M143,"Pe*",'Test Cases'!$L1:$L143,TODAY())</f>
         <v>0</v>
       </c>
       <c r="E9" s="158">
-        <f>COUNTIFS('Test Cases'!$M1:$M110,"fA*",'Test Cases'!$L1:$L110,TODAY())</f>
+        <f>COUNTIFS('Test Cases'!$M1:$M143,"fA*",'Test Cases'!$L1:$L143,TODAY())</f>
         <v>0</v>
       </c>
       <c r="F9" s="137"/>
@@ -14263,7 +14575,7 @@
         <v>229</v>
       </c>
       <c r="C14" s="155">
-        <f>COUNTIF('Test Cases'!$B1:$B110,"Fulfillment*")</f>
+        <f>COUNTIF('Test Cases'!$B1:$B143,"Fulfillment*")</f>
         <v>0</v>
       </c>
       <c r="D14" s="167">
@@ -14271,19 +14583,19 @@
         <v>0</v>
       </c>
       <c r="E14" s="168">
-        <f>COUNTIFS('Test Cases'!$B1:$B110,"Fulfillment*",'Test Cases'!$M1:$M110,"Can*")</f>
+        <f>COUNTIFS('Test Cases'!$B1:$B143,"Fulfillment*",'Test Cases'!$M1:$M143,"Can*")</f>
         <v>0</v>
       </c>
       <c r="F14" s="156">
-        <f>COUNTIFS('Test Cases'!$B1:$B110,"Fulfillment*",'Test Cases'!$M1:$M110,"Pa*")</f>
+        <f>COUNTIFS('Test Cases'!$B1:$B143,"Fulfillment*",'Test Cases'!$M1:$M143,"Pa*")</f>
         <v>0</v>
       </c>
       <c r="G14" s="157">
-        <f>COUNTIFS('Test Cases'!$B1:$B110,"Fulfillment*",'Test Cases'!$M1:$M110,"Pe*")</f>
+        <f>COUNTIFS('Test Cases'!$B1:$B143,"Fulfillment*",'Test Cases'!$M1:$M143,"Pe*")</f>
         <v>0</v>
       </c>
       <c r="H14" s="169">
-        <f>COUNTIFS('Test Cases'!$B1:$B110,"Fulfillment*",'Test Cases'!$M1:$M110,"fa*")</f>
+        <f>COUNTIFS('Test Cases'!$B1:$B143,"Fulfillment*",'Test Cases'!$M1:$M143,"fa*")</f>
         <v>0</v>
       </c>
       <c r="I14" s="170">
@@ -14320,7 +14632,7 @@
         <v>63</v>
       </c>
       <c r="C15" s="155">
-        <f>COUNTIF('Test Cases'!$B1:$B110,"Notifications*")</f>
+        <f>COUNTIF('Test Cases'!$B1:$B143,"Notifications*")</f>
         <v>0</v>
       </c>
       <c r="D15" s="167">
@@ -14328,19 +14640,19 @@
         <v>0</v>
       </c>
       <c r="E15" s="168">
-        <f>COUNTIFS('Test Cases'!$B1:$B110,"Notifications*",'Test Cases'!$M1:$M110,"Can*")</f>
+        <f>COUNTIFS('Test Cases'!$B1:$B143,"Notifications*",'Test Cases'!$M1:$M143,"Can*")</f>
         <v>0</v>
       </c>
       <c r="F15" s="156">
-        <f>COUNTIFS('Test Cases'!$B1:$B110,"Notifications*",'Test Cases'!$M1:$M110,"pa*")</f>
+        <f>COUNTIFS('Test Cases'!$B1:$B143,"Notifications*",'Test Cases'!$M1:$M143,"pa*")</f>
         <v>0</v>
       </c>
       <c r="G15" s="157">
-        <f>COUNTIFS('Test Cases'!$B1:$B110,"Notifications*",'Test Cases'!$M1:$M110,"pe*")</f>
+        <f>COUNTIFS('Test Cases'!$B1:$B143,"Notifications*",'Test Cases'!$M1:$M143,"pe*")</f>
         <v>0</v>
       </c>
       <c r="H15" s="169">
-        <f>COUNTIFS('Test Cases'!$B1:$B110,"Notifications*",'Test Cases'!$M1:$M110,"fa*")</f>
+        <f>COUNTIFS('Test Cases'!$B1:$B143,"Notifications*",'Test Cases'!$M1:$M143,"fa*")</f>
         <v>0</v>
       </c>
       <c r="I15" s="170">
@@ -14377,7 +14689,7 @@
         <v>88</v>
       </c>
       <c r="C16" s="155">
-        <f>COUNTIF('Test Cases'!$B1:$B110,"Entry*")</f>
+        <f>COUNTIF('Test Cases'!$B1:$B143,"Entry*")</f>
         <v>0</v>
       </c>
       <c r="D16" s="167">
@@ -14385,19 +14697,19 @@
         <v>0</v>
       </c>
       <c r="E16" s="168">
-        <f>COUNTIFS('Test Cases'!$B1:$B110,"Entry*",'Test Cases'!$M1:$M110,"Can*")</f>
+        <f>COUNTIFS('Test Cases'!$B1:$B143,"Entry*",'Test Cases'!$M1:$M143,"Can*")</f>
         <v>0</v>
       </c>
       <c r="F16" s="156">
-        <f>COUNTIFS('Test Cases'!$B1:$B110,"Entry*",'Test Cases'!$M1:$M110,"pa*")</f>
+        <f>COUNTIFS('Test Cases'!$B1:$B143,"Entry*",'Test Cases'!$M1:$M143,"pa*")</f>
         <v>0</v>
       </c>
       <c r="G16" s="157">
-        <f>COUNTIFS('Test Cases'!$B1:$B110,"Entry*",'Test Cases'!$M1:$M110,"pe*")</f>
+        <f>COUNTIFS('Test Cases'!$B1:$B143,"Entry*",'Test Cases'!$M1:$M143,"pe*")</f>
         <v>0</v>
       </c>
       <c r="H16" s="169">
-        <f>COUNTIFS('Test Cases'!$B1:$B110,"Entry*",'Test Cases'!$M1:$M110,"fa*")</f>
+        <f>COUNTIFS('Test Cases'!$B1:$B143,"Entry*",'Test Cases'!$M1:$M143,"fa*")</f>
         <v>0</v>
       </c>
       <c r="I16" s="170">
@@ -14434,7 +14746,7 @@
         <v>102</v>
       </c>
       <c r="C17" s="155">
-        <f>COUNTIF('Test Cases'!$B1:$B110,"Statements*")</f>
+        <f>COUNTIF('Test Cases'!$B1:$B143,"Statements*")</f>
         <v>0</v>
       </c>
       <c r="D17" s="167">
@@ -14442,19 +14754,19 @@
         <v>0</v>
       </c>
       <c r="E17" s="168">
-        <f>COUNTIFS('Test Cases'!$B1:$B110,"Statements*",'Test Cases'!$M1:$M110,"Can*")</f>
+        <f>COUNTIFS('Test Cases'!$B1:$B143,"Statements*",'Test Cases'!$M1:$M143,"Can*")</f>
         <v>0</v>
       </c>
       <c r="F17" s="156">
-        <f>COUNTIFS('Test Cases'!$B1:$B110,"Statements*",'Test Cases'!$M1:$M110,"pa*")</f>
+        <f>COUNTIFS('Test Cases'!$B1:$B143,"Statements*",'Test Cases'!$M1:$M143,"pa*")</f>
         <v>0</v>
       </c>
       <c r="G17" s="157">
-        <f>COUNTIFS('Test Cases'!$B1:$B110,"Statements*",'Test Cases'!$M1:$M110,"pe*")</f>
+        <f>COUNTIFS('Test Cases'!$B1:$B143,"Statements*",'Test Cases'!$M1:$M143,"pe*")</f>
         <v>0</v>
       </c>
       <c r="H17" s="169">
-        <f>COUNTIFS('Test Cases'!$B1:$B110,"Statements*",'Test Cases'!$M1:$M110,"fa*")</f>
+        <f>COUNTIFS('Test Cases'!$B1:$B143,"Statements*",'Test Cases'!$M1:$M143,"fa*")</f>
         <v>0</v>
       </c>
       <c r="I17" s="170">
@@ -14491,7 +14803,7 @@
         <v>107</v>
       </c>
       <c r="C18" s="155">
-        <f>COUNTIF('Test Cases'!$B1:$B110,"Referee*")</f>
+        <f>COUNTIF('Test Cases'!$B1:$B143,"Referee*")</f>
         <v>0</v>
       </c>
       <c r="D18" s="167">
@@ -14499,19 +14811,19 @@
         <v>0</v>
       </c>
       <c r="E18" s="168">
-        <f>COUNTIFS('Test Cases'!$B1:$B110,"Referee*",'Test Cases'!$M1:$M110,"Can*")</f>
+        <f>COUNTIFS('Test Cases'!$B1:$B143,"Referee*",'Test Cases'!$M1:$M143,"Can*")</f>
         <v>0</v>
       </c>
       <c r="F18" s="156">
-        <f>COUNTIFS('Test Cases'!$B1:$B110,"Referee*",'Test Cases'!$M1:$M110,"pa*")</f>
+        <f>COUNTIFS('Test Cases'!$B1:$B143,"Referee*",'Test Cases'!$M1:$M143,"pa*")</f>
         <v>0</v>
       </c>
       <c r="G18" s="157">
-        <f>COUNTIFS('Test Cases'!$B1:$B110,"Referee*",'Test Cases'!$M1:$M110,"pe*")</f>
+        <f>COUNTIFS('Test Cases'!$B1:$B143,"Referee*",'Test Cases'!$M1:$M143,"pe*")</f>
         <v>0</v>
       </c>
       <c r="H18" s="169">
-        <f>COUNTIFS('Test Cases'!$B1:$B110,"Referee*",'Test Cases'!$M1:$M110,"fa*")</f>
+        <f>COUNTIFS('Test Cases'!$B1:$B143,"Referee*",'Test Cases'!$M1:$M143,"fa*")</f>
         <v>0</v>
       </c>
       <c r="I18" s="170">
@@ -14548,7 +14860,7 @@
         <v>116</v>
       </c>
       <c r="C19" s="155">
-        <f>COUNTIF('Test Cases'!$B1:$B110,"BO*")</f>
+        <f>COUNTIF('Test Cases'!$B1:$B143,"BO*")</f>
         <v>0</v>
       </c>
       <c r="D19" s="167">
@@ -14556,19 +14868,19 @@
         <v>0</v>
       </c>
       <c r="E19" s="168">
-        <f>COUNTIFS('Test Cases'!$B1:$B110,"BO*",'Test Cases'!$M1:$M110,"Can*")</f>
+        <f>COUNTIFS('Test Cases'!$B1:$B143,"BO*",'Test Cases'!$M1:$M143,"Can*")</f>
         <v>0</v>
       </c>
       <c r="F19" s="156">
-        <f>COUNTIFS('Test Cases'!$B1:$B110,"BO*",'Test Cases'!$M1:$M110,"pa*")</f>
+        <f>COUNTIFS('Test Cases'!$B1:$B143,"BO*",'Test Cases'!$M1:$M143,"pa*")</f>
         <v>0</v>
       </c>
       <c r="G19" s="157">
-        <f>COUNTIFS('Test Cases'!$B1:$B110,"BO*",'Test Cases'!$M1:$M110,"pe*")</f>
+        <f>COUNTIFS('Test Cases'!$B1:$B143,"BO*",'Test Cases'!$M1:$M143,"pe*")</f>
         <v>0</v>
       </c>
       <c r="H19" s="169">
-        <f>COUNTIFS('Test Cases'!$B1:$B110,"BO*",'Test Cases'!$M1:$M110,"fa*")</f>
+        <f>COUNTIFS('Test Cases'!$B1:$B143,"BO*",'Test Cases'!$M1:$M143,"fa*")</f>
         <v>0</v>
       </c>
       <c r="I19" s="170">
@@ -14605,7 +14917,7 @@
         <v>230</v>
       </c>
       <c r="C20" s="155">
-        <f>COUNTIF('Test Cases'!$B1:$B110,"Referrer*")</f>
+        <f>COUNTIF('Test Cases'!$B1:$B143,"Referrer*")</f>
         <v>0</v>
       </c>
       <c r="D20" s="167">
@@ -14613,19 +14925,19 @@
         <v>0</v>
       </c>
       <c r="E20" s="168">
-        <f>COUNTIFS('Test Cases'!$B1:$B110,"Referrer*",'Test Cases'!$M1:$M110,"Can*")</f>
+        <f>COUNTIFS('Test Cases'!$B1:$B143,"Referrer*",'Test Cases'!$M1:$M143,"Can*")</f>
         <v>0</v>
       </c>
       <c r="F20" s="156">
-        <f>COUNTIFS('Test Cases'!$B1:$B110,"Referrer*",'Test Cases'!$M1:$M110,"pa*")</f>
+        <f>COUNTIFS('Test Cases'!$B1:$B143,"Referrer*",'Test Cases'!$M1:$M143,"pa*")</f>
         <v>0</v>
       </c>
       <c r="G20" s="157">
-        <f>COUNTIFS('Test Cases'!$B1:$B110,"Referrer*",'Test Cases'!$M1:$M110,"pe*")</f>
+        <f>COUNTIFS('Test Cases'!$B1:$B143,"Referrer*",'Test Cases'!$M1:$M143,"pe*")</f>
         <v>0</v>
       </c>
       <c r="H20" s="169">
-        <f>COUNTIFS('Test Cases'!$B1:$B110,"Referrer*",'Test Cases'!$M1:$M110,"fa*")</f>
+        <f>COUNTIFS('Test Cases'!$B1:$B143,"Referrer*",'Test Cases'!$M1:$M143,"fa*")</f>
         <v>0</v>
       </c>
       <c r="I20" s="170">
@@ -14662,7 +14974,7 @@
         <v>29</v>
       </c>
       <c r="C21" s="155">
-        <f>COUNTIF('Test Cases'!$B1:$B110,"Reports*")</f>
+        <f>COUNTIF('Test Cases'!$B1:$B143,"Reports*")</f>
         <v>0</v>
       </c>
       <c r="D21" s="167">
@@ -14670,19 +14982,19 @@
         <v>0</v>
       </c>
       <c r="E21" s="168">
-        <f>COUNTIFS('Test Cases'!$B1:$B110,"Reports*",'Test Cases'!$M1:$M110,"Can*")</f>
+        <f>COUNTIFS('Test Cases'!$B1:$B143,"Reports*",'Test Cases'!$M1:$M143,"Can*")</f>
         <v>0</v>
       </c>
       <c r="F21" s="156">
-        <f>COUNTIFS('Test Cases'!$B1:$B110,"Reports*",'Test Cases'!$M1:$M110,"pa*")</f>
+        <f>COUNTIFS('Test Cases'!$B1:$B143,"Reports*",'Test Cases'!$M1:$M143,"pa*")</f>
         <v>0</v>
       </c>
       <c r="G21" s="157">
-        <f>COUNTIFS('Test Cases'!$B1:$B110,"Reports*",'Test Cases'!$M1:$M110,"pe*")</f>
+        <f>COUNTIFS('Test Cases'!$B1:$B143,"Reports*",'Test Cases'!$M1:$M143,"pe*")</f>
         <v>0</v>
       </c>
       <c r="H21" s="169">
-        <f>COUNTIFS('Test Cases'!$B1:$B110,"Reports*",'Test Cases'!$M1:$M110,"fa*")</f>
+        <f>COUNTIFS('Test Cases'!$B1:$B143,"Reports*",'Test Cases'!$M1:$M143,"fa*")</f>
         <v>0</v>
       </c>
       <c r="I21" s="170">
@@ -14719,7 +15031,7 @@
         <v>182</v>
       </c>
       <c r="C22" s="155">
-        <f>COUNTIF('Test Cases'!$B1:$B110,"Data*")</f>
+        <f>COUNTIF('Test Cases'!$B1:$B143,"Data*")</f>
         <v>0</v>
       </c>
       <c r="D22" s="167">
@@ -14727,19 +15039,19 @@
         <v>0</v>
       </c>
       <c r="E22" s="168">
-        <f>COUNTIFS('Test Cases'!$B1:$B110,"Data*",'Test Cases'!$M1:$M110,"Can*")</f>
+        <f>COUNTIFS('Test Cases'!$B1:$B143,"Data*",'Test Cases'!$M1:$M143,"Can*")</f>
         <v>0</v>
       </c>
       <c r="F22" s="156">
-        <f>COUNTIFS('Test Cases'!$B1:$B110,"Data*",'Test Cases'!$M1:$M110,"pa*")</f>
+        <f>COUNTIFS('Test Cases'!$B1:$B143,"Data*",'Test Cases'!$M1:$M143,"pa*")</f>
         <v>0</v>
       </c>
       <c r="G22" s="157">
-        <f>COUNTIFS('Test Cases'!$B1:$B110,"Data*",'Test Cases'!$M1:$M110,"pe*")</f>
+        <f>COUNTIFS('Test Cases'!$B1:$B143,"Data*",'Test Cases'!$M1:$M143,"pe*")</f>
         <v>0</v>
       </c>
       <c r="H22" s="169">
-        <f>COUNTIFS('Test Cases'!$B1:$B110,"Data*",'Test Cases'!$M1:$M110,"fa*")</f>
+        <f>COUNTIFS('Test Cases'!$B1:$B143,"Data*",'Test Cases'!$M1:$M143,"fa*")</f>
         <v>0</v>
       </c>
       <c r="I22" s="170">
@@ -14776,7 +15088,7 @@
         <v>189</v>
       </c>
       <c r="C23" s="155">
-        <f>COUNTIF('Test Cases'!$B1:$B110,"Others*")</f>
+        <f>COUNTIF('Test Cases'!$B1:$B143,"Others*")</f>
         <v>0</v>
       </c>
       <c r="D23" s="167">
@@ -14784,19 +15096,19 @@
         <v>0</v>
       </c>
       <c r="E23" s="168">
-        <f>COUNTIFS('Test Cases'!$B1:$B110,"Others*",'Test Cases'!$M1:$M110,"Can*")</f>
+        <f>COUNTIFS('Test Cases'!$B1:$B143,"Others*",'Test Cases'!$M1:$M143,"Can*")</f>
         <v>0</v>
       </c>
       <c r="F23" s="156">
-        <f>COUNTIFS('Test Cases'!$B1:$B110,"Others*",'Test Cases'!$M1:$M110,"pa*")</f>
+        <f>COUNTIFS('Test Cases'!$B1:$B143,"Others*",'Test Cases'!$M1:$M143,"pa*")</f>
         <v>0</v>
       </c>
       <c r="G23" s="157">
-        <f>COUNTIFS('Test Cases'!$B1:$B110,"Others*",'Test Cases'!$M1:$M110,"pe*")</f>
+        <f>COUNTIFS('Test Cases'!$B1:$B143,"Others*",'Test Cases'!$M1:$M143,"pe*")</f>
         <v>0</v>
       </c>
       <c r="H23" s="169">
-        <f>COUNTIFS('Test Cases'!$B1:$B110,"Others*",'Test Cases'!$M1:$M110,"fa*")</f>
+        <f>COUNTIFS('Test Cases'!$B1:$B143,"Others*",'Test Cases'!$M1:$M143,"fa*")</f>
         <v>0</v>
       </c>
       <c r="I23" s="170">
@@ -14895,7 +15207,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N110"/>
+  <dimension ref="A1:N143"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -18863,6 +19175,854 @@
       </c>
       <c r="N110" s="198"/>
     </row>
+    <row r="111" ht="28" customHeight="1">
+      <c r="A111" t="s" s="193">
+        <v>425</v>
+      </c>
+      <c r="B111" t="s" s="193">
+        <v>426</v>
+      </c>
+      <c r="C111" t="s" s="193">
+        <v>427</v>
+      </c>
+      <c r="D111" t="s" s="200">
+        <v>428</v>
+      </c>
+      <c r="E111" t="s" s="193">
+        <v>246</v>
+      </c>
+      <c r="F111" t="s" s="193">
+        <v>247</v>
+      </c>
+      <c r="G111" t="s" s="195">
+        <v>272</v>
+      </c>
+      <c r="H111" s="196"/>
+      <c r="I111" s="196"/>
+      <c r="J111" t="s" s="195">
+        <v>429</v>
+      </c>
+      <c r="K111" t="s" s="195">
+        <v>430</v>
+      </c>
+      <c r="L111" s="197"/>
+      <c r="M111" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N111" s="198"/>
+    </row>
+    <row r="112" ht="28" customHeight="1">
+      <c r="A112" t="s" s="193">
+        <v>431</v>
+      </c>
+      <c r="B112" t="s" s="193">
+        <v>426</v>
+      </c>
+      <c r="C112" t="s" s="193">
+        <v>432</v>
+      </c>
+      <c r="D112" t="s" s="200">
+        <v>433</v>
+      </c>
+      <c r="E112" t="s" s="193">
+        <v>246</v>
+      </c>
+      <c r="F112" t="s" s="193">
+        <v>247</v>
+      </c>
+      <c r="G112" t="s" s="195">
+        <v>272</v>
+      </c>
+      <c r="H112" s="196"/>
+      <c r="I112" s="196"/>
+      <c r="J112" t="s" s="195">
+        <v>434</v>
+      </c>
+      <c r="K112" t="s" s="195">
+        <v>435</v>
+      </c>
+      <c r="L112" s="197"/>
+      <c r="M112" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N112" s="198"/>
+    </row>
+    <row r="113" ht="28" customHeight="1">
+      <c r="A113" t="s" s="193">
+        <v>436</v>
+      </c>
+      <c r="B113" t="s" s="193">
+        <v>426</v>
+      </c>
+      <c r="C113" t="s" s="193">
+        <v>427</v>
+      </c>
+      <c r="D113" t="s" s="200">
+        <v>428</v>
+      </c>
+      <c r="E113" t="s" s="193">
+        <v>246</v>
+      </c>
+      <c r="F113" t="s" s="193">
+        <v>352</v>
+      </c>
+      <c r="G113" t="s" s="195">
+        <v>272</v>
+      </c>
+      <c r="H113" s="196"/>
+      <c r="I113" s="196"/>
+      <c r="J113" t="s" s="195">
+        <v>429</v>
+      </c>
+      <c r="K113" t="s" s="195">
+        <v>430</v>
+      </c>
+      <c r="L113" s="197"/>
+      <c r="M113" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N113" s="198"/>
+    </row>
+    <row r="114" ht="28" customHeight="1">
+      <c r="A114" t="s" s="193">
+        <v>437</v>
+      </c>
+      <c r="B114" t="s" s="193">
+        <v>426</v>
+      </c>
+      <c r="C114" t="s" s="193">
+        <v>432</v>
+      </c>
+      <c r="D114" t="s" s="200">
+        <v>433</v>
+      </c>
+      <c r="E114" t="s" s="193">
+        <v>246</v>
+      </c>
+      <c r="F114" t="s" s="193">
+        <v>352</v>
+      </c>
+      <c r="G114" t="s" s="195">
+        <v>272</v>
+      </c>
+      <c r="H114" s="196"/>
+      <c r="I114" s="196"/>
+      <c r="J114" t="s" s="195">
+        <v>434</v>
+      </c>
+      <c r="K114" t="s" s="195">
+        <v>435</v>
+      </c>
+      <c r="L114" s="197"/>
+      <c r="M114" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N114" s="198"/>
+    </row>
+    <row r="115" ht="28" customHeight="1">
+      <c r="A115" t="s" s="193">
+        <v>438</v>
+      </c>
+      <c r="B115" t="s" s="193">
+        <v>426</v>
+      </c>
+      <c r="C115" t="s" s="193">
+        <v>427</v>
+      </c>
+      <c r="D115" t="s" s="200">
+        <v>428</v>
+      </c>
+      <c r="E115" t="s" s="193">
+        <v>324</v>
+      </c>
+      <c r="F115" t="s" s="193">
+        <v>247</v>
+      </c>
+      <c r="G115" t="s" s="195">
+        <v>272</v>
+      </c>
+      <c r="H115" s="196"/>
+      <c r="I115" s="196"/>
+      <c r="J115" t="s" s="195">
+        <v>429</v>
+      </c>
+      <c r="K115" t="s" s="195">
+        <v>430</v>
+      </c>
+      <c r="L115" s="197"/>
+      <c r="M115" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N115" s="198"/>
+    </row>
+    <row r="116" ht="28" customHeight="1">
+      <c r="A116" t="s" s="193">
+        <v>439</v>
+      </c>
+      <c r="B116" t="s" s="193">
+        <v>426</v>
+      </c>
+      <c r="C116" t="s" s="193">
+        <v>432</v>
+      </c>
+      <c r="D116" t="s" s="200">
+        <v>433</v>
+      </c>
+      <c r="E116" t="s" s="193">
+        <v>324</v>
+      </c>
+      <c r="F116" t="s" s="193">
+        <v>247</v>
+      </c>
+      <c r="G116" t="s" s="195">
+        <v>272</v>
+      </c>
+      <c r="H116" s="196"/>
+      <c r="I116" s="196"/>
+      <c r="J116" t="s" s="195">
+        <v>434</v>
+      </c>
+      <c r="K116" t="s" s="195">
+        <v>435</v>
+      </c>
+      <c r="L116" s="197"/>
+      <c r="M116" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N116" s="198"/>
+    </row>
+    <row r="117" ht="28" customHeight="1">
+      <c r="A117" t="s" s="193">
+        <v>440</v>
+      </c>
+      <c r="B117" t="s" s="193">
+        <v>426</v>
+      </c>
+      <c r="C117" t="s" s="193">
+        <v>427</v>
+      </c>
+      <c r="D117" t="s" s="200">
+        <v>428</v>
+      </c>
+      <c r="E117" t="s" s="193">
+        <v>324</v>
+      </c>
+      <c r="F117" t="s" s="193">
+        <v>352</v>
+      </c>
+      <c r="G117" t="s" s="195">
+        <v>272</v>
+      </c>
+      <c r="H117" s="196"/>
+      <c r="I117" s="196"/>
+      <c r="J117" t="s" s="195">
+        <v>429</v>
+      </c>
+      <c r="K117" t="s" s="195">
+        <v>430</v>
+      </c>
+      <c r="L117" s="197"/>
+      <c r="M117" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N117" s="198"/>
+    </row>
+    <row r="118" ht="28" customHeight="1">
+      <c r="A118" t="s" s="193">
+        <v>441</v>
+      </c>
+      <c r="B118" t="s" s="193">
+        <v>426</v>
+      </c>
+      <c r="C118" t="s" s="193">
+        <v>432</v>
+      </c>
+      <c r="D118" t="s" s="200">
+        <v>433</v>
+      </c>
+      <c r="E118" t="s" s="193">
+        <v>324</v>
+      </c>
+      <c r="F118" t="s" s="193">
+        <v>352</v>
+      </c>
+      <c r="G118" t="s" s="195">
+        <v>272</v>
+      </c>
+      <c r="H118" s="196"/>
+      <c r="I118" s="196"/>
+      <c r="J118" t="s" s="195">
+        <v>434</v>
+      </c>
+      <c r="K118" t="s" s="195">
+        <v>435</v>
+      </c>
+      <c r="L118" s="197"/>
+      <c r="M118" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N118" s="198"/>
+    </row>
+    <row r="119" ht="28" customHeight="1">
+      <c r="A119" t="s" s="193">
+        <v>442</v>
+      </c>
+      <c r="B119" t="s" s="193">
+        <v>426</v>
+      </c>
+      <c r="C119" t="s" s="193">
+        <v>427</v>
+      </c>
+      <c r="D119" t="s" s="200">
+        <v>428</v>
+      </c>
+      <c r="E119" t="s" s="193">
+        <v>338</v>
+      </c>
+      <c r="F119" t="s" s="193">
+        <v>247</v>
+      </c>
+      <c r="G119" t="s" s="195">
+        <v>272</v>
+      </c>
+      <c r="H119" s="196"/>
+      <c r="I119" s="196"/>
+      <c r="J119" t="s" s="195">
+        <v>429</v>
+      </c>
+      <c r="K119" t="s" s="195">
+        <v>430</v>
+      </c>
+      <c r="L119" s="197"/>
+      <c r="M119" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N119" s="198"/>
+    </row>
+    <row r="120" ht="28" customHeight="1">
+      <c r="A120" t="s" s="193">
+        <v>443</v>
+      </c>
+      <c r="B120" t="s" s="193">
+        <v>426</v>
+      </c>
+      <c r="C120" t="s" s="193">
+        <v>432</v>
+      </c>
+      <c r="D120" t="s" s="200">
+        <v>433</v>
+      </c>
+      <c r="E120" t="s" s="193">
+        <v>338</v>
+      </c>
+      <c r="F120" t="s" s="193">
+        <v>247</v>
+      </c>
+      <c r="G120" t="s" s="195">
+        <v>272</v>
+      </c>
+      <c r="H120" s="196"/>
+      <c r="I120" s="196"/>
+      <c r="J120" t="s" s="195">
+        <v>434</v>
+      </c>
+      <c r="K120" t="s" s="195">
+        <v>435</v>
+      </c>
+      <c r="L120" s="197"/>
+      <c r="M120" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N120" s="198"/>
+    </row>
+    <row r="121" ht="28" customHeight="1">
+      <c r="A121" t="s" s="193">
+        <v>444</v>
+      </c>
+      <c r="B121" t="s" s="193">
+        <v>426</v>
+      </c>
+      <c r="C121" t="s" s="193">
+        <v>427</v>
+      </c>
+      <c r="D121" t="s" s="200">
+        <v>428</v>
+      </c>
+      <c r="E121" t="s" s="193">
+        <v>338</v>
+      </c>
+      <c r="F121" t="s" s="193">
+        <v>352</v>
+      </c>
+      <c r="G121" t="s" s="195">
+        <v>272</v>
+      </c>
+      <c r="H121" s="196"/>
+      <c r="I121" s="196"/>
+      <c r="J121" t="s" s="195">
+        <v>429</v>
+      </c>
+      <c r="K121" t="s" s="195">
+        <v>430</v>
+      </c>
+      <c r="L121" s="197"/>
+      <c r="M121" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N121" s="198"/>
+    </row>
+    <row r="122" ht="28" customHeight="1">
+      <c r="A122" t="s" s="193">
+        <v>445</v>
+      </c>
+      <c r="B122" t="s" s="193">
+        <v>426</v>
+      </c>
+      <c r="C122" t="s" s="193">
+        <v>432</v>
+      </c>
+      <c r="D122" t="s" s="200">
+        <v>433</v>
+      </c>
+      <c r="E122" t="s" s="193">
+        <v>338</v>
+      </c>
+      <c r="F122" t="s" s="193">
+        <v>352</v>
+      </c>
+      <c r="G122" t="s" s="195">
+        <v>272</v>
+      </c>
+      <c r="H122" s="196"/>
+      <c r="I122" s="196"/>
+      <c r="J122" t="s" s="195">
+        <v>434</v>
+      </c>
+      <c r="K122" t="s" s="195">
+        <v>435</v>
+      </c>
+      <c r="L122" s="197"/>
+      <c r="M122" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N122" s="198"/>
+    </row>
+    <row r="123" ht="28" customHeight="1">
+      <c r="A123" t="s" s="193">
+        <v>446</v>
+      </c>
+      <c r="B123" t="s" s="193">
+        <v>426</v>
+      </c>
+      <c r="C123" t="s" s="193">
+        <v>427</v>
+      </c>
+      <c r="D123" t="s" s="200">
+        <v>428</v>
+      </c>
+      <c r="E123" t="s" s="193">
+        <v>246</v>
+      </c>
+      <c r="F123" t="s" s="193">
+        <v>411</v>
+      </c>
+      <c r="G123" t="s" s="195">
+        <v>272</v>
+      </c>
+      <c r="H123" s="196"/>
+      <c r="I123" s="196"/>
+      <c r="J123" t="s" s="195">
+        <v>429</v>
+      </c>
+      <c r="K123" t="s" s="195">
+        <v>430</v>
+      </c>
+      <c r="L123" s="197"/>
+      <c r="M123" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N123" s="198"/>
+    </row>
+    <row r="124" ht="28" customHeight="1">
+      <c r="A124" t="s" s="193">
+        <v>447</v>
+      </c>
+      <c r="B124" t="s" s="193">
+        <v>426</v>
+      </c>
+      <c r="C124" t="s" s="193">
+        <v>432</v>
+      </c>
+      <c r="D124" t="s" s="200">
+        <v>433</v>
+      </c>
+      <c r="E124" t="s" s="193">
+        <v>246</v>
+      </c>
+      <c r="F124" t="s" s="193">
+        <v>411</v>
+      </c>
+      <c r="G124" t="s" s="195">
+        <v>272</v>
+      </c>
+      <c r="H124" s="196"/>
+      <c r="I124" s="196"/>
+      <c r="J124" t="s" s="195">
+        <v>434</v>
+      </c>
+      <c r="K124" t="s" s="195">
+        <v>435</v>
+      </c>
+      <c r="L124" s="197"/>
+      <c r="M124" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N124" s="198"/>
+    </row>
+    <row r="125" ht="28" customHeight="1">
+      <c r="A125" t="s" s="193">
+        <v>448</v>
+      </c>
+      <c r="B125" t="s" s="193">
+        <v>426</v>
+      </c>
+      <c r="C125" t="s" s="193">
+        <v>427</v>
+      </c>
+      <c r="D125" t="s" s="200">
+        <v>428</v>
+      </c>
+      <c r="E125" t="s" s="193">
+        <v>246</v>
+      </c>
+      <c r="F125" t="s" s="193">
+        <v>393</v>
+      </c>
+      <c r="G125" t="s" s="195">
+        <v>272</v>
+      </c>
+      <c r="H125" s="196"/>
+      <c r="I125" s="196"/>
+      <c r="J125" t="s" s="195">
+        <v>429</v>
+      </c>
+      <c r="K125" t="s" s="195">
+        <v>430</v>
+      </c>
+      <c r="L125" s="197"/>
+      <c r="M125" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N125" s="198"/>
+    </row>
+    <row r="126" ht="28" customHeight="1">
+      <c r="A126" t="s" s="193">
+        <v>449</v>
+      </c>
+      <c r="B126" t="s" s="193">
+        <v>426</v>
+      </c>
+      <c r="C126" t="s" s="193">
+        <v>432</v>
+      </c>
+      <c r="D126" t="s" s="200">
+        <v>433</v>
+      </c>
+      <c r="E126" t="s" s="193">
+        <v>246</v>
+      </c>
+      <c r="F126" t="s" s="193">
+        <v>393</v>
+      </c>
+      <c r="G126" t="s" s="195">
+        <v>272</v>
+      </c>
+      <c r="H126" s="196"/>
+      <c r="I126" s="196"/>
+      <c r="J126" t="s" s="195">
+        <v>434</v>
+      </c>
+      <c r="K126" t="s" s="195">
+        <v>435</v>
+      </c>
+      <c r="L126" s="197"/>
+      <c r="M126" t="s" s="193">
+        <v>251</v>
+      </c>
+      <c r="N126" s="198"/>
+    </row>
+    <row r="127" ht="28" customHeight="1">
+      <c r="A127" s="198"/>
+      <c r="B127" s="198"/>
+      <c r="C127" s="198"/>
+      <c r="D127" s="203"/>
+      <c r="E127" s="198"/>
+      <c r="F127" s="198"/>
+      <c r="G127" s="196"/>
+      <c r="H127" s="196"/>
+      <c r="I127" s="196"/>
+      <c r="J127" s="196"/>
+      <c r="K127" s="196"/>
+      <c r="L127" s="197"/>
+      <c r="M127" s="198"/>
+      <c r="N127" s="198"/>
+    </row>
+    <row r="128" ht="28" customHeight="1">
+      <c r="A128" s="198"/>
+      <c r="B128" s="198"/>
+      <c r="C128" s="198"/>
+      <c r="D128" s="203"/>
+      <c r="E128" s="198"/>
+      <c r="F128" s="198"/>
+      <c r="G128" s="196"/>
+      <c r="H128" s="196"/>
+      <c r="I128" s="196"/>
+      <c r="J128" s="196"/>
+      <c r="K128" s="196"/>
+      <c r="L128" s="197"/>
+      <c r="M128" s="198"/>
+      <c r="N128" s="198"/>
+    </row>
+    <row r="129" ht="28" customHeight="1">
+      <c r="A129" s="198"/>
+      <c r="B129" s="198"/>
+      <c r="C129" s="198"/>
+      <c r="D129" s="203"/>
+      <c r="E129" s="198"/>
+      <c r="F129" s="198"/>
+      <c r="G129" s="196"/>
+      <c r="H129" s="196"/>
+      <c r="I129" s="196"/>
+      <c r="J129" s="196"/>
+      <c r="K129" s="196"/>
+      <c r="L129" s="197"/>
+      <c r="M129" s="198"/>
+      <c r="N129" s="198"/>
+    </row>
+    <row r="130" ht="28" customHeight="1">
+      <c r="A130" s="198"/>
+      <c r="B130" s="198"/>
+      <c r="C130" s="198"/>
+      <c r="D130" s="203"/>
+      <c r="E130" s="198"/>
+      <c r="F130" s="198"/>
+      <c r="G130" s="196"/>
+      <c r="H130" s="196"/>
+      <c r="I130" s="196"/>
+      <c r="J130" s="196"/>
+      <c r="K130" s="196"/>
+      <c r="L130" s="197"/>
+      <c r="M130" s="198"/>
+      <c r="N130" s="198"/>
+    </row>
+    <row r="131" ht="28" customHeight="1">
+      <c r="A131" s="198"/>
+      <c r="B131" s="198"/>
+      <c r="C131" s="198"/>
+      <c r="D131" s="203"/>
+      <c r="E131" s="198"/>
+      <c r="F131" s="198"/>
+      <c r="G131" s="196"/>
+      <c r="H131" s="196"/>
+      <c r="I131" s="196"/>
+      <c r="J131" s="196"/>
+      <c r="K131" s="196"/>
+      <c r="L131" s="197"/>
+      <c r="M131" s="198"/>
+      <c r="N131" s="198"/>
+    </row>
+    <row r="132" ht="28" customHeight="1">
+      <c r="A132" s="198"/>
+      <c r="B132" s="198"/>
+      <c r="C132" s="198"/>
+      <c r="D132" s="203"/>
+      <c r="E132" s="198"/>
+      <c r="F132" s="198"/>
+      <c r="G132" s="196"/>
+      <c r="H132" s="196"/>
+      <c r="I132" s="196"/>
+      <c r="J132" s="196"/>
+      <c r="K132" s="196"/>
+      <c r="L132" s="197"/>
+      <c r="M132" s="198"/>
+      <c r="N132" s="198"/>
+    </row>
+    <row r="133" ht="28" customHeight="1">
+      <c r="A133" s="198"/>
+      <c r="B133" s="198"/>
+      <c r="C133" s="198"/>
+      <c r="D133" s="203"/>
+      <c r="E133" s="198"/>
+      <c r="F133" s="198"/>
+      <c r="G133" s="196"/>
+      <c r="H133" s="196"/>
+      <c r="I133" s="196"/>
+      <c r="J133" s="196"/>
+      <c r="K133" s="196"/>
+      <c r="L133" s="197"/>
+      <c r="M133" s="198"/>
+      <c r="N133" s="198"/>
+    </row>
+    <row r="134" ht="28" customHeight="1">
+      <c r="A134" s="198"/>
+      <c r="B134" s="198"/>
+      <c r="C134" s="198"/>
+      <c r="D134" s="203"/>
+      <c r="E134" s="198"/>
+      <c r="F134" s="198"/>
+      <c r="G134" s="196"/>
+      <c r="H134" s="196"/>
+      <c r="I134" s="196"/>
+      <c r="J134" s="196"/>
+      <c r="K134" s="196"/>
+      <c r="L134" s="197"/>
+      <c r="M134" s="198"/>
+      <c r="N134" s="198"/>
+    </row>
+    <row r="135" ht="28" customHeight="1">
+      <c r="A135" s="198"/>
+      <c r="B135" s="198"/>
+      <c r="C135" s="198"/>
+      <c r="D135" s="203"/>
+      <c r="E135" s="198"/>
+      <c r="F135" s="198"/>
+      <c r="G135" s="196"/>
+      <c r="H135" s="196"/>
+      <c r="I135" s="196"/>
+      <c r="J135" s="196"/>
+      <c r="K135" s="196"/>
+      <c r="L135" s="197"/>
+      <c r="M135" s="198"/>
+      <c r="N135" s="198"/>
+    </row>
+    <row r="136" ht="28" customHeight="1">
+      <c r="A136" s="198"/>
+      <c r="B136" s="198"/>
+      <c r="C136" s="198"/>
+      <c r="D136" s="203"/>
+      <c r="E136" s="198"/>
+      <c r="F136" s="198"/>
+      <c r="G136" s="196"/>
+      <c r="H136" s="196"/>
+      <c r="I136" s="196"/>
+      <c r="J136" s="196"/>
+      <c r="K136" s="196"/>
+      <c r="L136" s="197"/>
+      <c r="M136" s="198"/>
+      <c r="N136" s="198"/>
+    </row>
+    <row r="137" ht="28" customHeight="1">
+      <c r="A137" s="198"/>
+      <c r="B137" s="198"/>
+      <c r="C137" s="198"/>
+      <c r="D137" s="203"/>
+      <c r="E137" s="198"/>
+      <c r="F137" s="198"/>
+      <c r="G137" s="196"/>
+      <c r="H137" s="196"/>
+      <c r="I137" s="196"/>
+      <c r="J137" s="196"/>
+      <c r="K137" s="196"/>
+      <c r="L137" s="197"/>
+      <c r="M137" s="198"/>
+      <c r="N137" s="198"/>
+    </row>
+    <row r="138" ht="28" customHeight="1">
+      <c r="A138" s="198"/>
+      <c r="B138" s="198"/>
+      <c r="C138" s="198"/>
+      <c r="D138" s="203"/>
+      <c r="E138" s="198"/>
+      <c r="F138" s="198"/>
+      <c r="G138" s="196"/>
+      <c r="H138" s="196"/>
+      <c r="I138" s="196"/>
+      <c r="J138" s="196"/>
+      <c r="K138" s="196"/>
+      <c r="L138" s="197"/>
+      <c r="M138" s="198"/>
+      <c r="N138" s="198"/>
+    </row>
+    <row r="139" ht="28" customHeight="1">
+      <c r="A139" s="198"/>
+      <c r="B139" s="198"/>
+      <c r="C139" s="198"/>
+      <c r="D139" s="203"/>
+      <c r="E139" s="198"/>
+      <c r="F139" s="198"/>
+      <c r="G139" s="196"/>
+      <c r="H139" s="196"/>
+      <c r="I139" s="196"/>
+      <c r="J139" s="196"/>
+      <c r="K139" s="196"/>
+      <c r="L139" s="197"/>
+      <c r="M139" s="198"/>
+      <c r="N139" s="198"/>
+    </row>
+    <row r="140" ht="28" customHeight="1">
+      <c r="A140" s="198"/>
+      <c r="B140" s="198"/>
+      <c r="C140" s="198"/>
+      <c r="D140" s="203"/>
+      <c r="E140" s="198"/>
+      <c r="F140" s="198"/>
+      <c r="G140" s="196"/>
+      <c r="H140" s="196"/>
+      <c r="I140" s="196"/>
+      <c r="J140" s="196"/>
+      <c r="K140" s="196"/>
+      <c r="L140" s="197"/>
+      <c r="M140" s="198"/>
+      <c r="N140" s="198"/>
+    </row>
+    <row r="141" ht="28" customHeight="1">
+      <c r="A141" s="198"/>
+      <c r="B141" s="198"/>
+      <c r="C141" s="198"/>
+      <c r="D141" s="203"/>
+      <c r="E141" s="198"/>
+      <c r="F141" s="198"/>
+      <c r="G141" s="196"/>
+      <c r="H141" s="196"/>
+      <c r="I141" s="196"/>
+      <c r="J141" s="196"/>
+      <c r="K141" s="196"/>
+      <c r="L141" s="197"/>
+      <c r="M141" s="198"/>
+      <c r="N141" s="198"/>
+    </row>
+    <row r="142" ht="28" customHeight="1">
+      <c r="A142" s="198"/>
+      <c r="B142" s="198"/>
+      <c r="C142" s="198"/>
+      <c r="D142" s="203"/>
+      <c r="E142" s="198"/>
+      <c r="F142" s="198"/>
+      <c r="G142" s="196"/>
+      <c r="H142" s="196"/>
+      <c r="I142" s="196"/>
+      <c r="J142" s="196"/>
+      <c r="K142" s="196"/>
+      <c r="L142" s="197"/>
+      <c r="M142" s="198"/>
+      <c r="N142" s="198"/>
+    </row>
+    <row r="143" ht="28" customHeight="1">
+      <c r="A143" s="198"/>
+      <c r="B143" s="198"/>
+      <c r="C143" s="198"/>
+      <c r="D143" s="203"/>
+      <c r="E143" s="198"/>
+      <c r="F143" s="198"/>
+      <c r="G143" s="196"/>
+      <c r="H143" s="196"/>
+      <c r="I143" s="196"/>
+      <c r="J143" s="196"/>
+      <c r="K143" s="196"/>
+      <c r="L143" s="197"/>
+      <c r="M143" s="198"/>
+      <c r="N143" s="198"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -18880,15 +20040,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="203" customWidth="1"/>
-    <col min="2" max="2" width="20.3516" style="203" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="203" customWidth="1"/>
-    <col min="4" max="4" width="14.3516" style="203" customWidth="1"/>
-    <col min="5" max="5" width="15.3516" style="203" customWidth="1"/>
-    <col min="6" max="6" width="43.8516" style="203" customWidth="1"/>
-    <col min="7" max="7" width="23.5" style="203" customWidth="1"/>
-    <col min="8" max="8" width="48.6719" style="203" customWidth="1"/>
-    <col min="9" max="256" width="8.85156" style="203" customWidth="1"/>
+    <col min="1" max="1" width="8.85156" style="204" customWidth="1"/>
+    <col min="2" max="2" width="20.3516" style="204" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="204" customWidth="1"/>
+    <col min="4" max="4" width="14.3516" style="204" customWidth="1"/>
+    <col min="5" max="5" width="15.3516" style="204" customWidth="1"/>
+    <col min="6" max="6" width="43.8516" style="204" customWidth="1"/>
+    <col min="7" max="7" width="23.5" style="204" customWidth="1"/>
+    <col min="8" max="8" width="48.6719" style="204" customWidth="1"/>
+    <col min="9" max="256" width="8.85156" style="204" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16" customHeight="1">
@@ -18903,857 +20063,857 @@
     </row>
     <row r="2" ht="16" customHeight="1">
       <c r="A2" s="123"/>
-      <c r="B2" t="s" s="204">
-        <v>425</v>
+      <c r="B2" t="s" s="205">
+        <v>450</v>
       </c>
       <c r="C2" s="126"/>
-      <c r="D2" s="205"/>
-      <c r="E2" s="205"/>
-      <c r="F2" s="205"/>
-      <c r="G2" s="205"/>
-      <c r="H2" s="206"/>
+      <c r="D2" s="206"/>
+      <c r="E2" s="206"/>
+      <c r="F2" s="206"/>
+      <c r="G2" s="206"/>
+      <c r="H2" s="207"/>
     </row>
     <row r="3" ht="16" customHeight="1">
       <c r="A3" s="123"/>
-      <c r="B3" s="207"/>
+      <c r="B3" s="208"/>
       <c r="C3" s="126"/>
-      <c r="D3" s="205"/>
-      <c r="E3" s="205"/>
-      <c r="F3" s="205"/>
-      <c r="G3" s="205"/>
-      <c r="H3" s="206"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="206"/>
+      <c r="F3" s="206"/>
+      <c r="G3" s="206"/>
+      <c r="H3" s="207"/>
     </row>
     <row r="4" ht="16" customHeight="1">
       <c r="A4" s="123"/>
-      <c r="B4" t="s" s="208">
+      <c r="B4" t="s" s="209">
         <f>"System healthy rate "&amp;(1-ROUNDUP(E41/(8*('UAT Status'!E4-NETWORKDAYS(TODAY(),'UAT Status'!D4,'UAT Status'!W1:W24)+1)),4))*100&amp;" %"</f>
-        <v>426</v>
-      </c>
-      <c r="C4" s="209"/>
-      <c r="D4" s="209"/>
-      <c r="E4" s="209"/>
-      <c r="F4" s="209"/>
-      <c r="G4" s="209"/>
-      <c r="H4" s="210"/>
+        <v>451</v>
+      </c>
+      <c r="C4" s="210"/>
+      <c r="D4" s="210"/>
+      <c r="E4" s="210"/>
+      <c r="F4" s="210"/>
+      <c r="G4" s="210"/>
+      <c r="H4" s="211"/>
     </row>
     <row r="5" ht="16" customHeight="1">
-      <c r="A5" s="211"/>
+      <c r="A5" s="212"/>
       <c r="B5" t="s" s="5">
-        <v>427</v>
+        <v>452</v>
       </c>
       <c r="C5" t="s" s="5">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="D5" t="s" s="5">
-        <v>429</v>
+        <v>454</v>
       </c>
       <c r="E5" t="s" s="5">
-        <v>430</v>
+        <v>455</v>
       </c>
       <c r="F5" t="s" s="5">
-        <v>431</v>
+        <v>456</v>
       </c>
       <c r="G5" t="s" s="5">
-        <v>432</v>
+        <v>457</v>
       </c>
       <c r="H5" t="s" s="5">
-        <v>433</v>
+        <v>458</v>
       </c>
     </row>
     <row r="6" ht="16" customHeight="1">
-      <c r="A6" s="211"/>
-      <c r="B6" s="212">
+      <c r="A6" s="212"/>
+      <c r="B6" s="213">
         <v>1</v>
       </c>
-      <c r="C6" s="213">
+      <c r="C6" s="214">
         <v>44095</v>
       </c>
-      <c r="D6" t="s" s="214">
-        <v>434</v>
-      </c>
-      <c r="E6" s="212">
+      <c r="D6" t="s" s="215">
+        <v>459</v>
+      </c>
+      <c r="E6" s="213">
         <v>8</v>
       </c>
       <c r="F6" t="s" s="193">
-        <v>435</v>
+        <v>460</v>
       </c>
       <c r="G6" t="s" s="195">
-        <v>436</v>
+        <v>461</v>
       </c>
       <c r="H6" t="s" s="195">
-        <v>437</v>
+        <v>462</v>
       </c>
     </row>
     <row r="7" ht="16" customHeight="1">
-      <c r="A7" s="211"/>
-      <c r="B7" s="212">
+      <c r="A7" s="212"/>
+      <c r="B7" s="213">
         <v>2</v>
       </c>
-      <c r="C7" s="213">
+      <c r="C7" s="214">
         <v>44096</v>
       </c>
-      <c r="D7" t="s" s="214">
-        <v>434</v>
-      </c>
-      <c r="E7" s="212">
+      <c r="D7" t="s" s="215">
+        <v>459</v>
+      </c>
+      <c r="E7" s="213">
         <v>8</v>
       </c>
       <c r="F7" t="s" s="193">
-        <v>435</v>
+        <v>460</v>
       </c>
       <c r="G7" t="s" s="195">
-        <v>436</v>
+        <v>461</v>
       </c>
       <c r="H7" t="s" s="195">
-        <v>437</v>
+        <v>462</v>
       </c>
     </row>
     <row r="8" ht="16" customHeight="1">
-      <c r="A8" s="211"/>
-      <c r="B8" s="212">
+      <c r="A8" s="212"/>
+      <c r="B8" s="213">
         <v>3</v>
       </c>
-      <c r="C8" s="213">
+      <c r="C8" s="214">
         <v>44097</v>
       </c>
-      <c r="D8" t="s" s="214">
-        <v>438</v>
-      </c>
-      <c r="E8" s="212">
+      <c r="D8" t="s" s="215">
+        <v>463</v>
+      </c>
+      <c r="E8" s="213">
         <v>2.5</v>
       </c>
       <c r="F8" t="s" s="193">
-        <v>439</v>
+        <v>464</v>
       </c>
       <c r="G8" t="s" s="195">
-        <v>436</v>
-      </c>
-      <c r="H8" t="s" s="215">
-        <v>440</v>
+        <v>461</v>
+      </c>
+      <c r="H8" t="s" s="216">
+        <v>465</v>
       </c>
     </row>
     <row r="9" ht="16" customHeight="1">
-      <c r="A9" s="211"/>
-      <c r="B9" s="212">
+      <c r="A9" s="212"/>
+      <c r="B9" s="213">
         <v>4</v>
       </c>
-      <c r="C9" s="213">
+      <c r="C9" s="214">
         <v>44098</v>
       </c>
-      <c r="D9" t="s" s="214">
-        <v>441</v>
-      </c>
-      <c r="E9" s="212">
+      <c r="D9" t="s" s="215">
+        <v>466</v>
+      </c>
+      <c r="E9" s="213">
         <v>1.75</v>
       </c>
       <c r="F9" t="s" s="193">
-        <v>442</v>
+        <v>467</v>
       </c>
       <c r="G9" t="s" s="195">
-        <v>436</v>
-      </c>
-      <c r="H9" t="s" s="215">
-        <v>443</v>
+        <v>461</v>
+      </c>
+      <c r="H9" t="s" s="216">
+        <v>468</v>
       </c>
     </row>
     <row r="10" ht="16" customHeight="1">
-      <c r="A10" s="211"/>
-      <c r="B10" s="212">
+      <c r="A10" s="212"/>
+      <c r="B10" s="213">
         <v>5</v>
       </c>
-      <c r="C10" s="213">
+      <c r="C10" s="214">
         <v>44099</v>
       </c>
-      <c r="D10" t="s" s="214">
-        <v>444</v>
-      </c>
-      <c r="E10" s="212">
+      <c r="D10" t="s" s="215">
+        <v>469</v>
+      </c>
+      <c r="E10" s="213">
         <v>5</v>
       </c>
       <c r="F10" t="s" s="193">
-        <v>442</v>
+        <v>467</v>
       </c>
       <c r="G10" t="s" s="195">
-        <v>436</v>
-      </c>
-      <c r="H10" t="s" s="215">
-        <v>445</v>
+        <v>461</v>
+      </c>
+      <c r="H10" t="s" s="216">
+        <v>470</v>
       </c>
     </row>
     <row r="11" ht="28.5" customHeight="1">
-      <c r="A11" s="211"/>
-      <c r="B11" s="212">
+      <c r="A11" s="212"/>
+      <c r="B11" s="213">
         <v>6</v>
       </c>
-      <c r="C11" s="213">
+      <c r="C11" s="214">
         <v>44102</v>
       </c>
-      <c r="D11" t="s" s="216">
-        <v>446</v>
-      </c>
-      <c r="E11" s="212">
+      <c r="D11" t="s" s="217">
+        <v>471</v>
+      </c>
+      <c r="E11" s="213">
         <v>8</v>
       </c>
       <c r="F11" t="s" s="195">
-        <v>447</v>
-      </c>
-      <c r="G11" t="s" s="217">
-        <v>448</v>
-      </c>
-      <c r="H11" t="s" s="217">
-        <v>449</v>
+        <v>472</v>
+      </c>
+      <c r="G11" t="s" s="218">
+        <v>473</v>
+      </c>
+      <c r="H11" t="s" s="218">
+        <v>474</v>
       </c>
     </row>
     <row r="12" ht="28.5" customHeight="1">
-      <c r="A12" s="211"/>
-      <c r="B12" s="212">
+      <c r="A12" s="212"/>
+      <c r="B12" s="213">
         <v>7</v>
       </c>
-      <c r="C12" s="213">
+      <c r="C12" s="214">
         <v>44103</v>
       </c>
-      <c r="D12" t="s" s="216">
-        <v>450</v>
-      </c>
-      <c r="E12" s="212">
+      <c r="D12" t="s" s="217">
+        <v>475</v>
+      </c>
+      <c r="E12" s="213">
         <v>5</v>
       </c>
       <c r="F12" t="s" s="195">
-        <v>451</v>
-      </c>
-      <c r="G12" t="s" s="217">
-        <v>452</v>
+        <v>476</v>
+      </c>
+      <c r="G12" t="s" s="218">
+        <v>477</v>
       </c>
       <c r="H12" t="s" s="195">
-        <v>453</v>
+        <v>478</v>
       </c>
     </row>
     <row r="13" ht="28.5" customHeight="1">
-      <c r="A13" s="211"/>
-      <c r="B13" s="212">
+      <c r="A13" s="212"/>
+      <c r="B13" s="213">
         <v>8</v>
       </c>
-      <c r="C13" s="213">
+      <c r="C13" s="214">
         <v>44104</v>
       </c>
-      <c r="D13" t="s" s="216">
-        <v>454</v>
-      </c>
-      <c r="E13" s="212">
+      <c r="D13" t="s" s="217">
+        <v>479</v>
+      </c>
+      <c r="E13" s="213">
         <v>4.5</v>
       </c>
       <c r="F13" t="s" s="195">
-        <v>455</v>
-      </c>
-      <c r="G13" t="s" s="217">
-        <v>456</v>
+        <v>480</v>
+      </c>
+      <c r="G13" t="s" s="218">
+        <v>481</v>
       </c>
       <c r="H13" t="s" s="195">
-        <v>453</v>
+        <v>478</v>
       </c>
     </row>
     <row r="14" ht="16" customHeight="1">
-      <c r="A14" s="211"/>
-      <c r="B14" s="212">
+      <c r="A14" s="212"/>
+      <c r="B14" s="213">
         <v>9</v>
       </c>
-      <c r="C14" s="213">
+      <c r="C14" s="214">
         <v>44109</v>
       </c>
-      <c r="D14" t="s" s="214">
-        <v>434</v>
-      </c>
-      <c r="E14" s="212">
+      <c r="D14" t="s" s="215">
+        <v>459</v>
+      </c>
+      <c r="E14" s="213">
         <v>8</v>
       </c>
       <c r="F14" t="s" s="193">
-        <v>457</v>
+        <v>482</v>
       </c>
       <c r="G14" t="s" s="195">
-        <v>436</v>
+        <v>461</v>
       </c>
       <c r="H14" t="s" s="195">
-        <v>458</v>
+        <v>483</v>
       </c>
     </row>
     <row r="15" ht="16" customHeight="1">
-      <c r="A15" s="211"/>
-      <c r="B15" s="212">
+      <c r="A15" s="212"/>
+      <c r="B15" s="213">
         <v>10</v>
       </c>
-      <c r="C15" s="213">
+      <c r="C15" s="214">
         <v>44110</v>
       </c>
-      <c r="D15" t="s" s="214">
-        <v>459</v>
-      </c>
-      <c r="E15" s="212">
+      <c r="D15" t="s" s="215">
+        <v>484</v>
+      </c>
+      <c r="E15" s="213">
         <v>7</v>
       </c>
       <c r="F15" t="s" s="193">
-        <v>457</v>
+        <v>482</v>
       </c>
       <c r="G15" t="s" s="195">
-        <v>436</v>
+        <v>461</v>
       </c>
       <c r="H15" t="s" s="195">
-        <v>460</v>
+        <v>485</v>
       </c>
     </row>
     <row r="16" ht="16" customHeight="1">
-      <c r="A16" s="211"/>
-      <c r="B16" s="212">
+      <c r="A16" s="212"/>
+      <c r="B16" s="213">
         <v>11</v>
       </c>
-      <c r="C16" s="213">
+      <c r="C16" s="214">
         <v>44111</v>
       </c>
-      <c r="D16" t="s" s="214">
-        <v>459</v>
-      </c>
-      <c r="E16" s="212">
+      <c r="D16" t="s" s="215">
+        <v>484</v>
+      </c>
+      <c r="E16" s="213">
         <v>7</v>
       </c>
       <c r="F16" t="s" s="193">
+        <v>486</v>
+      </c>
+      <c r="G16" t="s" s="216">
+        <v>487</v>
+      </c>
+      <c r="H16" t="s" s="216">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="17" ht="42" customHeight="1">
+      <c r="A17" s="212"/>
+      <c r="B17" s="213">
+        <v>12</v>
+      </c>
+      <c r="C17" s="214">
+        <v>44112</v>
+      </c>
+      <c r="D17" t="s" s="217">
+        <v>489</v>
+      </c>
+      <c r="E17" s="213">
+        <v>6</v>
+      </c>
+      <c r="F17" t="s" s="195">
+        <v>490</v>
+      </c>
+      <c r="G17" t="s" s="195">
+        <v>491</v>
+      </c>
+      <c r="H17" t="s" s="195">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="18" ht="16" customHeight="1">
+      <c r="A18" s="212"/>
+      <c r="B18" s="213">
+        <v>13</v>
+      </c>
+      <c r="C18" s="214">
+        <v>44113</v>
+      </c>
+      <c r="D18" t="s" s="215">
+        <v>463</v>
+      </c>
+      <c r="E18" s="213">
+        <v>2.5</v>
+      </c>
+      <c r="F18" t="s" s="193">
+        <v>493</v>
+      </c>
+      <c r="G18" t="s" s="193">
         <v>461</v>
       </c>
-      <c r="G16" t="s" s="215">
-        <v>462</v>
-      </c>
-      <c r="H16" t="s" s="215">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="17" ht="42" customHeight="1">
-      <c r="A17" s="211"/>
-      <c r="B17" s="212">
-        <v>12</v>
-      </c>
-      <c r="C17" s="213">
-        <v>44112</v>
-      </c>
-      <c r="D17" t="s" s="216">
-        <v>464</v>
-      </c>
-      <c r="E17" s="212">
-        <v>6</v>
-      </c>
-      <c r="F17" t="s" s="195">
-        <v>465</v>
-      </c>
-      <c r="G17" t="s" s="195">
-        <v>466</v>
-      </c>
-      <c r="H17" t="s" s="195">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="18" ht="16" customHeight="1">
-      <c r="A18" s="211"/>
-      <c r="B18" s="212">
-        <v>13</v>
-      </c>
-      <c r="C18" s="213">
-        <v>44113</v>
-      </c>
-      <c r="D18" t="s" s="214">
-        <v>438</v>
-      </c>
-      <c r="E18" s="212">
-        <v>2.5</v>
-      </c>
-      <c r="F18" t="s" s="193">
-        <v>468</v>
-      </c>
-      <c r="G18" t="s" s="193">
-        <v>436</v>
-      </c>
       <c r="H18" t="s" s="193">
-        <v>469</v>
+        <v>494</v>
       </c>
     </row>
     <row r="19" ht="16" customHeight="1">
-      <c r="A19" s="211"/>
-      <c r="B19" s="212">
+      <c r="A19" s="212"/>
+      <c r="B19" s="213">
         <v>14</v>
       </c>
-      <c r="C19" s="213">
+      <c r="C19" s="214">
         <v>44116</v>
       </c>
-      <c r="D19" s="218"/>
-      <c r="E19" s="218"/>
+      <c r="D19" s="219"/>
+      <c r="E19" s="219"/>
       <c r="F19" s="198"/>
       <c r="G19" s="198"/>
       <c r="H19" s="198"/>
     </row>
     <row r="20" ht="16" customHeight="1">
-      <c r="A20" s="211"/>
-      <c r="B20" s="212">
+      <c r="A20" s="212"/>
+      <c r="B20" s="213">
         <v>15</v>
       </c>
-      <c r="C20" s="213">
+      <c r="C20" s="214">
         <v>44117</v>
       </c>
-      <c r="D20" t="s" s="214">
-        <v>470</v>
-      </c>
-      <c r="E20" s="212">
+      <c r="D20" t="s" s="215">
+        <v>495</v>
+      </c>
+      <c r="E20" s="213">
         <v>5</v>
       </c>
       <c r="F20" t="s" s="193">
-        <v>471</v>
+        <v>496</v>
       </c>
       <c r="G20" t="s" s="193">
-        <v>436</v>
+        <v>461</v>
       </c>
       <c r="H20" t="s" s="193">
-        <v>472</v>
+        <v>497</v>
       </c>
     </row>
     <row r="21" ht="16" customHeight="1">
-      <c r="A21" s="211"/>
-      <c r="B21" s="212">
+      <c r="A21" s="212"/>
+      <c r="B21" s="213">
         <v>16</v>
       </c>
-      <c r="C21" s="213">
+      <c r="C21" s="214">
         <v>44118</v>
       </c>
-      <c r="D21" s="218"/>
-      <c r="E21" s="218"/>
+      <c r="D21" s="219"/>
+      <c r="E21" s="219"/>
       <c r="F21" s="198"/>
       <c r="G21" s="198"/>
       <c r="H21" s="198"/>
     </row>
     <row r="22" ht="16" customHeight="1">
-      <c r="A22" s="211"/>
-      <c r="B22" s="212">
+      <c r="A22" s="212"/>
+      <c r="B22" s="213">
         <v>17</v>
       </c>
-      <c r="C22" s="213">
+      <c r="C22" s="214">
         <v>44119</v>
       </c>
-      <c r="D22" t="s" s="214">
-        <v>473</v>
-      </c>
-      <c r="E22" s="212">
+      <c r="D22" t="s" s="215">
+        <v>498</v>
+      </c>
+      <c r="E22" s="213">
         <v>2.5</v>
       </c>
       <c r="F22" t="s" s="193">
-        <v>474</v>
+        <v>499</v>
       </c>
       <c r="G22" t="s" s="193">
-        <v>436</v>
+        <v>461</v>
       </c>
       <c r="H22" t="s" s="193">
-        <v>475</v>
+        <v>500</v>
       </c>
     </row>
     <row r="23" ht="28" customHeight="1">
-      <c r="A23" s="211"/>
-      <c r="B23" s="212">
+      <c r="A23" s="212"/>
+      <c r="B23" s="213">
         <v>18</v>
       </c>
-      <c r="C23" s="213">
+      <c r="C23" s="214">
         <v>44120</v>
       </c>
-      <c r="D23" t="s" s="216">
-        <v>476</v>
-      </c>
-      <c r="E23" s="212">
+      <c r="D23" t="s" s="217">
+        <v>501</v>
+      </c>
+      <c r="E23" s="213">
         <v>4.5</v>
       </c>
       <c r="F23" t="s" s="195">
-        <v>477</v>
+        <v>502</v>
       </c>
       <c r="G23" t="s" s="195">
-        <v>478</v>
+        <v>503</v>
       </c>
       <c r="H23" t="s" s="195">
-        <v>479</v>
+        <v>504</v>
       </c>
     </row>
     <row r="24" ht="16" customHeight="1">
-      <c r="A24" s="211"/>
-      <c r="B24" s="212">
+      <c r="A24" s="212"/>
+      <c r="B24" s="213">
         <v>19</v>
       </c>
-      <c r="C24" s="213">
+      <c r="C24" s="214">
         <v>44123</v>
       </c>
-      <c r="D24" t="s" s="214">
-        <v>480</v>
-      </c>
-      <c r="E24" s="212">
+      <c r="D24" t="s" s="215">
+        <v>505</v>
+      </c>
+      <c r="E24" s="213">
         <v>1.5</v>
       </c>
       <c r="F24" t="s" s="193">
-        <v>471</v>
+        <v>496</v>
       </c>
       <c r="G24" t="s" s="193">
-        <v>436</v>
+        <v>461</v>
       </c>
       <c r="H24" t="s" s="193">
-        <v>472</v>
+        <v>497</v>
       </c>
     </row>
     <row r="25" ht="16" customHeight="1">
-      <c r="A25" s="211"/>
-      <c r="B25" s="212">
+      <c r="A25" s="212"/>
+      <c r="B25" s="213">
         <v>20</v>
       </c>
-      <c r="C25" s="213">
+      <c r="C25" s="214">
         <v>44124</v>
       </c>
-      <c r="D25" s="218"/>
-      <c r="E25" s="218"/>
+      <c r="D25" s="219"/>
+      <c r="E25" s="219"/>
       <c r="F25" s="198"/>
       <c r="G25" s="198"/>
       <c r="H25" s="198"/>
     </row>
     <row r="26" ht="28" customHeight="1">
-      <c r="A26" s="211"/>
-      <c r="B26" s="212">
+      <c r="A26" s="212"/>
+      <c r="B26" s="213">
         <v>21</v>
       </c>
-      <c r="C26" s="213">
+      <c r="C26" s="214">
         <v>44125</v>
       </c>
-      <c r="D26" t="s" s="216">
+      <c r="D26" t="s" s="217">
+        <v>506</v>
+      </c>
+      <c r="E26" s="213">
+        <v>3</v>
+      </c>
+      <c r="F26" t="s" s="195">
+        <v>507</v>
+      </c>
+      <c r="G26" t="s" s="195">
         <v>481</v>
       </c>
-      <c r="E26" s="212">
-        <v>3</v>
-      </c>
-      <c r="F26" t="s" s="195">
-        <v>482</v>
-      </c>
-      <c r="G26" t="s" s="195">
-        <v>456</v>
-      </c>
       <c r="H26" t="s" s="195">
-        <v>483</v>
+        <v>508</v>
       </c>
     </row>
     <row r="27" ht="16" customHeight="1">
-      <c r="A27" s="211"/>
-      <c r="B27" s="212">
+      <c r="A27" s="212"/>
+      <c r="B27" s="213">
         <v>22</v>
       </c>
-      <c r="C27" s="213">
+      <c r="C27" s="214">
         <v>44126</v>
       </c>
-      <c r="D27" s="218"/>
-      <c r="E27" s="218"/>
+      <c r="D27" s="219"/>
+      <c r="E27" s="219"/>
       <c r="F27" s="198"/>
       <c r="G27" s="198"/>
       <c r="H27" s="198"/>
     </row>
     <row r="28" ht="28" customHeight="1">
-      <c r="A28" s="211"/>
-      <c r="B28" s="212">
+      <c r="A28" s="212"/>
+      <c r="B28" s="213">
         <v>23</v>
       </c>
-      <c r="C28" s="213">
+      <c r="C28" s="214">
         <v>44127</v>
       </c>
-      <c r="D28" t="s" s="216">
-        <v>484</v>
-      </c>
-      <c r="E28" s="212">
+      <c r="D28" t="s" s="217">
+        <v>509</v>
+      </c>
+      <c r="E28" s="213">
         <v>8</v>
       </c>
       <c r="F28" t="s" s="195">
-        <v>485</v>
+        <v>510</v>
       </c>
       <c r="G28" t="s" s="195">
-        <v>486</v>
+        <v>511</v>
       </c>
       <c r="H28" t="s" s="195">
-        <v>487</v>
+        <v>512</v>
       </c>
     </row>
     <row r="29" ht="16" customHeight="1">
-      <c r="A29" s="211"/>
-      <c r="B29" s="212">
+      <c r="A29" s="212"/>
+      <c r="B29" s="213">
         <v>24</v>
       </c>
-      <c r="C29" s="213">
+      <c r="C29" s="214">
         <v>44131</v>
       </c>
-      <c r="D29" s="218"/>
-      <c r="E29" s="218"/>
+      <c r="D29" s="219"/>
+      <c r="E29" s="219"/>
       <c r="F29" s="198"/>
       <c r="G29" s="198"/>
       <c r="H29" s="198"/>
     </row>
     <row r="30" ht="16" customHeight="1">
-      <c r="A30" s="211"/>
-      <c r="B30" s="212">
+      <c r="A30" s="212"/>
+      <c r="B30" s="213">
         <v>25</v>
       </c>
-      <c r="C30" s="213">
+      <c r="C30" s="214">
         <v>44132</v>
       </c>
-      <c r="D30" s="218"/>
-      <c r="E30" s="218"/>
+      <c r="D30" s="219"/>
+      <c r="E30" s="219"/>
       <c r="F30" s="198"/>
       <c r="G30" s="198"/>
       <c r="H30" s="198"/>
     </row>
     <row r="31" ht="16" customHeight="1">
-      <c r="A31" s="211"/>
-      <c r="B31" s="212">
+      <c r="A31" s="212"/>
+      <c r="B31" s="213">
         <v>26</v>
       </c>
-      <c r="C31" s="213">
+      <c r="C31" s="214">
         <v>44133</v>
       </c>
-      <c r="D31" t="s" s="214">
-        <v>488</v>
-      </c>
-      <c r="E31" s="212">
+      <c r="D31" t="s" s="215">
+        <v>513</v>
+      </c>
+      <c r="E31" s="213">
         <v>1</v>
       </c>
       <c r="F31" t="s" s="193">
-        <v>468</v>
+        <v>493</v>
       </c>
       <c r="G31" t="s" s="193">
-        <v>436</v>
+        <v>461</v>
       </c>
       <c r="H31" t="s" s="193">
-        <v>489</v>
+        <v>514</v>
       </c>
     </row>
     <row r="32" ht="16" customHeight="1">
-      <c r="A32" s="211"/>
-      <c r="B32" s="212">
+      <c r="A32" s="212"/>
+      <c r="B32" s="213">
         <v>27</v>
       </c>
-      <c r="C32" s="213">
+      <c r="C32" s="214">
         <v>44134</v>
       </c>
-      <c r="D32" t="s" s="214">
-        <v>490</v>
-      </c>
-      <c r="E32" s="212">
+      <c r="D32" t="s" s="215">
+        <v>515</v>
+      </c>
+      <c r="E32" s="213">
         <v>2</v>
       </c>
       <c r="F32" t="s" s="193">
-        <v>468</v>
+        <v>493</v>
       </c>
       <c r="G32" t="s" s="193">
-        <v>436</v>
+        <v>461</v>
       </c>
       <c r="H32" t="s" s="193">
-        <v>491</v>
+        <v>516</v>
       </c>
     </row>
     <row r="33" ht="28" customHeight="1">
-      <c r="A33" s="211"/>
-      <c r="B33" s="212">
+      <c r="A33" s="212"/>
+      <c r="B33" s="213">
         <v>28</v>
       </c>
-      <c r="C33" s="213">
+      <c r="C33" s="214">
         <v>44137</v>
       </c>
-      <c r="D33" t="s" s="216">
-        <v>492</v>
-      </c>
-      <c r="E33" s="212">
+      <c r="D33" t="s" s="217">
+        <v>517</v>
+      </c>
+      <c r="E33" s="213">
         <v>8</v>
       </c>
       <c r="F33" t="s" s="195">
+        <v>518</v>
+      </c>
+      <c r="G33" t="s" s="195">
+        <v>519</v>
+      </c>
+      <c r="H33" t="s" s="195">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="34" ht="16" customHeight="1">
+      <c r="A34" s="212"/>
+      <c r="B34" s="213">
+        <v>29</v>
+      </c>
+      <c r="C34" s="214">
+        <v>44138</v>
+      </c>
+      <c r="D34" t="s" s="215">
+        <v>459</v>
+      </c>
+      <c r="E34" s="213">
+        <v>8</v>
+      </c>
+      <c r="F34" t="s" s="193">
+        <v>521</v>
+      </c>
+      <c r="G34" t="s" s="193">
+        <v>522</v>
+      </c>
+      <c r="H34" t="s" s="193">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="35" ht="28" customHeight="1">
+      <c r="A35" s="212"/>
+      <c r="B35" s="213">
+        <v>30</v>
+      </c>
+      <c r="C35" s="214">
+        <v>44139</v>
+      </c>
+      <c r="D35" t="s" s="217">
+        <v>524</v>
+      </c>
+      <c r="E35" s="213">
+        <v>8</v>
+      </c>
+      <c r="F35" t="s" s="195">
+        <v>525</v>
+      </c>
+      <c r="G35" t="s" s="195">
+        <v>526</v>
+      </c>
+      <c r="H35" t="s" s="195">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="36" ht="28" customHeight="1">
+      <c r="A36" s="212"/>
+      <c r="B36" s="213">
+        <v>31</v>
+      </c>
+      <c r="C36" s="214">
+        <v>44140</v>
+      </c>
+      <c r="D36" t="s" s="217">
+        <v>528</v>
+      </c>
+      <c r="E36" s="213">
+        <v>4.5</v>
+      </c>
+      <c r="F36" t="s" s="195">
+        <v>529</v>
+      </c>
+      <c r="G36" t="s" s="195">
+        <v>481</v>
+      </c>
+      <c r="H36" t="s" s="195">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="37" ht="16" customHeight="1">
+      <c r="A37" s="212"/>
+      <c r="B37" s="213">
+        <v>32</v>
+      </c>
+      <c r="C37" s="214">
+        <v>44141</v>
+      </c>
+      <c r="D37" t="s" s="215">
+        <v>531</v>
+      </c>
+      <c r="E37" s="213">
+        <v>6.5</v>
+      </c>
+      <c r="F37" t="s" s="193">
         <v>493</v>
       </c>
-      <c r="G33" t="s" s="195">
-        <v>494</v>
-      </c>
-      <c r="H33" t="s" s="195">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="34" ht="16" customHeight="1">
-      <c r="A34" s="211"/>
-      <c r="B34" s="212">
-        <v>29</v>
-      </c>
-      <c r="C34" s="213">
-        <v>44138</v>
-      </c>
-      <c r="D34" t="s" s="214">
-        <v>434</v>
-      </c>
-      <c r="E34" s="212">
-        <v>8</v>
-      </c>
-      <c r="F34" t="s" s="193">
-        <v>496</v>
-      </c>
-      <c r="G34" t="s" s="193">
-        <v>497</v>
-      </c>
-      <c r="H34" t="s" s="193">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="35" ht="28" customHeight="1">
-      <c r="A35" s="211"/>
-      <c r="B35" s="212">
-        <v>30</v>
-      </c>
-      <c r="C35" s="213">
-        <v>44139</v>
-      </c>
-      <c r="D35" t="s" s="216">
-        <v>499</v>
-      </c>
-      <c r="E35" s="212">
-        <v>8</v>
-      </c>
-      <c r="F35" t="s" s="195">
-        <v>500</v>
-      </c>
-      <c r="G35" t="s" s="195">
-        <v>501</v>
-      </c>
-      <c r="H35" t="s" s="195">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="36" ht="28" customHeight="1">
-      <c r="A36" s="211"/>
-      <c r="B36" s="212">
-        <v>31</v>
-      </c>
-      <c r="C36" s="213">
-        <v>44140</v>
-      </c>
-      <c r="D36" t="s" s="216">
-        <v>503</v>
-      </c>
-      <c r="E36" s="212">
-        <v>4.5</v>
-      </c>
-      <c r="F36" t="s" s="195">
-        <v>504</v>
-      </c>
-      <c r="G36" t="s" s="195">
-        <v>456</v>
-      </c>
-      <c r="H36" t="s" s="195">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="37" ht="16" customHeight="1">
-      <c r="A37" s="211"/>
-      <c r="B37" s="212">
-        <v>32</v>
-      </c>
-      <c r="C37" s="213">
-        <v>44141</v>
-      </c>
-      <c r="D37" t="s" s="214">
-        <v>506</v>
-      </c>
-      <c r="E37" s="212">
-        <v>6.5</v>
-      </c>
-      <c r="F37" t="s" s="193">
-        <v>468</v>
-      </c>
       <c r="G37" t="s" s="193">
-        <v>436</v>
+        <v>461</v>
       </c>
       <c r="H37" t="s" s="193">
-        <v>507</v>
+        <v>532</v>
       </c>
     </row>
     <row r="38" ht="16" customHeight="1">
-      <c r="A38" s="211"/>
-      <c r="B38" s="212">
+      <c r="A38" s="212"/>
+      <c r="B38" s="213">
         <v>33</v>
       </c>
-      <c r="C38" s="213">
+      <c r="C38" s="214">
         <v>44144</v>
       </c>
-      <c r="D38" s="218"/>
-      <c r="E38" s="218"/>
+      <c r="D38" s="219"/>
+      <c r="E38" s="219"/>
       <c r="F38" s="198"/>
       <c r="G38" s="198"/>
       <c r="H38" s="198"/>
     </row>
     <row r="39" ht="16" customHeight="1">
-      <c r="A39" s="211"/>
-      <c r="B39" s="212">
+      <c r="A39" s="212"/>
+      <c r="B39" s="213">
         <v>34</v>
       </c>
-      <c r="C39" s="213">
+      <c r="C39" s="214">
         <v>44145</v>
       </c>
-      <c r="D39" t="s" s="214">
-        <v>508</v>
-      </c>
-      <c r="E39" s="212">
+      <c r="D39" t="s" s="215">
+        <v>533</v>
+      </c>
+      <c r="E39" s="213">
         <v>5</v>
       </c>
       <c r="F39" t="s" s="193">
-        <v>468</v>
+        <v>493</v>
       </c>
       <c r="G39" t="s" s="193">
-        <v>436</v>
+        <v>461</v>
       </c>
       <c r="H39" t="s" s="193">
-        <v>489</v>
+        <v>514</v>
       </c>
     </row>
     <row r="40" ht="16" customHeight="1">
-      <c r="A40" s="211"/>
-      <c r="B40" s="212">
+      <c r="A40" s="212"/>
+      <c r="B40" s="213">
         <v>35</v>
       </c>
-      <c r="C40" s="213">
+      <c r="C40" s="214">
         <v>44146</v>
       </c>
-      <c r="D40" s="218"/>
-      <c r="E40" s="218"/>
+      <c r="D40" s="219"/>
+      <c r="E40" s="219"/>
       <c r="F40" s="198"/>
       <c r="G40" s="198"/>
       <c r="H40" s="198"/>
     </row>
     <row r="41" ht="15" customHeight="1">
       <c r="A41" s="123"/>
-      <c r="B41" s="219"/>
-      <c r="C41" s="219"/>
-      <c r="D41" t="s" s="220">
-        <v>509</v>
-      </c>
-      <c r="E41" s="221">
+      <c r="B41" s="220"/>
+      <c r="C41" s="220"/>
+      <c r="D41" t="s" s="221">
+        <v>534</v>
+      </c>
+      <c r="E41" s="222">
         <f>SUM(E6:E40)</f>
         <v>140.75</v>
       </c>
-      <c r="F41" t="s" s="222">
-        <v>510</v>
-      </c>
-      <c r="G41" t="s" s="222">
+      <c r="F41" t="s" s="223">
+        <v>535</v>
+      </c>
+      <c r="G41" t="s" s="223">
         <f>"out of "&amp;8*('UAT Status'!E4-NETWORKDAYS(TODAY(),'UAT Status'!D4,'UAT Status'!$W1:$W24)+1)&amp;" hours"</f>
-        <v>511</v>
-      </c>
-      <c r="H41" s="223"/>
+        <v>536</v>
+      </c>
+      <c r="H41" s="224"/>
     </row>
     <row r="42" ht="15" customHeight="1">
       <c r="A42" s="123"/>
       <c r="B42" s="126"/>
       <c r="C42" s="126"/>
       <c r="D42" s="126"/>
-      <c r="E42" s="219"/>
+      <c r="E42" s="220"/>
       <c r="F42" s="126"/>
       <c r="G42" s="126"/>
       <c r="H42" s="127"/>
     </row>
     <row r="43" ht="16" customHeight="1">
       <c r="A43" s="174"/>
-      <c r="B43" t="s" s="224">
-        <v>512</v>
+      <c r="B43" t="s" s="225">
+        <v>537</v>
       </c>
       <c r="C43" s="187"/>
       <c r="D43" s="187"/>
